--- a/data.xlsx
+++ b/data.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_All My Stuff\Senior Year\Algorithms\Project\algorithms_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7075277A-336A-4E81-BD81-F45272AD22CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA4F560-95A8-4745-A02B-D10A15149E46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6890" yWindow="13200" windowWidth="14400" windowHeight="7670" activeTab="1" xr2:uid="{36A8888B-E34B-4134-A916-AA0D47BA0190}"/>
+    <workbookView xWindow="-3700" yWindow="7360" windowWidth="14400" windowHeight="7670" xr2:uid="{36A8888B-E34B-4134-A916-AA0D47BA0190}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -57,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="35">
   <si>
     <t>Sorted by POS</t>
   </si>
@@ -403,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -599,13 +598,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -922,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD56DDD-8127-410A-A1D4-6813F110275A}">
   <dimension ref="A1:AR92"/>
   <sheetViews>
-    <sheetView zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:I65"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8767,1694 +8759,10 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2347F29-16C2-4363-92D1-0A0F5F31F295}">
-  <dimension ref="A1:H63"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="81" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="81" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="12">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="B2" s="81">
-        <v>25</v>
-      </c>
-      <c r="C2" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="82">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E2" s="82">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="F2" s="82">
-        <v>2.4</v>
-      </c>
-      <c r="G2" s="82">
-        <v>0.1</v>
-      </c>
-      <c r="H2" s="82">
-        <v>15.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="12">
-        <f>A2+1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="81">
-        <v>31</v>
-      </c>
-      <c r="C3" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="82">
-        <v>5</v>
-      </c>
-      <c r="E3" s="82">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="F3" s="82">
-        <v>2</v>
-      </c>
-      <c r="G3" s="82">
-        <v>0.1</v>
-      </c>
-      <c r="H3" s="82">
-        <v>18.100000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="12">
-        <f t="shared" ref="A4:A61" si="0">A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="B4" s="81">
-        <v>33</v>
-      </c>
-      <c r="C4" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="82">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E4" s="82">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F4" s="82">
-        <v>2</v>
-      </c>
-      <c r="G4" s="82">
-        <v>0.3</v>
-      </c>
-      <c r="H4" s="82">
-        <v>15.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="81">
-        <v>34</v>
-      </c>
-      <c r="C5" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="82">
-        <v>5</v>
-      </c>
-      <c r="E5" s="82">
-        <v>6.7</v>
-      </c>
-      <c r="F5" s="82">
-        <v>1.6</v>
-      </c>
-      <c r="G5" s="82">
-        <v>0.2</v>
-      </c>
-      <c r="H5" s="82">
-        <v>17.600000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="81">
-        <v>24</v>
-      </c>
-      <c r="C6" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="82">
-        <v>5.2</v>
-      </c>
-      <c r="E6" s="82">
-        <v>7.6</v>
-      </c>
-      <c r="F6" s="82">
-        <v>1</v>
-      </c>
-      <c r="G6" s="82">
-        <v>0.4</v>
-      </c>
-      <c r="H6" s="82">
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="81">
-        <v>24</v>
-      </c>
-      <c r="C7" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="83">
-        <v>2.6</v>
-      </c>
-      <c r="E7" s="83">
-        <v>2.5</v>
-      </c>
-      <c r="F7" s="83">
-        <v>0.9</v>
-      </c>
-      <c r="G7" s="83">
-        <v>0.3</v>
-      </c>
-      <c r="H7" s="83">
-        <v>11.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="81">
-        <v>27</v>
-      </c>
-      <c r="C8" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="82">
-        <v>2.7</v>
-      </c>
-      <c r="E8" s="82">
-        <v>5.9</v>
-      </c>
-      <c r="F8" s="82">
-        <v>1.2</v>
-      </c>
-      <c r="G8" s="82">
-        <v>0.3</v>
-      </c>
-      <c r="H8" s="82">
-        <v>15.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="81">
-        <v>28</v>
-      </c>
-      <c r="C9" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="82">
-        <v>4</v>
-      </c>
-      <c r="E9" s="82">
-        <v>7.8</v>
-      </c>
-      <c r="F9" s="82">
-        <v>1.2</v>
-      </c>
-      <c r="G9" s="82">
-        <v>0.4</v>
-      </c>
-      <c r="H9" s="82">
-        <v>15.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="12">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="81">
-        <v>28</v>
-      </c>
-      <c r="C10" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="82">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E10" s="82">
-        <v>5.9</v>
-      </c>
-      <c r="F10" s="82">
-        <v>1.2</v>
-      </c>
-      <c r="G10" s="82">
-        <v>0.4</v>
-      </c>
-      <c r="H10" s="82">
-        <v>25.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="81">
-        <v>24</v>
-      </c>
-      <c r="C11" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="82">
-        <v>3.2</v>
-      </c>
-      <c r="E11" s="82">
-        <v>5.8</v>
-      </c>
-      <c r="F11" s="82">
-        <v>1.2</v>
-      </c>
-      <c r="G11" s="82">
-        <v>0.3</v>
-      </c>
-      <c r="H11" s="82">
-        <v>25.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="81">
-        <v>26</v>
-      </c>
-      <c r="C12" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="82">
-        <v>5</v>
-      </c>
-      <c r="E12" s="82">
-        <v>6.9</v>
-      </c>
-      <c r="F12" s="82">
-        <v>1.5</v>
-      </c>
-      <c r="G12" s="82">
-        <v>0.5</v>
-      </c>
-      <c r="H12" s="82">
-        <v>23.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="12">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="81">
-        <v>23</v>
-      </c>
-      <c r="C13" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="82">
-        <v>3.3</v>
-      </c>
-      <c r="E13" s="82">
-        <v>2.5</v>
-      </c>
-      <c r="F13" s="82">
-        <v>1.2</v>
-      </c>
-      <c r="G13" s="82">
-        <v>0.2</v>
-      </c>
-      <c r="H13" s="82">
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="12">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="81">
-        <v>30</v>
-      </c>
-      <c r="C14" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="82">
-        <v>3.6</v>
-      </c>
-      <c r="E14" s="82">
-        <v>1.6</v>
-      </c>
-      <c r="F14" s="82">
-        <v>0.9</v>
-      </c>
-      <c r="G14" s="82">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H14" s="82">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="12">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="81">
-        <v>31</v>
-      </c>
-      <c r="C15" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="82">
-        <v>4</v>
-      </c>
-      <c r="E15" s="82">
-        <v>1.6</v>
-      </c>
-      <c r="F15" s="82">
-        <v>0.9</v>
-      </c>
-      <c r="G15" s="82">
-        <v>0.7</v>
-      </c>
-      <c r="H15" s="82">
-        <v>10.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="12">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="81">
-        <v>32</v>
-      </c>
-      <c r="C16" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="82">
-        <v>3.3</v>
-      </c>
-      <c r="E16" s="82">
-        <v>1.3</v>
-      </c>
-      <c r="F16" s="82">
-        <v>1.3</v>
-      </c>
-      <c r="G16" s="82">
-        <v>0.5</v>
-      </c>
-      <c r="H16" s="82">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="12">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="81">
-        <v>26</v>
-      </c>
-      <c r="C17" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="82">
-        <v>4.5</v>
-      </c>
-      <c r="E17" s="82">
-        <v>3.2</v>
-      </c>
-      <c r="F17" s="82">
-        <v>0.7</v>
-      </c>
-      <c r="G17" s="82">
-        <v>0.2</v>
-      </c>
-      <c r="H17" s="82">
-        <v>15.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="12">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="81">
-        <v>32</v>
-      </c>
-      <c r="C18" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="82">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E18" s="82">
-        <v>1.4</v>
-      </c>
-      <c r="F18" s="82">
-        <v>0.7</v>
-      </c>
-      <c r="G18" s="82">
-        <v>0.2</v>
-      </c>
-      <c r="H18" s="82">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="12">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="81">
-        <v>34</v>
-      </c>
-      <c r="C19" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="82">
-        <v>2.4</v>
-      </c>
-      <c r="E19" s="82">
-        <v>2.7</v>
-      </c>
-      <c r="F19" s="82">
-        <v>0.4</v>
-      </c>
-      <c r="G19" s="82">
-        <v>0.2</v>
-      </c>
-      <c r="H19" s="82">
-        <v>18.100000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="12">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="81">
-        <v>20</v>
-      </c>
-      <c r="C20" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="82">
-        <v>2</v>
-      </c>
-      <c r="E20" s="82">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F20" s="82">
-        <v>0.7</v>
-      </c>
-      <c r="G20" s="82">
-        <v>0.1</v>
-      </c>
-      <c r="H20" s="82">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="12">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="81">
-        <v>25</v>
-      </c>
-      <c r="C21" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="82">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E21" s="82">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F21" s="82">
-        <v>1.2</v>
-      </c>
-      <c r="G21" s="82">
-        <v>0.2</v>
-      </c>
-      <c r="H21" s="82">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="12">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="81">
-        <v>25</v>
-      </c>
-      <c r="C22" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="82">
-        <v>7.3</v>
-      </c>
-      <c r="E22" s="82">
-        <v>8.6</v>
-      </c>
-      <c r="F22" s="82">
-        <v>1.6</v>
-      </c>
-      <c r="G22" s="82">
-        <v>1</v>
-      </c>
-      <c r="H22" s="82">
-        <v>29.7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="12">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="81">
-        <v>27</v>
-      </c>
-      <c r="C23" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="82">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="E23" s="82">
-        <v>5</v>
-      </c>
-      <c r="F23" s="82">
-        <v>1</v>
-      </c>
-      <c r="G23" s="82">
-        <v>1.2</v>
-      </c>
-      <c r="H23" s="82">
-        <v>28.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="12">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="81">
-        <v>24</v>
-      </c>
-      <c r="C24" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="82">
-        <v>5.4</v>
-      </c>
-      <c r="E24" s="82">
-        <v>2.7</v>
-      </c>
-      <c r="F24" s="82">
-        <v>1.6</v>
-      </c>
-      <c r="G24" s="82">
-        <v>0.8</v>
-      </c>
-      <c r="H24" s="82">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="12">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="81">
-        <v>23</v>
-      </c>
-      <c r="C25" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="82">
-        <v>4.3</v>
-      </c>
-      <c r="E25" s="82">
-        <v>1.8</v>
-      </c>
-      <c r="F25" s="82">
-        <v>1.7</v>
-      </c>
-      <c r="G25" s="82">
-        <v>0.3</v>
-      </c>
-      <c r="H25" s="82">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="12">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="81">
-        <v>24</v>
-      </c>
-      <c r="C26" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="82">
-        <v>5.6</v>
-      </c>
-      <c r="E26" s="82">
-        <v>3.8</v>
-      </c>
-      <c r="F26" s="82">
-        <v>1.8</v>
-      </c>
-      <c r="G26" s="82">
-        <v>0.6</v>
-      </c>
-      <c r="H26" s="82">
-        <v>14.9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="12">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27" s="81">
-        <v>26</v>
-      </c>
-      <c r="C27" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="82">
-        <v>5.2</v>
-      </c>
-      <c r="E27" s="82">
-        <v>3.3</v>
-      </c>
-      <c r="F27" s="82">
-        <v>1.7</v>
-      </c>
-      <c r="G27" s="82">
-        <v>0.6</v>
-      </c>
-      <c r="H27" s="82">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="12">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B28" s="81">
-        <v>28</v>
-      </c>
-      <c r="C28" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="82">
-        <v>6.2</v>
-      </c>
-      <c r="E28" s="82">
-        <v>2.5</v>
-      </c>
-      <c r="F28" s="82">
-        <v>1.6</v>
-      </c>
-      <c r="G28" s="82">
-        <v>0.3</v>
-      </c>
-      <c r="H28" s="82">
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="12">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B29" s="81">
-        <v>26</v>
-      </c>
-      <c r="C29" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="82">
-        <v>6.6</v>
-      </c>
-      <c r="E29" s="82">
-        <v>3.3</v>
-      </c>
-      <c r="F29" s="82">
-        <v>1.6</v>
-      </c>
-      <c r="G29" s="82">
-        <v>0.4</v>
-      </c>
-      <c r="H29" s="82">
-        <v>23.7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="12">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B30" s="81">
-        <v>28</v>
-      </c>
-      <c r="C30" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="82">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="E30" s="82">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F30" s="82">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G30" s="82">
-        <v>0.4</v>
-      </c>
-      <c r="H30" s="82">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="12">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B31" s="81">
-        <v>29</v>
-      </c>
-      <c r="C31" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="82">
-        <v>6.7</v>
-      </c>
-      <c r="E31" s="82">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F31" s="82">
-        <v>0.7</v>
-      </c>
-      <c r="G31" s="82">
-        <v>0.4</v>
-      </c>
-      <c r="H31" s="82">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="12">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B32" s="81">
-        <v>26</v>
-      </c>
-      <c r="C32" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="82">
-        <v>5.7</v>
-      </c>
-      <c r="E32" s="82">
-        <v>3.4</v>
-      </c>
-      <c r="F32" s="82">
-        <v>1.8</v>
-      </c>
-      <c r="G32" s="82">
-        <v>0.8</v>
-      </c>
-      <c r="H32" s="82">
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="12">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B33" s="81">
-        <v>27</v>
-      </c>
-      <c r="C33" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="82">
-        <v>7.3</v>
-      </c>
-      <c r="E33" s="82">
-        <v>3.3</v>
-      </c>
-      <c r="F33" s="82">
-        <v>1.8</v>
-      </c>
-      <c r="G33" s="82">
-        <v>0.4</v>
-      </c>
-      <c r="H33" s="82">
-        <v>26.6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="12">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B34" s="81">
-        <v>29</v>
-      </c>
-      <c r="C34" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="82">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E34" s="82">
-        <v>2</v>
-      </c>
-      <c r="F34" s="82">
-        <v>0.9</v>
-      </c>
-      <c r="G34" s="82">
-        <v>0</v>
-      </c>
-      <c r="H34" s="82">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="12">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B35" s="81">
-        <v>27</v>
-      </c>
-      <c r="C35" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="82">
-        <v>6.2</v>
-      </c>
-      <c r="E35" s="82">
-        <v>5.5</v>
-      </c>
-      <c r="F35" s="82">
-        <v>1.9</v>
-      </c>
-      <c r="G35" s="82">
-        <v>0.4</v>
-      </c>
-      <c r="H35" s="82">
-        <v>23.9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="12">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B36" s="81">
-        <v>29</v>
-      </c>
-      <c r="C36" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="82">
-        <v>5.3</v>
-      </c>
-      <c r="E36" s="82">
-        <v>4</v>
-      </c>
-      <c r="F36" s="82">
-        <v>1.8</v>
-      </c>
-      <c r="G36" s="82">
-        <v>0.5</v>
-      </c>
-      <c r="H36" s="82">
-        <v>18.2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="12">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B37" s="81">
-        <v>28</v>
-      </c>
-      <c r="C37" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="82">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="E37" s="82">
-        <v>2.5</v>
-      </c>
-      <c r="F37" s="82">
-        <v>1</v>
-      </c>
-      <c r="G37" s="82">
-        <v>0.1</v>
-      </c>
-      <c r="H37" s="82">
-        <v>14.3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="12">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B38" s="81">
-        <v>30</v>
-      </c>
-      <c r="C38" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="82">
-        <v>6</v>
-      </c>
-      <c r="E38" s="82">
-        <v>1.9</v>
-      </c>
-      <c r="F38" s="82">
-        <v>1</v>
-      </c>
-      <c r="G38" s="82">
-        <v>0.4</v>
-      </c>
-      <c r="H38" s="82">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="12">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B39" s="81">
-        <v>33</v>
-      </c>
-      <c r="C39" s="81" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="82">
-        <v>8.6</v>
-      </c>
-      <c r="E39" s="82">
-        <v>9.1</v>
-      </c>
-      <c r="F39" s="82">
-        <v>9.1</v>
-      </c>
-      <c r="G39" s="82">
-        <v>0.9</v>
-      </c>
-      <c r="H39" s="82">
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="12">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B40" s="81">
-        <v>24</v>
-      </c>
-      <c r="C40" s="81" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="82">
-        <v>5.2</v>
-      </c>
-      <c r="E40" s="82">
-        <v>1</v>
-      </c>
-      <c r="F40" s="82">
-        <v>0.8</v>
-      </c>
-      <c r="G40" s="82">
-        <v>1.3</v>
-      </c>
-      <c r="H40" s="82">
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="12">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B41" s="81">
-        <v>25</v>
-      </c>
-      <c r="C41" s="81" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="82">
-        <v>3.5</v>
-      </c>
-      <c r="E41" s="82">
-        <v>1.2</v>
-      </c>
-      <c r="F41" s="82">
-        <v>0.7</v>
-      </c>
-      <c r="G41" s="82">
-        <v>0.8</v>
-      </c>
-      <c r="H41" s="82">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="12">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B42" s="81">
-        <v>23</v>
-      </c>
-      <c r="C42" s="81" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="82">
-        <v>8</v>
-      </c>
-      <c r="E42" s="82">
-        <v>2.6</v>
-      </c>
-      <c r="F42" s="82">
-        <v>0.5</v>
-      </c>
-      <c r="G42" s="82">
-        <v>0.5</v>
-      </c>
-      <c r="H42" s="82">
-        <v>16.100000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="12">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B43" s="81">
-        <v>24</v>
-      </c>
-      <c r="C43" s="81" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="82">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="E43" s="82">
-        <v>3.1</v>
-      </c>
-      <c r="F43" s="82">
-        <v>0.7</v>
-      </c>
-      <c r="G43" s="82">
-        <v>0.6</v>
-      </c>
-      <c r="H43" s="82">
-        <v>21.4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="12">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B44" s="81">
-        <v>29</v>
-      </c>
-      <c r="C44" s="81" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="82">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E44" s="82">
-        <v>1.3</v>
-      </c>
-      <c r="F44" s="82">
-        <v>0.7</v>
-      </c>
-      <c r="G44" s="82">
-        <v>0.3</v>
-      </c>
-      <c r="H44" s="82">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="12">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B45" s="81">
-        <v>30</v>
-      </c>
-      <c r="C45" s="81" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="82">
-        <v>6.1</v>
-      </c>
-      <c r="E45" s="82">
-        <v>2.6</v>
-      </c>
-      <c r="F45" s="82">
-        <v>0.7</v>
-      </c>
-      <c r="G45" s="82">
-        <v>0.3</v>
-      </c>
-      <c r="H45" s="82">
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="12">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B46" s="81">
-        <v>31</v>
-      </c>
-      <c r="C46" s="81" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="82">
-        <v>5.2</v>
-      </c>
-      <c r="E46" s="82">
-        <v>1.9</v>
-      </c>
-      <c r="F46" s="82">
-        <v>0.7</v>
-      </c>
-      <c r="G46" s="82">
-        <v>0.1</v>
-      </c>
-      <c r="H46" s="82">
-        <v>18.7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="12">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B47" s="81">
-        <v>27</v>
-      </c>
-      <c r="C47" s="81" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="82">
-        <v>9</v>
-      </c>
-      <c r="E47" s="82">
-        <v>1.8</v>
-      </c>
-      <c r="F47" s="82">
-        <v>1.5</v>
-      </c>
-      <c r="G47" s="82">
-        <v>0.5</v>
-      </c>
-      <c r="H47" s="82">
-        <v>15.1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="12">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B48" s="81">
-        <v>30</v>
-      </c>
-      <c r="C48" s="81" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="82">
-        <v>6.5</v>
-      </c>
-      <c r="E48" s="82">
-        <v>2.5</v>
-      </c>
-      <c r="F48" s="82">
-        <v>1.5</v>
-      </c>
-      <c r="G48" s="82">
-        <v>0.4</v>
-      </c>
-      <c r="H48" s="82">
-        <v>12.6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="12">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B49" s="81">
-        <v>24</v>
-      </c>
-      <c r="C49" s="81" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="82">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E49" s="82">
-        <v>0.4</v>
-      </c>
-      <c r="F49" s="82">
-        <v>0.3</v>
-      </c>
-      <c r="G49" s="82">
-        <v>0.7</v>
-      </c>
-      <c r="H49" s="82">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="12">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B50" s="81">
-        <v>25</v>
-      </c>
-      <c r="C50" s="81" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="82">
-        <v>7.6</v>
-      </c>
-      <c r="E50" s="82">
-        <v>1.2</v>
-      </c>
-      <c r="F50" s="82">
-        <v>0.6</v>
-      </c>
-      <c r="G50" s="82">
-        <v>1.2</v>
-      </c>
-      <c r="H50" s="82">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="12">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B51" s="81">
-        <v>24</v>
-      </c>
-      <c r="C51" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="82">
-        <v>7.5</v>
-      </c>
-      <c r="E51" s="82">
-        <v>1.2</v>
-      </c>
-      <c r="F51" s="82">
-        <v>0.4</v>
-      </c>
-      <c r="G51" s="82">
-        <v>0.9</v>
-      </c>
-      <c r="H51" s="82">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="12">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B52" s="81">
-        <v>29</v>
-      </c>
-      <c r="C52" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="82">
-        <v>7.3</v>
-      </c>
-      <c r="E52" s="82">
-        <v>3.2</v>
-      </c>
-      <c r="F52" s="82">
-        <v>0.8</v>
-      </c>
-      <c r="G52" s="82">
-        <v>1.5</v>
-      </c>
-      <c r="H52" s="82">
-        <v>15.2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="12">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B53" s="81">
-        <v>32</v>
-      </c>
-      <c r="C53" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" s="82">
-        <v>6.7</v>
-      </c>
-      <c r="E53" s="82">
-        <v>4.2</v>
-      </c>
-      <c r="F53" s="82">
-        <v>0.9</v>
-      </c>
-      <c r="G53" s="82">
-        <v>1.3</v>
-      </c>
-      <c r="H53" s="82">
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="12">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B54" s="81">
-        <v>33</v>
-      </c>
-      <c r="C54" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="82">
-        <v>6.8</v>
-      </c>
-      <c r="E54" s="82">
-        <v>4</v>
-      </c>
-      <c r="F54" s="82">
-        <v>0.8</v>
-      </c>
-      <c r="G54" s="82">
-        <v>0.9</v>
-      </c>
-      <c r="H54" s="82">
-        <v>11.9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="12">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B55" s="81">
-        <v>24</v>
-      </c>
-      <c r="C55" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" s="82">
-        <v>6.7</v>
-      </c>
-      <c r="E55" s="82">
-        <v>0.9</v>
-      </c>
-      <c r="F55" s="82">
-        <v>0.4</v>
-      </c>
-      <c r="G55" s="82">
-        <v>0.5</v>
-      </c>
-      <c r="H55" s="82">
-        <v>14.3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="12">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B56" s="81">
-        <v>27</v>
-      </c>
-      <c r="C56" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" s="82">
-        <v>7.4</v>
-      </c>
-      <c r="E56" s="82">
-        <v>1</v>
-      </c>
-      <c r="F56" s="82">
-        <v>0.4</v>
-      </c>
-      <c r="G56" s="82">
-        <v>0.7</v>
-      </c>
-      <c r="H56" s="82">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="12">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B57" s="81">
-        <v>33</v>
-      </c>
-      <c r="C57" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" s="82">
-        <v>6.4</v>
-      </c>
-      <c r="E57" s="82">
-        <v>1.2</v>
-      </c>
-      <c r="F57" s="82">
-        <v>0.8</v>
-      </c>
-      <c r="G57" s="82">
-        <v>0.6</v>
-      </c>
-      <c r="H57" s="82">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="12">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B58" s="81">
-        <v>28</v>
-      </c>
-      <c r="C58" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" s="82">
-        <v>7.4</v>
-      </c>
-      <c r="E58" s="82">
-        <v>0.5</v>
-      </c>
-      <c r="F58" s="82">
-        <v>0.4</v>
-      </c>
-      <c r="G58" s="82">
-        <v>0.7</v>
-      </c>
-      <c r="H58" s="82">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="12">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B59" s="81">
-        <v>29</v>
-      </c>
-      <c r="C59" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" s="82">
-        <v>8.6</v>
-      </c>
-      <c r="E59" s="82">
-        <v>0.8</v>
-      </c>
-      <c r="F59" s="82">
-        <v>0.4</v>
-      </c>
-      <c r="G59" s="82">
-        <v>0.4</v>
-      </c>
-      <c r="H59" s="82">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="12">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="B60" s="81">
-        <v>26</v>
-      </c>
-      <c r="C60" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" s="82">
-        <v>14.5</v>
-      </c>
-      <c r="E60" s="82">
-        <v>1.9</v>
-      </c>
-      <c r="F60" s="82">
-        <v>1.5</v>
-      </c>
-      <c r="G60" s="82">
-        <v>2.1</v>
-      </c>
-      <c r="H60" s="82">
-        <v>20.6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" s="12">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B61" s="81">
-        <v>27</v>
-      </c>
-      <c r="C61" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" s="82">
-        <v>12.4</v>
-      </c>
-      <c r="E61" s="82">
-        <v>1.4</v>
-      </c>
-      <c r="F61" s="82">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G61" s="82">
-        <v>2.4</v>
-      </c>
-      <c r="H61" s="82">
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="12"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="82"/>
-      <c r="E62" s="82"/>
-      <c r="F62" s="82"/>
-      <c r="G62" s="82"/>
-      <c r="H62" s="82"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" s="12"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="82"/>
-      <c r="E63" s="82"/>
-      <c r="F63" s="82"/>
-      <c r="G63" s="82"/>
-      <c r="H63" s="82"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10643,15 +8951,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{918FAEA0-A5F6-4F87-B713-41F1A01C70D0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34B6824B-EDD0-411D-84FA-DCF3EFA40CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10676,10 +8988,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34B6824B-EDD0-411D-84FA-DCF3EFA40CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{918FAEA0-A5F6-4F87-B713-41F1A01C70D0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_All My Stuff\Senior Year\Algorithms\Project\algorithms_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA4F560-95A8-4745-A02B-D10A15149E46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41449A68-ECCC-484C-9486-4610E5CD2C99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3700" yWindow="7360" windowWidth="14400" windowHeight="7670" xr2:uid="{36A8888B-E34B-4134-A916-AA0D47BA0190}"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="18820" windowHeight="17540" xr2:uid="{36A8888B-E34B-4134-A916-AA0D47BA0190}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="45">
   <si>
     <t>Sorted by POS</t>
   </si>
@@ -139,7 +139,7 @@
     <t>Averages:</t>
   </si>
   <si>
-    <t>TREND SUMMARY TABLE</t>
+    <t>AVERAGES SUMMARY TABLE</t>
   </si>
   <si>
     <t>20-24</t>
@@ -157,10 +157,40 @@
     <t>STAT</t>
   </si>
   <si>
+    <t>B-AVG</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
     <t>DIF</t>
   </si>
   <si>
     <t>SD</t>
+  </si>
+  <si>
+    <t>WEIGHTS</t>
+  </si>
+  <si>
+    <t>POSISTION</t>
+  </si>
+  <si>
+    <t>AGE RANGE</t>
+  </si>
+  <si>
+    <t>BASELINES</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Total Before</t>
+  </si>
+  <si>
+    <t>Total After</t>
+  </si>
+  <si>
+    <t>Difference</t>
   </si>
 </sst>
 </file>
@@ -170,7 +200,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,14 +217,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="48"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,6 +275,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -512,8 +577,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -574,12 +637,22 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -598,6 +671,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,6 +698,3303 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Before</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> and After Stat Graph</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$104</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Before</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$105:$E$164</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$105:$F$164</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>32.300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>48.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26.7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>35.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>39.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>37.9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>29.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>55.199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21.9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>27.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>26.599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>27.9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>26.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>24.400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>40.6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>34.400000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4A61-4EB2-9149-4F4490D97362}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$104</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total After</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$105:$E$164</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$105:$G$164</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>35.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34.699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>33.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>32.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>46.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>32.1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>33.4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>18.699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>26.599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>27.900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>24.400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>25.1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>27.6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>26.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>34.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>34.900000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4A61-4EB2-9149-4F4490D97362}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1410208096"/>
+        <c:axId val="1410208512"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1410208096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Player</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> ID</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1410208512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1410208512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Stat Totals</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1410208096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Difference Graph with</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Trendline</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18441084505745842"/>
+          <c:y val="0.14466778975564512"/>
+          <c:w val="0.78557389608728689"/>
+          <c:h val="0.76575202230325323"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$104</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Difference</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$105:$E$164</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$105:$H$164</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>2.7999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.60000000000000853</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40000000000000213</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.20000000000000284</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.90000000000000213</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.2999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.7000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.0000000000000071</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1999999999999957</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.0999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.7000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-4.7999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.6999999999999886</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.59999999999999787</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-6.0999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.1999999999999957</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.7000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.2000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.0999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-3.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.69999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-6.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-8.9999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-3.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13.900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.7999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.4999999999999964</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2.9000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-7.7999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-7.2999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-4.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-2.2999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-9.9999999999997868E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-2.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.69999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.6999999999999957</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-7.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-6.1999999999999957</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0BE8-4EF2-84A9-19E242918FFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1958412928"/>
+        <c:axId val="1958415424"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1958412928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Player ID</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1958415424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1958415424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> After</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>minus</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Total Before</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1958412928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>314789</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>178330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>146400</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>106637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72E15128-0FA1-4220-8809-1FB812BB41CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>136215</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>5939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>512097</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>25605</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65AF3642-D662-40D1-A472-F015FD27FCD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -912,15 +4294,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD56DDD-8127-410A-A1D4-6813F110275A}">
-  <dimension ref="A1:AR92"/>
+  <dimension ref="A1:AR223"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="S94" sqref="S94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
     <col min="11" max="11" width="8.81640625" customWidth="1"/>
     <col min="19" max="19" width="10" customWidth="1"/>
     <col min="23" max="23" width="9.81640625" customWidth="1"/>
@@ -937,51 +4320,51 @@
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="80"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="84"/>
       <c r="J2" s="3" cm="1">
-        <f t="array" aca="1" ref="J2" ca="1">J2:P75</f>
+        <f t="array" aca="1" ref="J2" ca="1">J2:P69</f>
         <v>0</v>
       </c>
-      <c r="K2" s="75" t="s">
+      <c r="K2" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="76"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="80"/>
       <c r="R2" s="7"/>
-      <c r="Z2" s="78" t="s">
+      <c r="Z2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="79"/>
-      <c r="AD2" s="79"/>
-      <c r="AE2" s="79"/>
-      <c r="AF2" s="80"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="84"/>
       <c r="AG2" s="3" cm="1">
         <f t="array" aca="1" ref="AG2" ca="1">AG2:AM82</f>
         <v>0</v>
       </c>
-      <c r="AH2" s="75" t="s">
+      <c r="AH2" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="AI2" s="75"/>
-      <c r="AJ2" s="75"/>
-      <c r="AK2" s="75"/>
-      <c r="AL2" s="75"/>
-      <c r="AM2" s="75"/>
-      <c r="AN2" s="76"/>
+      <c r="AI2" s="79"/>
+      <c r="AJ2" s="79"/>
+      <c r="AK2" s="79"/>
+      <c r="AL2" s="79"/>
+      <c r="AM2" s="79"/>
+      <c r="AN2" s="80"/>
       <c r="AO2" s="7"/>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.35">
@@ -1135,7 +4518,7 @@
         <v>19.8</v>
       </c>
       <c r="R4" s="6"/>
-      <c r="S4" s="46">
+      <c r="S4" s="44">
         <f t="shared" ref="S4:S35" si="0">(SUM(M4:Q4)-SUM(E4:I4))</f>
         <v>2.7999999999999972</v>
       </c>
@@ -1189,7 +4572,7 @@
         <v>13</v>
       </c>
       <c r="AO4" s="6"/>
-      <c r="AP4" s="46">
+      <c r="AP4" s="44">
         <f t="shared" ref="AP4:AP35" si="3">(SUM(AJ4:AN4)-SUM(AB4:AF4))</f>
         <v>6.0000000000000018</v>
       </c>
@@ -2192,58 +5575,58 @@
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C14" s="45">
         <v>26</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="46">
         <v>5</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="46">
         <v>6.9</v>
       </c>
-      <c r="G14" s="48">
+      <c r="G14" s="46">
         <v>1.5</v>
       </c>
-      <c r="H14" s="48">
+      <c r="H14" s="46">
         <v>0.5</v>
       </c>
-      <c r="I14" s="49">
+      <c r="I14" s="47">
         <v>23.8</v>
       </c>
-      <c r="J14" s="50"/>
-      <c r="K14" s="51">
+      <c r="J14" s="48"/>
+      <c r="K14" s="49">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="L14" s="52" t="str">
+      <c r="L14" s="50" t="str">
         <f t="shared" si="5"/>
         <v>PG</v>
       </c>
-      <c r="M14" s="48">
+      <c r="M14" s="46">
         <v>5.2</v>
       </c>
-      <c r="N14" s="48">
+      <c r="N14" s="46">
         <v>6.4</v>
       </c>
-      <c r="O14" s="48">
+      <c r="O14" s="46">
         <v>1.4</v>
       </c>
-      <c r="P14" s="48">
+      <c r="P14" s="46">
         <v>0.5</v>
       </c>
-      <c r="Q14" s="49">
+      <c r="Q14" s="47">
         <v>27.4</v>
       </c>
-      <c r="R14" s="53"/>
-      <c r="S14" s="54">
+      <c r="R14" s="51"/>
+      <c r="S14" s="52">
         <f t="shared" si="0"/>
         <v>3.1999999999999957</v>
       </c>
-      <c r="T14" s="55"/>
-      <c r="U14" s="56">
+      <c r="T14" s="53"/>
+      <c r="U14" s="54">
         <f>AVERAGE(S4:S14)</f>
         <v>-0.40000000000000213</v>
       </c>
@@ -2584,58 +5967,58 @@
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="Z17" s="47">
+      <c r="Z17" s="45">
         <v>24</v>
       </c>
-      <c r="AA17" s="47" t="s">
+      <c r="AA17" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="AB17" s="48">
+      <c r="AB17" s="46">
         <v>6.7</v>
       </c>
-      <c r="AC17" s="48">
+      <c r="AC17" s="46">
         <v>0.9</v>
       </c>
-      <c r="AD17" s="48">
+      <c r="AD17" s="46">
         <v>0.4</v>
       </c>
-      <c r="AE17" s="48">
+      <c r="AE17" s="46">
         <v>0.5</v>
       </c>
-      <c r="AF17" s="49">
+      <c r="AF17" s="47">
         <v>14.3</v>
       </c>
-      <c r="AG17" s="50"/>
-      <c r="AH17" s="51">
+      <c r="AG17" s="48"/>
+      <c r="AH17" s="49">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="AI17" s="52" t="str">
+      <c r="AI17" s="50" t="str">
         <f t="shared" si="2"/>
         <v>C</v>
       </c>
-      <c r="AJ17" s="48">
+      <c r="AJ17" s="46">
         <v>11</v>
       </c>
-      <c r="AK17" s="48">
+      <c r="AK17" s="46">
         <v>1.5</v>
       </c>
-      <c r="AL17" s="48">
+      <c r="AL17" s="46">
         <v>0.5</v>
       </c>
-      <c r="AM17" s="48">
+      <c r="AM17" s="46">
         <v>0.5</v>
       </c>
-      <c r="AN17" s="49">
+      <c r="AN17" s="47">
         <v>14.1</v>
       </c>
-      <c r="AO17" s="53"/>
-      <c r="AP17" s="54">
+      <c r="AO17" s="51"/>
+      <c r="AP17" s="52">
         <f t="shared" si="3"/>
         <v>4.8000000000000007</v>
       </c>
-      <c r="AQ17" s="55"/>
-      <c r="AR17" s="56">
+      <c r="AQ17" s="53"/>
+      <c r="AR17" s="54">
         <f>-AVERAGE(AP4:AP17)</f>
         <v>-1.6714285714285708</v>
       </c>
@@ -3196,58 +6579,58 @@
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="C23" s="47">
+      <c r="C23" s="45">
         <v>25</v>
       </c>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="48">
+      <c r="E23" s="46">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F23" s="48">
+      <c r="F23" s="46">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G23" s="48">
+      <c r="G23" s="46">
         <v>1.2</v>
       </c>
-      <c r="H23" s="48">
+      <c r="H23" s="46">
         <v>0.2</v>
       </c>
-      <c r="I23" s="48">
+      <c r="I23" s="46">
         <v>12.3</v>
       </c>
-      <c r="J23" s="50"/>
-      <c r="K23" s="51">
+      <c r="J23" s="48"/>
+      <c r="K23" s="49">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="L23" s="52" t="str">
+      <c r="L23" s="50" t="str">
         <f t="shared" si="5"/>
         <v>SG</v>
       </c>
-      <c r="M23" s="48">
+      <c r="M23" s="46">
         <v>3.9</v>
       </c>
-      <c r="N23" s="48">
+      <c r="N23" s="46">
         <v>2.4</v>
       </c>
-      <c r="O23" s="48">
+      <c r="O23" s="46">
         <v>1.5</v>
       </c>
-      <c r="P23" s="48">
+      <c r="P23" s="46">
         <v>0.2</v>
       </c>
-      <c r="Q23" s="49">
+      <c r="Q23" s="47">
         <v>12.5</v>
       </c>
-      <c r="R23" s="53"/>
-      <c r="S23" s="54">
+      <c r="R23" s="51"/>
+      <c r="S23" s="52">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="T23" s="55"/>
-      <c r="U23" s="56">
+      <c r="T23" s="53"/>
+      <c r="U23" s="54">
         <f xml:space="preserve"> AVERAGE(S15:S23)</f>
         <v>1.6</v>
       </c>
@@ -5072,58 +8455,58 @@
         <f t="shared" si="6"/>
         <v>37</v>
       </c>
-      <c r="C40" s="47">
+      <c r="C40" s="45">
         <v>30</v>
       </c>
-      <c r="D40" s="47" t="s">
+      <c r="D40" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="48">
+      <c r="E40" s="46">
         <v>6</v>
       </c>
-      <c r="F40" s="48">
+      <c r="F40" s="46">
         <v>1.9</v>
       </c>
-      <c r="G40" s="48">
+      <c r="G40" s="46">
         <v>1</v>
       </c>
-      <c r="H40" s="48">
+      <c r="H40" s="46">
         <v>0.4</v>
       </c>
-      <c r="I40" s="49">
+      <c r="I40" s="47">
         <v>12.3</v>
       </c>
-      <c r="J40" s="50"/>
-      <c r="K40" s="51">
+      <c r="J40" s="48"/>
+      <c r="K40" s="49">
         <f t="shared" si="10"/>
         <v>31</v>
       </c>
-      <c r="L40" s="52" t="str">
+      <c r="L40" s="50" t="str">
         <f t="shared" si="11"/>
         <v>SF</v>
       </c>
-      <c r="M40" s="48">
+      <c r="M40" s="46">
         <v>5.3</v>
       </c>
-      <c r="N40" s="48">
+      <c r="N40" s="46">
         <v>1.3</v>
       </c>
-      <c r="O40" s="48">
+      <c r="O40" s="46">
         <v>0.9</v>
       </c>
-      <c r="P40" s="48">
+      <c r="P40" s="46">
         <v>0.4</v>
       </c>
-      <c r="Q40" s="49">
+      <c r="Q40" s="47">
         <v>7.6</v>
       </c>
-      <c r="R40" s="53"/>
-      <c r="S40" s="54">
+      <c r="R40" s="51"/>
+      <c r="S40" s="52">
         <f t="shared" si="12"/>
         <v>-6.1000000000000014</v>
       </c>
-      <c r="T40" s="55"/>
-      <c r="U40" s="56">
+      <c r="T40" s="53"/>
+      <c r="U40" s="54">
         <f>AVERAGE(S24:S40)</f>
         <v>-0.98823529411764621</v>
       </c>
@@ -5242,58 +8625,58 @@
         <f t="shared" si="7"/>
         <v>38</v>
       </c>
-      <c r="Z41" s="47">
+      <c r="Z41" s="45">
         <v>28</v>
       </c>
-      <c r="AA41" s="47" t="s">
+      <c r="AA41" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="AB41" s="48">
+      <c r="AB41" s="46">
         <v>7.4</v>
       </c>
-      <c r="AC41" s="48">
+      <c r="AC41" s="46">
         <v>0.5</v>
       </c>
-      <c r="AD41" s="48">
+      <c r="AD41" s="46">
         <v>0.4</v>
       </c>
-      <c r="AE41" s="48">
+      <c r="AE41" s="46">
         <v>0.7</v>
       </c>
-      <c r="AF41" s="48">
+      <c r="AF41" s="46">
         <v>5.3</v>
       </c>
-      <c r="AG41" s="50"/>
-      <c r="AH41" s="51">
+      <c r="AG41" s="48"/>
+      <c r="AH41" s="49">
         <f t="shared" si="8"/>
         <v>29</v>
       </c>
-      <c r="AI41" s="52" t="str">
+      <c r="AI41" s="50" t="str">
         <f t="shared" si="9"/>
         <v>C</v>
       </c>
-      <c r="AJ41" s="48">
+      <c r="AJ41" s="46">
         <v>8.6</v>
       </c>
-      <c r="AK41" s="48">
+      <c r="AK41" s="46">
         <v>0.8</v>
       </c>
-      <c r="AL41" s="48">
+      <c r="AL41" s="46">
         <v>0.4</v>
       </c>
-      <c r="AM41" s="48">
+      <c r="AM41" s="46">
         <v>0.4</v>
       </c>
-      <c r="AN41" s="49">
+      <c r="AN41" s="47">
         <v>5.8</v>
       </c>
-      <c r="AO41" s="53"/>
-      <c r="AP41" s="54">
+      <c r="AO41" s="51"/>
+      <c r="AP41" s="52">
         <f t="shared" si="13"/>
         <v>1.6999999999999993</v>
       </c>
-      <c r="AQ41" s="55"/>
-      <c r="AR41" s="56">
+      <c r="AQ41" s="53"/>
+      <c r="AR41" s="54">
         <f>AVERAGE(AP18:AP41)</f>
         <v>-0.41666666666666624</v>
       </c>
@@ -5843,7 +9226,7 @@
         <v>14</v>
       </c>
       <c r="AO46" s="6"/>
-      <c r="AP46" s="46">
+      <c r="AP46" s="44">
         <f t="shared" si="13"/>
         <v>-9.9999999999997868E-2</v>
       </c>
@@ -6406,58 +9789,58 @@
         <f t="shared" si="6"/>
         <v>49</v>
       </c>
-      <c r="C52" s="47">
+      <c r="C52" s="45">
         <v>25</v>
       </c>
-      <c r="D52" s="47" t="s">
+      <c r="D52" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="48">
+      <c r="E52" s="46">
         <v>7.6</v>
       </c>
-      <c r="F52" s="48">
+      <c r="F52" s="46">
         <v>1.2</v>
       </c>
-      <c r="G52" s="48">
+      <c r="G52" s="46">
         <v>0.6</v>
       </c>
-      <c r="H52" s="48">
+      <c r="H52" s="46">
         <v>1.2</v>
       </c>
-      <c r="I52" s="48">
+      <c r="I52" s="46">
         <v>8.3000000000000007</v>
       </c>
-      <c r="J52" s="50"/>
-      <c r="K52" s="51">
+      <c r="J52" s="48"/>
+      <c r="K52" s="49">
         <f t="shared" si="14"/>
         <v>26</v>
       </c>
-      <c r="L52" s="52" t="str">
+      <c r="L52" s="50" t="str">
         <f t="shared" si="15"/>
         <v>PF</v>
       </c>
-      <c r="M52" s="48">
+      <c r="M52" s="46">
         <v>7.4</v>
       </c>
-      <c r="N52" s="48">
+      <c r="N52" s="46">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O52" s="48">
+      <c r="O52" s="46">
         <v>0.7</v>
       </c>
-      <c r="P52" s="48">
+      <c r="P52" s="46">
         <v>0.9</v>
       </c>
-      <c r="Q52" s="49">
+      <c r="Q52" s="47">
         <v>6.5</v>
       </c>
-      <c r="R52" s="53"/>
-      <c r="S52" s="54">
+      <c r="R52" s="51"/>
+      <c r="S52" s="52">
         <f t="shared" si="12"/>
         <v>-2.2999999999999972</v>
       </c>
-      <c r="T52" s="55"/>
-      <c r="U52" s="56">
+      <c r="T52" s="53"/>
+      <c r="U52" s="54">
         <f>AVERAGE(S41:S52)</f>
         <v>-0.4083333333333326</v>
       </c>
@@ -7625,58 +11008,58 @@
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="C63" s="47">
+      <c r="C63" s="45">
         <v>27</v>
       </c>
-      <c r="D63" s="47" t="s">
+      <c r="D63" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="E63" s="48">
+      <c r="E63" s="46">
         <v>12.4</v>
       </c>
-      <c r="F63" s="48">
+      <c r="F63" s="46">
         <v>1.4</v>
       </c>
-      <c r="G63" s="48">
+      <c r="G63" s="46">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H63" s="48">
+      <c r="H63" s="46">
         <v>2.4</v>
       </c>
-      <c r="I63" s="49">
+      <c r="I63" s="47">
         <v>17.100000000000001</v>
       </c>
-      <c r="J63" s="50"/>
-      <c r="K63" s="51">
+      <c r="J63" s="48"/>
+      <c r="K63" s="49">
         <f t="shared" si="14"/>
         <v>28</v>
       </c>
-      <c r="L63" s="52" t="str">
+      <c r="L63" s="50" t="str">
         <f t="shared" si="15"/>
         <v>C</v>
       </c>
-      <c r="M63" s="48">
+      <c r="M63" s="46">
         <v>12.2</v>
       </c>
-      <c r="N63" s="48">
+      <c r="N63" s="46">
         <v>1.8</v>
       </c>
-      <c r="O63" s="48">
+      <c r="O63" s="46">
         <v>0.8</v>
       </c>
-      <c r="P63" s="48">
+      <c r="P63" s="46">
         <v>1.8</v>
       </c>
-      <c r="Q63" s="48">
+      <c r="Q63" s="46">
         <v>18.3</v>
       </c>
-      <c r="R63" s="53"/>
-      <c r="S63" s="54">
+      <c r="R63" s="51"/>
+      <c r="S63" s="52">
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="T63" s="55"/>
-      <c r="U63" s="57">
+      <c r="T63" s="53"/>
+      <c r="U63" s="55">
         <f>AVERAGE(S53:S63)</f>
         <v>-0.79090909090909101</v>
       </c>
@@ -7684,58 +11067,58 @@
         <f t="shared" si="7"/>
         <v>60</v>
       </c>
-      <c r="Z63" s="47">
+      <c r="Z63" s="45">
         <v>34</v>
       </c>
-      <c r="AA63" s="47" t="s">
+      <c r="AA63" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="AB63" s="48">
+      <c r="AB63" s="46">
         <v>2.4</v>
       </c>
-      <c r="AC63" s="48">
+      <c r="AC63" s="46">
         <v>2.7</v>
       </c>
-      <c r="AD63" s="48">
+      <c r="AD63" s="46">
         <v>0.4</v>
       </c>
-      <c r="AE63" s="48">
+      <c r="AE63" s="46">
         <v>0.2</v>
       </c>
-      <c r="AF63" s="49">
+      <c r="AF63" s="47">
         <v>18.100000000000001</v>
       </c>
-      <c r="AG63" s="50"/>
-      <c r="AH63" s="51">
+      <c r="AG63" s="48"/>
+      <c r="AH63" s="49">
         <f>Z63+1</f>
         <v>35</v>
       </c>
-      <c r="AI63" s="52" t="str">
+      <c r="AI63" s="50" t="str">
         <f>AA63</f>
         <v>SG</v>
       </c>
-      <c r="AJ63" s="48">
+      <c r="AJ63" s="46">
         <v>2.5</v>
       </c>
-      <c r="AK63" s="48">
+      <c r="AK63" s="46">
         <v>2</v>
       </c>
-      <c r="AL63" s="48">
+      <c r="AL63" s="46">
         <v>0.3</v>
       </c>
-      <c r="AM63" s="48">
+      <c r="AM63" s="46">
         <v>0.2</v>
       </c>
-      <c r="AN63" s="48">
+      <c r="AN63" s="46">
         <v>15.3</v>
       </c>
-      <c r="AO63" s="53"/>
-      <c r="AP63" s="54">
+      <c r="AO63" s="51"/>
+      <c r="AP63" s="52">
         <f t="shared" si="13"/>
         <v>-3.5</v>
       </c>
-      <c r="AQ63" s="55"/>
-      <c r="AR63" s="56">
+      <c r="AQ63" s="53"/>
+      <c r="AR63" s="54">
         <f>AVERAGE(AP42:AP63)</f>
         <v>-1.5363636363636366</v>
       </c>
@@ -7941,7 +11324,7 @@
         <v>15.409999999999998</v>
       </c>
       <c r="AO65" s="11"/>
-      <c r="AP65" s="62">
+      <c r="AP65" s="60">
         <f>(SUM(AJ65:AN65)-SUM(AB65:AF65))</f>
         <v>-0.34000000000000341</v>
       </c>
@@ -7984,778 +11367,2614 @@
       <c r="R67" s="11"/>
       <c r="S67" s="12"/>
     </row>
+    <row r="70" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="B70" s="88" t="s">
+        <v>27</v>
+      </c>
+      <c r="C70" s="88"/>
+      <c r="D70" s="88"/>
+      <c r="E70" s="88"/>
+      <c r="F70" s="88"/>
+      <c r="G70" s="88"/>
+      <c r="H70" s="88"/>
+      <c r="I70" s="88"/>
+      <c r="J70" s="88"/>
+      <c r="K70" s="88"/>
+      <c r="L70" s="88"/>
+      <c r="M70" s="88"/>
+      <c r="N70" s="88"/>
+      <c r="O70" s="88"/>
+      <c r="P70" s="88"/>
+      <c r="Q70" s="88"/>
+      <c r="R70" s="88"/>
+      <c r="S70" s="88"/>
+      <c r="T70" s="88"/>
+      <c r="U70" s="88"/>
+      <c r="V70" s="88"/>
+    </row>
+    <row r="71" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="B71" s="88"/>
+      <c r="C71" s="88"/>
+      <c r="D71" s="88"/>
+      <c r="E71" s="88"/>
+      <c r="F71" s="88"/>
+      <c r="G71" s="88"/>
+      <c r="H71" s="88"/>
+      <c r="I71" s="88"/>
+      <c r="J71" s="88"/>
+      <c r="K71" s="88"/>
+      <c r="L71" s="88"/>
+      <c r="M71" s="88"/>
+      <c r="N71" s="88"/>
+      <c r="O71" s="88"/>
+      <c r="P71" s="88"/>
+      <c r="Q71" s="88"/>
+      <c r="R71" s="88"/>
+      <c r="S71" s="88"/>
+      <c r="T71" s="88"/>
+      <c r="U71" s="88"/>
+      <c r="V71" s="88"/>
+    </row>
     <row r="72" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="C72" s="74" t="s">
-        <v>27</v>
-      </c>
-      <c r="D72" s="74"/>
-      <c r="E72" s="74"/>
-      <c r="F72" s="74"/>
-      <c r="G72" s="74"/>
-      <c r="H72" s="74"/>
-      <c r="I72" s="74"/>
-      <c r="J72" s="74"/>
-      <c r="K72" s="74"/>
-      <c r="L72" s="74"/>
-      <c r="M72" s="74"/>
-      <c r="N72" s="74"/>
-      <c r="O72" s="74"/>
-      <c r="P72" s="74"/>
-      <c r="Q72" s="74"/>
-      <c r="R72" s="74"/>
-      <c r="S72" s="74"/>
-      <c r="T72" s="74"/>
-      <c r="U72" s="74"/>
-      <c r="V72" s="74"/>
-      <c r="W72" s="74"/>
+      <c r="B72" s="88"/>
+      <c r="C72" s="88"/>
+      <c r="D72" s="88"/>
+      <c r="E72" s="88"/>
+      <c r="F72" s="88"/>
+      <c r="G72" s="88"/>
+      <c r="H72" s="88"/>
+      <c r="I72" s="88"/>
+      <c r="J72" s="88"/>
+      <c r="K72" s="88"/>
+      <c r="L72" s="88"/>
+      <c r="M72" s="88"/>
+      <c r="N72" s="88"/>
+      <c r="O72" s="88"/>
+      <c r="P72" s="88"/>
+      <c r="Q72" s="88"/>
+      <c r="R72" s="88"/>
+      <c r="S72" s="88"/>
+      <c r="T72" s="88"/>
+      <c r="U72" s="88"/>
+      <c r="V72" s="88"/>
     </row>
     <row r="73" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="C73" s="74"/>
-      <c r="D73" s="74"/>
-      <c r="E73" s="74"/>
-      <c r="F73" s="74"/>
-      <c r="G73" s="74"/>
-      <c r="H73" s="74"/>
-      <c r="I73" s="74"/>
-      <c r="J73" s="74"/>
-      <c r="K73" s="74"/>
-      <c r="L73" s="74"/>
-      <c r="M73" s="74"/>
-      <c r="N73" s="74"/>
-      <c r="O73" s="74"/>
-      <c r="P73" s="74"/>
-      <c r="Q73" s="74"/>
-      <c r="R73" s="74"/>
-      <c r="S73" s="74"/>
-      <c r="T73" s="74"/>
-      <c r="U73" s="74"/>
-      <c r="V73" s="74"/>
-      <c r="W73" s="74"/>
+      <c r="B73" s="88"/>
+      <c r="C73" s="88"/>
+      <c r="D73" s="88"/>
+      <c r="E73" s="88"/>
+      <c r="F73" s="88"/>
+      <c r="G73" s="88"/>
+      <c r="H73" s="88"/>
+      <c r="I73" s="88"/>
+      <c r="J73" s="88"/>
+      <c r="K73" s="88"/>
+      <c r="L73" s="88"/>
+      <c r="M73" s="88"/>
+      <c r="N73" s="88"/>
+      <c r="O73" s="88"/>
+      <c r="P73" s="88"/>
+      <c r="Q73" s="88"/>
+      <c r="R73" s="88"/>
+      <c r="S73" s="88"/>
+      <c r="T73" s="88"/>
+      <c r="U73" s="88"/>
+      <c r="V73" s="88"/>
     </row>
     <row r="74" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="C74" s="74"/>
-      <c r="D74" s="74"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="74"/>
-      <c r="G74" s="74"/>
-      <c r="H74" s="74"/>
-      <c r="I74" s="74"/>
-      <c r="J74" s="74"/>
-      <c r="K74" s="74"/>
-      <c r="L74" s="74"/>
-      <c r="M74" s="74"/>
-      <c r="N74" s="74"/>
-      <c r="O74" s="74"/>
-      <c r="P74" s="74"/>
-      <c r="Q74" s="74"/>
-      <c r="R74" s="74"/>
-      <c r="S74" s="74"/>
-      <c r="T74" s="74"/>
-      <c r="U74" s="74"/>
-      <c r="V74" s="74"/>
-      <c r="W74" s="74"/>
+      <c r="B74" s="63"/>
+      <c r="C74" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="81"/>
+      <c r="E74" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="81"/>
+      <c r="G74" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="81"/>
+      <c r="I74" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="J74" s="81"/>
+      <c r="K74" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="L74" s="81"/>
+      <c r="M74" s="64"/>
+      <c r="N74" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="O74" s="81"/>
+      <c r="P74" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q74" s="81"/>
+      <c r="R74" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="S74" s="81"/>
+      <c r="T74" s="65"/>
+      <c r="U74" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="V74" s="81"/>
     </row>
     <row r="75" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="C75" s="74"/>
-      <c r="D75" s="74"/>
-      <c r="E75" s="74"/>
-      <c r="F75" s="74"/>
-      <c r="G75" s="74"/>
-      <c r="H75" s="74"/>
-      <c r="I75" s="74"/>
-      <c r="J75" s="74"/>
-      <c r="K75" s="74"/>
-      <c r="L75" s="74"/>
-      <c r="M75" s="74"/>
-      <c r="N75" s="74"/>
-      <c r="O75" s="74"/>
-      <c r="P75" s="74"/>
-      <c r="Q75" s="74"/>
-      <c r="R75" s="74"/>
-      <c r="S75" s="74"/>
-      <c r="T75" s="74"/>
-      <c r="U75" s="74"/>
-      <c r="V75" s="74"/>
-      <c r="W75" s="74"/>
+      <c r="B75" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="E75" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="F75" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="G75" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="H75" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="I75" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="J75" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="K75" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="L75" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="M75" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="N75" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="O75" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="P75" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q75" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="R75" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="S75" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="T75" s="58"/>
+      <c r="U75" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="V75" s="61" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="76" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="C76" s="65"/>
-      <c r="D76" s="77" t="s">
-        <v>13</v>
-      </c>
-      <c r="E76" s="77"/>
-      <c r="F76" s="77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" s="77"/>
-      <c r="H76" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="I76" s="77"/>
-      <c r="J76" s="77" t="s">
-        <v>16</v>
-      </c>
-      <c r="K76" s="77"/>
-      <c r="L76" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="M76" s="77"/>
-      <c r="N76" s="66"/>
-      <c r="O76" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="P76" s="77"/>
-      <c r="Q76" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="R76" s="77"/>
-      <c r="S76" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="T76" s="77"/>
-      <c r="U76" s="67"/>
-      <c r="V76" s="77" t="s">
-        <v>31</v>
-      </c>
-      <c r="W76" s="77"/>
-    </row>
-    <row r="77" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="C77" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="D77" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="E77" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="F77" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="G77" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="H77" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="I77" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="J77" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="K77" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="L77" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="M77" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="N77" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="O77" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="P77" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q77" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="R77" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="S77" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="T77" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="U77" s="60"/>
-      <c r="V77" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="W77" s="63" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="78" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="C78" s="64" t="s">
+      <c r="B76" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D78" s="71">
-        <f>(SUM(M4:M14)-SUM(E4:E14))</f>
-        <v>0.49999999999999289</v>
-      </c>
-      <c r="E78" s="17">
-        <f>(STDEV(M4:M14)-STDEV(E4:E14))</f>
-        <v>-0.10370659127006376</v>
-      </c>
-      <c r="F78" s="71">
-        <f>(SUM(M15:M23)-SUM(E15:E23))</f>
-        <v>2.8000000000000043</v>
-      </c>
-      <c r="G78" s="17">
-        <f>(STDEV(M15:M23)-STDEV(E15:E23))</f>
-        <v>0.15093855319587524</v>
-      </c>
-      <c r="H78" s="71">
-        <f>(SUM(M24:M40)-SUM(E24:E40))</f>
-        <v>-2.2999999999999972</v>
-      </c>
-      <c r="I78" s="17"/>
-      <c r="J78" s="71">
-        <f>(SUM(N41:N52)-SUM(F41:F52))</f>
-        <v>0.80000000000000071</v>
-      </c>
-      <c r="K78" s="17"/>
-      <c r="L78" s="71">
-        <f>(SUM(M53:M63)-SUM(E53:E63))</f>
-        <v>-2.8999999999999915</v>
-      </c>
-      <c r="M78" s="17"/>
-      <c r="N78" s="64" t="s">
+      <c r="C76" s="69">
+        <f>AVERAGE(E4:E14)</f>
+        <v>4.163636363636364</v>
+      </c>
+      <c r="D76" s="17">
+        <f>AVERAGE(M4:M14)</f>
+        <v>4.209090909090909</v>
+      </c>
+      <c r="E76" s="69">
+        <f>AVERAGE(E15:E23)</f>
+        <v>3.2666666666666666</v>
+      </c>
+      <c r="F76" s="17">
+        <f>AVERAGE(M15:M23)</f>
+        <v>3.5777777777777779</v>
+      </c>
+      <c r="G76" s="69">
+        <f>AVERAGE(E24:E40)</f>
+        <v>6.0823529411764703</v>
+      </c>
+      <c r="H76" s="17">
+        <f>AVERAGE(M24:M40)</f>
+        <v>5.9470588235294111</v>
+      </c>
+      <c r="I76" s="69">
+        <f>AVERAGE(E41:E52)</f>
+        <v>6.3833333333333329</v>
+      </c>
+      <c r="J76" s="17">
+        <f>AVERAGE(M41:M52)</f>
+        <v>6.3416666666666677</v>
+      </c>
+      <c r="K76" s="69">
+        <f>AVERAGE(E53:E63)</f>
+        <v>8.336363636363636</v>
+      </c>
+      <c r="L76" s="17">
+        <f>AVERAGE(M53:M63)</f>
+        <v>8.0727272727272741</v>
+      </c>
+      <c r="M76" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="O78" s="71">
-        <f>(SUM(AJ4:AJ17)-SUM(AB4:AB17))</f>
-        <v>9.9999999999999858</v>
-      </c>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="71">
-        <f>(SUM(AJ18:AJ41)-SUM(AB18:AB41))</f>
-        <v>-2.3000000000000398</v>
-      </c>
-      <c r="R78" s="17"/>
-      <c r="S78" s="71">
-        <f>(SUM(AJ42:AJ63)-SUM(AB42:AB63))</f>
-        <v>-10.100000000000037</v>
-      </c>
-      <c r="T78" s="17"/>
-      <c r="U78" s="14"/>
-      <c r="V78" s="71">
+      <c r="N76" s="69">
+        <f>(AVERAGE(AB4:AB17))</f>
+        <v>5.1285714285714281</v>
+      </c>
+      <c r="O76" s="17">
+        <f>(AVERAGE(AJ4:AJ17))</f>
+        <v>5.8428571428571416</v>
+      </c>
+      <c r="P76" s="69">
+        <f>(AVERAGE(AB18:AB41))</f>
+        <v>6.5249999999999995</v>
+      </c>
+      <c r="Q76" s="17">
+        <f>(AVERAGE(AJ18:AJ41))</f>
+        <v>6.4291666666666645</v>
+      </c>
+      <c r="R76" s="69">
+        <f>(AVERAGE(AB42:AB63))</f>
+        <v>5.3863636363636367</v>
+      </c>
+      <c r="S76" s="17">
+        <f>(AVERAGE(AJ42:AJ63))</f>
+        <v>4.9272727272727259</v>
+      </c>
+      <c r="T76" s="14"/>
+      <c r="U76" s="69">
         <f>(SUM(AJ4:AJ63)-SUM(AB4:AB63))</f>
         <v>-2.4000000000000341</v>
       </c>
-      <c r="W78" s="72"/>
-    </row>
-    <row r="79" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="C79" s="64" t="s">
+      <c r="V76" s="70"/>
+    </row>
+    <row r="77" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="B77" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D79" s="71">
-        <f>(SUM(N4:N14)-SUM(F4:F14))</f>
-        <v>-2.8999999999999915</v>
-      </c>
-      <c r="E79" s="17">
-        <f>(STDEV(N4:N14)-STDEV(F4:F14))</f>
-        <v>-0.17424453196695433</v>
-      </c>
-      <c r="F79" s="71">
-        <f>(SUM(N15:N23)-SUM(F15:F23))</f>
-        <v>4.9999999999999964</v>
-      </c>
-      <c r="G79" s="17">
-        <f>(STDEV(N15:N23)-STDEV(F15:F23))</f>
-        <v>1.0807431695851633</v>
-      </c>
-      <c r="H79" s="71">
-        <f>(SUM(M24:M40)-SUM(F24:F40))</f>
-        <v>39.299999999999997</v>
-      </c>
-      <c r="I79" s="17"/>
-      <c r="J79" s="71">
-        <f>(SUM(N41:N52)-SUM(F41:F52))</f>
-        <v>0.80000000000000071</v>
-      </c>
-      <c r="K79" s="43"/>
-      <c r="L79" s="71">
-        <f>(SUM(N53:N63)-SUM(F53:F63))</f>
-        <v>1.0999999999999979</v>
-      </c>
-      <c r="M79" s="17"/>
-      <c r="N79" s="64" t="s">
+      <c r="C77" s="69">
+        <f>AVERAGE(F4:F14)</f>
+        <v>6.9363636363636365</v>
+      </c>
+      <c r="D77" s="17">
+        <f>AVERAGE(N4:N14)</f>
+        <v>6.6727272727272728</v>
+      </c>
+      <c r="E77" s="69">
+        <f>AVERAGE(F15:F23)</f>
+        <v>1.9555555555555557</v>
+      </c>
+      <c r="F77" s="17">
+        <f>AVERAGE(N15:N23)</f>
+        <v>2.5111111111111111</v>
+      </c>
+      <c r="G77" s="69">
+        <f>AVERAGE(F24:F40)</f>
+        <v>3.6352941176470588</v>
+      </c>
+      <c r="H77" s="17">
+        <f>AVERAGE(N24:N40)</f>
+        <v>3.5882352941176467</v>
+      </c>
+      <c r="I77" s="69">
+        <f>AVERAGE(F41:F52)</f>
+        <v>2.3916666666666666</v>
+      </c>
+      <c r="J77" s="17">
+        <f>AVERAGE(N41:N52)</f>
+        <v>2.4583333333333335</v>
+      </c>
+      <c r="K77" s="69">
+        <f>AVERAGE(F53:F63)</f>
+        <v>1.8454545454545455</v>
+      </c>
+      <c r="L77" s="17">
+        <f>AVERAGE(N53:N63)</f>
+        <v>1.9454545454545453</v>
+      </c>
+      <c r="M77" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="O79" s="71">
-        <f>(SUM(AK4:AK17)-SUM(AC4:AC17))</f>
-        <v>2</v>
-      </c>
-      <c r="P79" s="4"/>
-      <c r="Q79" s="71">
-        <f>(SUM(AK18:AK41)-SUM(AC18:AC41))</f>
-        <v>1.6000000000000085</v>
-      </c>
-      <c r="R79" s="4"/>
-      <c r="S79" s="71">
-        <f>(SUM(AK42:AK63)-SUM(AC42:AC63))</f>
-        <v>-0.40000000000000568</v>
-      </c>
-      <c r="T79" s="44"/>
-      <c r="U79" s="45"/>
-      <c r="V79" s="71">
+      <c r="N77" s="69">
+        <f>(AVERAGE(AC4:AC17))</f>
+        <v>2.6428571428571428</v>
+      </c>
+      <c r="O77" s="17">
+        <f>(AVERAGE(AK4:AK17))</f>
+        <v>2.7857142857142856</v>
+      </c>
+      <c r="P77" s="69">
+        <f>(AVERAGE(AC18:AC41))</f>
+        <v>3.8416666666666663</v>
+      </c>
+      <c r="Q77" s="17">
+        <f>(AVERAGE(AK18:AK41))</f>
+        <v>3.9083333333333332</v>
+      </c>
+      <c r="R77" s="69">
+        <f>(AVERAGE(AC42:AC63))</f>
+        <v>3.4318181818181825</v>
+      </c>
+      <c r="S77" s="17">
+        <f>(AVERAGE(AK42:AK63))</f>
+        <v>3.413636363636364</v>
+      </c>
+      <c r="T77" s="43"/>
+      <c r="U77" s="69">
         <f>(SUM(AK4:AK63)-SUM(AC4:AC63))</f>
         <v>3.2000000000001023</v>
       </c>
-      <c r="W79" s="72"/>
-    </row>
-    <row r="80" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="C80" s="64" t="s">
+      <c r="V77" s="70"/>
+    </row>
+    <row r="78" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="B78" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D80" s="71">
-        <f>(SUM(O4:O14)-SUM(G4:G14))</f>
-        <v>-0.49999999999999467</v>
-      </c>
-      <c r="E80" s="17">
-        <f>(STDEV(O4:O14)-STDEV(G4:G14))</f>
-        <v>-1.705182870927463E-2</v>
-      </c>
-      <c r="F80" s="71">
-        <f>(SUM(O15:O23)-SUM(G15:G23))</f>
-        <v>0.59999999999999787</v>
-      </c>
-      <c r="G80" s="17">
-        <f>(STDEV(O15:O23)-STDEV(G15:G23))</f>
-        <v>0.13853222595188452</v>
-      </c>
-      <c r="H80" s="71">
-        <f>(STDEV(O24:O40)-STDEV(G24:G40))</f>
-        <v>1.4573694011300542E-2</v>
-      </c>
-      <c r="I80" s="17"/>
-      <c r="J80" s="71">
-        <f>(SUM(O41:O52)-SUM(G41:G52))</f>
-        <v>-7.4000000000000021</v>
-      </c>
-      <c r="K80" s="17"/>
-      <c r="L80" s="71">
-        <f>(SUM(O53:O63)-SUM(G53:G63))</f>
-        <v>-0.89999999999999947</v>
-      </c>
-      <c r="M80" s="17"/>
-      <c r="N80" s="64" t="s">
+      <c r="C78" s="69">
+        <f>AVERAGE(G4:G14)</f>
+        <v>1.4727272727272724</v>
+      </c>
+      <c r="D78" s="17">
+        <f>AVERAGE(O4:O14)</f>
+        <v>1.4272727272727275</v>
+      </c>
+      <c r="E78" s="69">
+        <f>AVERAGE(G15:G23)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F78" s="17">
+        <f>AVERAGE(O15:O23)</f>
+        <v>0.95555555555555527</v>
+      </c>
+      <c r="G78" s="69">
+        <f>AVERAGE(G24:G40)</f>
+        <v>1.5117647058823529</v>
+      </c>
+      <c r="H78" s="17">
+        <f>AVERAGE(O24:O40)</f>
+        <v>1.4647058823529411</v>
+      </c>
+      <c r="I78" s="69">
+        <f>AVERAGE(G41:G52)</f>
+        <v>1.4833333333333334</v>
+      </c>
+      <c r="J78" s="17">
+        <f>AVERAGE(O41:O52)</f>
+        <v>0.86666666666666659</v>
+      </c>
+      <c r="K78" s="69">
+        <f>AVERAGE(G53:G63)</f>
+        <v>0.71818181818181825</v>
+      </c>
+      <c r="L78" s="17">
+        <f>AVERAGE(O53:O63)</f>
+        <v>0.63636363636363646</v>
+      </c>
+      <c r="M78" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="O80" s="71">
-        <f>(SUM(AL4:AL17)-SUM(AD4:AD17))</f>
-        <v>0.89999999999999858</v>
-      </c>
-      <c r="P80" s="4"/>
-      <c r="Q80" s="71">
-        <f>(SUM(AL18:AL41)-SUM(AD18:AD41))</f>
-        <v>-0.69999999999999929</v>
-      </c>
-      <c r="R80" s="4"/>
-      <c r="S80" s="71">
-        <f>(SUM(AL42:AL63)-SUM(AD42:AD63))</f>
-        <v>-9.2000000000000028</v>
-      </c>
-      <c r="T80" s="44"/>
-      <c r="U80" s="45"/>
-      <c r="V80" s="71">
+      <c r="N78" s="69">
+        <f>(AVERAGE(AD4:AD17))</f>
+        <v>0.94285714285714306</v>
+      </c>
+      <c r="O78" s="17">
+        <f>(AVERAGE(AL4:AL17))</f>
+        <v>1.0071428571428573</v>
+      </c>
+      <c r="P78" s="69">
+        <f>(AVERAGE(AD18:AD41))</f>
+        <v>1.325</v>
+      </c>
+      <c r="Q78" s="17">
+        <f>(AVERAGE(AL18:AL41))</f>
+        <v>1.2958333333333332</v>
+      </c>
+      <c r="R78" s="69">
+        <f>(AVERAGE(AD42:AD63))</f>
+        <v>1.3909090909090909</v>
+      </c>
+      <c r="S78" s="17">
+        <f>(AVERAGE(AL42:AL63))</f>
+        <v>0.97272727272727266</v>
+      </c>
+      <c r="T78" s="43"/>
+      <c r="U78" s="69">
         <f>(SUM(AL4:AL63)-SUM(AD4:AD63))</f>
         <v>-9.0000000000000142</v>
       </c>
-      <c r="W80" s="72"/>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="C81" s="64" t="s">
+      <c r="V78" s="70"/>
+    </row>
+    <row r="79" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="B79" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="71">
-        <f>(SUM(P4:P14)-SUM(H4:H14))</f>
-        <v>0.20000000000000018</v>
-      </c>
-      <c r="E81" s="17">
-        <f>(STDEV(P4:P14)-STDEV(H4:H14))</f>
-        <v>-1.4456601227395005E-3</v>
-      </c>
-      <c r="F81" s="71">
-        <f>(SUM(P15:P23)-SUM(H15:H23))</f>
-        <v>-0.39999999999999991</v>
-      </c>
-      <c r="G81" s="17">
-        <f>(STDEV(P15:P23)-STDEV(H15:H23))</f>
-        <v>-6.6248756248194429E-2</v>
-      </c>
-      <c r="H81" s="71">
-        <f>(STDEV(S4:S14)-STDEV(K4:K14))</f>
-        <v>-0.6962598378522169</v>
-      </c>
-      <c r="I81" s="17"/>
-      <c r="J81" s="71">
-        <f>(SUM(P41:P52)-SUM(H41:H52))</f>
-        <v>-0.29999999999999893</v>
-      </c>
-      <c r="K81" s="17"/>
-      <c r="L81" s="71">
-        <f>(SUM(P53:P63)-SUM(H53:H63))</f>
-        <v>-1.4000000000000004</v>
-      </c>
-      <c r="M81" s="17"/>
-      <c r="N81" s="64" t="s">
+      <c r="C79" s="69">
+        <f>AVERAGE(H4:H14)</f>
+        <v>0.3</v>
+      </c>
+      <c r="D79" s="17">
+        <f>AVERAGE(P4:P14)</f>
+        <v>0.31818181818181818</v>
+      </c>
+      <c r="E79" s="69">
+        <f>AVERAGE(H15:H23)</f>
+        <v>0.37777777777777788</v>
+      </c>
+      <c r="F79" s="17">
+        <f>AVERAGE(P15:P23)</f>
+        <v>0.33333333333333343</v>
+      </c>
+      <c r="G79" s="69">
+        <f>AVERAGE(H23:H39)</f>
+        <v>0.49411764705882355</v>
+      </c>
+      <c r="H79" s="17">
+        <f>AVERAGE(P24:P40)</f>
+        <v>0.51176470588235312</v>
+      </c>
+      <c r="I79" s="69">
+        <f>AVERAGE(H41:H52)</f>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="J79" s="17">
+        <f>AVERAGE(P41:P52)</f>
+        <v>0.60833333333333339</v>
+      </c>
+      <c r="K79" s="69">
+        <f>AVERAGE(H53:H63)</f>
+        <v>1.0909090909090911</v>
+      </c>
+      <c r="L79" s="17">
+        <f>AVERAGE(P53:P63)</f>
+        <v>0.96363636363636374</v>
+      </c>
+      <c r="M79" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="O81" s="71">
-        <f>(SUM(AM4:AM17)-SUM(AE4:AE17))</f>
-        <v>-8.8817841970012523E-16</v>
-      </c>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="71">
-        <f>(SUM(AM18:AM41)-SUM(AE18:AE41))</f>
-        <v>-0.79999999999999893</v>
-      </c>
-      <c r="R81" s="4"/>
-      <c r="S81" s="71">
-        <f>(SUM(AM42:AM63)-SUM(AE42:AE63))</f>
-        <v>-1</v>
-      </c>
-      <c r="T81" s="44"/>
-      <c r="U81" s="45"/>
-      <c r="V81" s="71">
+      <c r="N79" s="69">
+        <f>(AVERAGE(AE4:AE17))</f>
+        <v>0.53571428571428581</v>
+      </c>
+      <c r="O79" s="17">
+        <f>(AVERAGE(AM4:AM17))</f>
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="P79" s="69">
+        <f>(AVERAGE(AE18:AE41))</f>
+        <v>0.67083333333333339</v>
+      </c>
+      <c r="Q79" s="17">
+        <f>(AVERAGE(AM18:AM41))</f>
+        <v>0.63750000000000007</v>
+      </c>
+      <c r="R79" s="69">
+        <f>(AVERAGE(AE42:AE63))</f>
+        <v>0.51363636363636367</v>
+      </c>
+      <c r="S79" s="17">
+        <f>(AVERAGE(AM42:AM63))</f>
+        <v>0.4681818181818182</v>
+      </c>
+      <c r="T79" s="43"/>
+      <c r="U79" s="69">
         <f>(SUM(AM4:AM63)-SUM(AE4:AE63))</f>
         <v>-1.7999999999999972</v>
       </c>
-      <c r="W81" s="72"/>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="C82" s="64" t="s">
+      <c r="V79" s="70"/>
+    </row>
+    <row r="80" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="B80" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="71">
-        <f>(SUM(Q4:Q14)-SUM(I4:I14))</f>
-        <v>-1.6999999999999886</v>
-      </c>
-      <c r="E82" s="17">
-        <f>(STDEV(Q4:Q14)-STDEV(I4:I14))</f>
-        <v>0.34146727910017383</v>
-      </c>
-      <c r="F82" s="71">
-        <f>(SUM(Q15:Q23)-SUM(I15:I23))</f>
-        <v>6.3999999999999915</v>
-      </c>
-      <c r="G82" s="17">
-        <f>(STDEV(Q15:Q23)-STDEV(I15:I23))</f>
-        <v>-0.61055052133240473</v>
-      </c>
-      <c r="H82" s="71">
-        <f>(STDEV(Q24:Q40)-STDEV(I24:I40))</f>
-        <v>-0.42497889620901752</v>
-      </c>
-      <c r="I82" s="17"/>
-      <c r="J82" s="71">
-        <f>(SUM(Q41:Q52)-SUM(I41:I52))</f>
-        <v>2.5000000000000568</v>
-      </c>
-      <c r="K82" s="17"/>
-      <c r="L82" s="71">
-        <f>(SUM(Q53:Q63)-SUM(I53:I63))</f>
-        <v>-4.6000000000000085</v>
-      </c>
-      <c r="M82" s="17"/>
-      <c r="N82" s="64" t="s">
+      <c r="C80" s="69">
+        <f>AVERAGE(I4:I14)</f>
+        <v>17.727272727272727</v>
+      </c>
+      <c r="D80" s="17">
+        <f>AVERAGE(Q4:Q14)</f>
+        <v>17.572727272727274</v>
+      </c>
+      <c r="E80" s="69">
+        <f>AVERAGE(I15:I23)</f>
+        <v>12.155555555555557</v>
+      </c>
+      <c r="F80" s="17">
+        <f>AVERAGE(Q15:Q23)</f>
+        <v>12.866666666666667</v>
+      </c>
+      <c r="G80" s="69">
+        <f>AVERAGE(I24:I40)</f>
+        <v>18.929411764705883</v>
+      </c>
+      <c r="H80" s="17">
+        <f>AVERAGE(Q24:Q40)</f>
+        <v>18.164705882352941</v>
+      </c>
+      <c r="I80" s="69">
+        <f>AVERAGE(I41:I52)</f>
+        <v>14.799999999999997</v>
+      </c>
+      <c r="J80" s="17">
+        <f>AVERAGE(Q41:Q52)</f>
+        <v>15.008333333333335</v>
+      </c>
+      <c r="K80" s="69">
+        <f>AVERAGE(I53:I63)</f>
+        <v>11.927272727272726</v>
+      </c>
+      <c r="L80" s="17">
+        <f>AVERAGE(Q53:Q63)</f>
+        <v>11.509090909090908</v>
+      </c>
+      <c r="M80" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="O82" s="71">
-        <f>(SUM(AN4:AN17)-SUM(AF4:AF17))</f>
-        <v>10.499999999999972</v>
-      </c>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="71">
-        <f>(SUM(AN18:AN41)-SUM(AF18:AF41))</f>
-        <v>-7.8000000000000682</v>
-      </c>
-      <c r="R82" s="4"/>
-      <c r="S82" s="71">
-        <f>(SUM(AN42:AN63)-SUM(AF42:AF63))</f>
-        <v>-13.099999999999966</v>
-      </c>
-      <c r="T82" s="44"/>
-      <c r="U82" s="45"/>
-      <c r="V82" s="71">
+      <c r="N80" s="69">
+        <f>(AVERAGE(AF4:AF17))</f>
+        <v>12.871428571428572</v>
+      </c>
+      <c r="O80" s="17">
+        <f>(AVERAGE(AN4:AN17))</f>
+        <v>13.62142857142857</v>
+      </c>
+      <c r="P80" s="69">
+        <f>(AVERAGE(AF18:AF41))</f>
+        <v>18.116666666666671</v>
+      </c>
+      <c r="Q80" s="17">
+        <f>(AVERAGE(AN18:AN41))</f>
+        <v>17.791666666666668</v>
+      </c>
+      <c r="R80" s="69">
+        <f>(AVERAGE(AF42:AF63))</f>
+        <v>14.545454545454545</v>
+      </c>
+      <c r="S80" s="17">
+        <f>(AVERAGE(AN42:AN63))</f>
+        <v>13.950000000000001</v>
+      </c>
+      <c r="T80" s="43"/>
+      <c r="U80" s="69">
         <f>(SUM(AN4:AN63)-SUM(AF4:AF63))</f>
         <v>-10.400000000000091</v>
       </c>
-      <c r="W82" s="72"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="C83" s="69" t="s">
+      <c r="V80" s="70"/>
+    </row>
+    <row r="81" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B81" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D83" s="58">
-        <f>SUM(D78:D82)</f>
-        <v>-4.3999999999999817</v>
-      </c>
-      <c r="E83" s="58">
-        <f t="shared" ref="E83:T83" si="22">SUM(E78:E82)</f>
-        <v>4.5018667031141602E-2</v>
-      </c>
-      <c r="F83" s="58">
+      <c r="C81" s="56">
+        <f>SUM(C76:C80)</f>
+        <v>30.6</v>
+      </c>
+      <c r="D81" s="56">
+        <f t="shared" ref="D81:S81" si="22">SUM(D76:D80)</f>
+        <v>30.200000000000003</v>
+      </c>
+      <c r="E81" s="56">
         <f t="shared" si="22"/>
-        <v>14.39999999999999</v>
-      </c>
-      <c r="G83" s="58">
+        <v>18.644444444444446</v>
+      </c>
+      <c r="F81" s="56">
         <f t="shared" si="22"/>
-        <v>0.69341467115232391</v>
-      </c>
-      <c r="H83" s="58">
+        <v>20.244444444444444</v>
+      </c>
+      <c r="G81" s="56">
         <f t="shared" si="22"/>
-        <v>35.893334959950067</v>
-      </c>
-      <c r="I83" s="58">
+        <v>30.652941176470588</v>
+      </c>
+      <c r="H81" s="56">
         <f t="shared" si="22"/>
+        <v>29.676470588235293</v>
+      </c>
+      <c r="I81" s="56">
+        <f t="shared" si="22"/>
+        <v>25.691666666666663</v>
+      </c>
+      <c r="J81" s="56">
+        <f t="shared" si="22"/>
+        <v>25.283333333333339</v>
+      </c>
+      <c r="K81" s="56">
+        <f t="shared" si="22"/>
+        <v>23.918181818181818</v>
+      </c>
+      <c r="L81" s="56">
+        <f t="shared" si="22"/>
+        <v>23.127272727272725</v>
+      </c>
+      <c r="M81" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="N81" s="56">
+        <f t="shared" si="22"/>
+        <v>22.121428571428574</v>
+      </c>
+      <c r="O81" s="56">
+        <f t="shared" si="22"/>
+        <v>23.792857142857141</v>
+      </c>
+      <c r="P81" s="56">
+        <f t="shared" si="22"/>
+        <v>30.479166666666668</v>
+      </c>
+      <c r="Q81" s="56">
+        <f t="shared" si="22"/>
+        <v>30.0625</v>
+      </c>
+      <c r="R81" s="56">
+        <f t="shared" si="22"/>
+        <v>25.268181818181819</v>
+      </c>
+      <c r="S81" s="56">
+        <f t="shared" si="22"/>
+        <v>23.731818181818184</v>
+      </c>
+      <c r="T81" s="43"/>
+      <c r="U81" s="59">
+        <f>SUM(U76:U80)</f>
+        <v>-20.400000000000034</v>
+      </c>
+      <c r="V81" s="59">
+        <f>SUM(V76:V80)</f>
         <v>0</v>
       </c>
-      <c r="J83" s="58">
-        <f t="shared" si="22"/>
-        <v>-3.5999999999999428</v>
-      </c>
-      <c r="K83" s="58">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="L83" s="58">
-        <f t="shared" si="22"/>
-        <v>-8.7000000000000028</v>
-      </c>
-      <c r="M83" s="58">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="N83" s="68" t="s">
+    </row>
+    <row r="83" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="C83" s="74"/>
+      <c r="D83">
+        <f t="shared" ref="D83:S83" si="23">1/D76</f>
+        <v>0.23758099352051837</v>
+      </c>
+      <c r="E83" s="74">
+        <f t="shared" si="23"/>
+        <v>0.30612244897959184</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="23"/>
+        <v>0.27950310559006208</v>
+      </c>
+      <c r="G83" s="74">
+        <f t="shared" si="23"/>
+        <v>0.16441005802707931</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="23"/>
+        <v>0.16815034619188923</v>
+      </c>
+      <c r="I83" s="74">
+        <f t="shared" si="23"/>
+        <v>0.1566579634464752</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="23"/>
+        <v>0.1576872536136662</v>
+      </c>
+      <c r="K83" s="74">
+        <f t="shared" si="23"/>
+        <v>0.11995637949836424</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="23"/>
+        <v>0.12387387387387386</v>
+      </c>
+      <c r="N83" s="74">
+        <f t="shared" si="23"/>
+        <v>0.19498607242339835</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="23"/>
+        <v>0.17114914425427877</v>
+      </c>
+      <c r="P83" s="74">
+        <f t="shared" si="23"/>
+        <v>0.15325670498084293</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="23"/>
+        <v>0.15554115359688922</v>
+      </c>
+      <c r="R83" s="74">
+        <f t="shared" si="23"/>
+        <v>0.18565400843881855</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="23"/>
+        <v>0.20295202952029526</v>
+      </c>
+    </row>
+    <row r="84" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="C84" s="74">
+        <f t="shared" ref="C84:L86" si="24">1/C77</f>
+        <v>0.14416775884665792</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="24"/>
+        <v>0.14986376021798364</v>
+      </c>
+      <c r="E84" s="74">
+        <f t="shared" si="24"/>
+        <v>0.51136363636363635</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="24"/>
+        <v>0.39823008849557523</v>
+      </c>
+      <c r="G84" s="74">
+        <f t="shared" si="24"/>
+        <v>0.27508090614886732</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="24"/>
+        <v>0.27868852459016397</v>
+      </c>
+      <c r="I84" s="74">
+        <f t="shared" si="24"/>
+        <v>0.41811846689895471</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="24"/>
+        <v>0.40677966101694912</v>
+      </c>
+      <c r="K84" s="74">
+        <f t="shared" si="24"/>
+        <v>0.54187192118226601</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="24"/>
+        <v>0.5140186915887851</v>
+      </c>
+      <c r="N84" s="74">
+        <f t="shared" ref="N84:S84" si="25">1/N77</f>
+        <v>0.3783783783783784</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="25"/>
+        <v>0.35897435897435898</v>
+      </c>
+      <c r="P84" s="74">
+        <f t="shared" si="25"/>
+        <v>0.26030368763557488</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>0.25586353944562901</v>
+      </c>
+      <c r="R84" s="74">
+        <f t="shared" si="25"/>
+        <v>0.29139072847682113</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="25"/>
+        <v>0.29294274300932088</v>
+      </c>
+    </row>
+    <row r="85" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="C85" s="74">
+        <f t="shared" si="24"/>
+        <v>0.67901234567901247</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="24"/>
+        <v>0.70063694267515919</v>
+      </c>
+      <c r="E85" s="74">
+        <f t="shared" si="24"/>
+        <v>1.125</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="24"/>
+        <v>1.046511627906977</v>
+      </c>
+      <c r="G85" s="74">
+        <f t="shared" si="24"/>
+        <v>0.66147859922178986</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="24"/>
+        <v>0.68273092369477917</v>
+      </c>
+      <c r="I85" s="74">
+        <f t="shared" si="24"/>
+        <v>0.6741573033707865</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="24"/>
+        <v>1.153846153846154</v>
+      </c>
+      <c r="K85" s="74">
+        <f t="shared" si="24"/>
+        <v>1.3924050632911391</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="24"/>
+        <v>1.5714285714285712</v>
+      </c>
+      <c r="N85" s="74">
+        <f t="shared" ref="N85:S85" si="26">1/N78</f>
+        <v>1.0606060606060603</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="26"/>
+        <v>0.99290780141843948</v>
+      </c>
+      <c r="P85" s="74">
+        <f t="shared" si="26"/>
+        <v>0.75471698113207553</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="26"/>
+        <v>0.77170418006430874</v>
+      </c>
+      <c r="R85" s="74">
+        <f t="shared" si="26"/>
+        <v>0.71895424836601307</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="26"/>
+        <v>1.0280373831775702</v>
+      </c>
+    </row>
+    <row r="86" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="C86" s="74">
+        <f t="shared" si="24"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="24"/>
+        <v>3.1428571428571428</v>
+      </c>
+      <c r="E86" s="74">
+        <f t="shared" si="24"/>
+        <v>2.6470588235294112</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="24"/>
+        <v>2.9999999999999991</v>
+      </c>
+      <c r="G86" s="74">
+        <f t="shared" si="24"/>
+        <v>2.0238095238095237</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="24"/>
+        <v>1.9540229885057465</v>
+      </c>
+      <c r="I86" s="74">
+        <f t="shared" si="24"/>
+        <v>1.5789473684210527</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="24"/>
+        <v>1.6438356164383561</v>
+      </c>
+      <c r="K86" s="74">
+        <f t="shared" si="24"/>
+        <v>0.91666666666666652</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="24"/>
+        <v>1.0377358490566038</v>
+      </c>
+      <c r="N86" s="74">
+        <f t="shared" ref="N86:S86" si="27">1/N79</f>
+        <v>1.8666666666666663</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="27"/>
+        <v>1.8666666666666667</v>
+      </c>
+      <c r="P86" s="74">
+        <f t="shared" si="27"/>
+        <v>1.4906832298136645</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="27"/>
+        <v>1.5686274509803919</v>
+      </c>
+      <c r="R86" s="74">
+        <f t="shared" si="27"/>
+        <v>1.9469026548672566</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>2.1359223300970873</v>
+      </c>
+    </row>
+    <row r="87" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="C87" s="74">
+        <f>1/C80</f>
+        <v>5.6410256410256411E-2</v>
+      </c>
+      <c r="D87">
+        <f t="shared" ref="D87:L87" si="28">1/D80</f>
+        <v>5.6906363166063109E-2</v>
+      </c>
+      <c r="E87" s="74">
+        <f t="shared" si="28"/>
+        <v>8.2266910420475306E-2</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="28"/>
+        <v>7.7720207253886009E-2</v>
+      </c>
+      <c r="G87" s="74">
+        <f t="shared" si="28"/>
+        <v>5.2827843380981974E-2</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="28"/>
+        <v>5.5051813471502592E-2</v>
+      </c>
+      <c r="I87" s="74">
+        <f t="shared" si="28"/>
+        <v>6.7567567567567585E-2</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="28"/>
+        <v>6.6629650194336476E-2</v>
+      </c>
+      <c r="K87" s="74">
+        <f t="shared" si="28"/>
+        <v>8.3841463414634151E-2</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="28"/>
+        <v>8.6887835703001584E-2</v>
+      </c>
+      <c r="N87" s="74">
+        <f t="shared" ref="N87:S87" si="29">1/N80</f>
+        <v>7.7691453940066588E-2</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="29"/>
+        <v>7.3413738856843214E-2</v>
+      </c>
+      <c r="P87" s="74">
+        <f t="shared" si="29"/>
+        <v>5.5197792088316454E-2</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="29"/>
+        <v>5.6206088992974232E-2</v>
+      </c>
+      <c r="R87" s="74">
+        <f t="shared" si="29"/>
+        <v>6.8750000000000006E-2</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="29"/>
+        <v>7.1684587813620068E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B89" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="C89" s="87"/>
+      <c r="D89" s="87"/>
+      <c r="E89" s="87"/>
+      <c r="F89" s="87"/>
+      <c r="G89" s="87"/>
+      <c r="H89" s="87"/>
+      <c r="I89" s="87"/>
+      <c r="J89" s="87"/>
+      <c r="K89" s="87"/>
+      <c r="S89" s="75"/>
+    </row>
+    <row r="90" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B90" s="87"/>
+      <c r="C90" s="87"/>
+      <c r="D90" s="87"/>
+      <c r="E90" s="87"/>
+      <c r="F90" s="87"/>
+      <c r="G90" s="87"/>
+      <c r="H90" s="87"/>
+      <c r="I90" s="87"/>
+      <c r="J90" s="87"/>
+      <c r="K90" s="87"/>
+      <c r="S90" s="75"/>
+    </row>
+    <row r="91" spans="2:22" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B91" s="43"/>
+      <c r="C91" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="D91" s="86"/>
+      <c r="E91" s="86"/>
+      <c r="F91" s="86"/>
+      <c r="G91" s="86"/>
+      <c r="H91" s="43"/>
+      <c r="I91" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="J91" s="86"/>
+      <c r="K91" s="86"/>
+      <c r="L91" s="75"/>
+      <c r="M91" s="75"/>
+      <c r="O91" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="P91" s="85"/>
+      <c r="Q91" s="85"/>
+      <c r="R91" s="85"/>
+      <c r="S91" s="85"/>
+    </row>
+    <row r="92" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B92" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C92" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F92" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H92" s="3"/>
+      <c r="I92" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="J92" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="K92" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="L92" s="75"/>
+      <c r="M92" s="75"/>
+      <c r="O92" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="P92" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q92" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="R92" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="S92" s="31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B93" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="D93" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="E93" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F93" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G93" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="H93" s="78"/>
+      <c r="I93" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="J93" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K93" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="L93" s="75"/>
+      <c r="M93" s="75"/>
+      <c r="O93" s="13">
+        <v>5.8</v>
+      </c>
+      <c r="P93" s="13">
+        <v>3.4</v>
+      </c>
+      <c r="Q93" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="R93" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="S93" s="13">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="94" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B94" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="16">
+        <v>2</v>
+      </c>
+      <c r="D94" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="E94" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F94" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="G94" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="H94" s="78"/>
+      <c r="I94" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="J94" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K94" s="16">
+        <v>1</v>
+      </c>
+      <c r="L94" s="75"/>
+      <c r="M94" s="75"/>
+      <c r="O94" s="75"/>
+      <c r="Q94" s="75"/>
+    </row>
+    <row r="95" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B95" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="D95" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="E95" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="F95" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="G95" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="H95" s="78"/>
+      <c r="I95" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="J95" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K95" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L95" s="75"/>
+      <c r="M95" s="75"/>
+      <c r="O95" s="75"/>
+      <c r="Q95" s="75"/>
+    </row>
+    <row r="96" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B96" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D96" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="E96" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="F96" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G96" s="16">
+        <v>1.9</v>
+      </c>
+      <c r="H96" s="78"/>
+      <c r="I96" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="J96" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="K96" s="16">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="97" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B97" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D97" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="E97" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="F97" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="G97" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="H97" s="78"/>
+      <c r="I97" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="J97" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="K97" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="AA97" s="75"/>
+    </row>
+    <row r="98" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="AA98" s="75"/>
+    </row>
+    <row r="99" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="C99" s="75"/>
+      <c r="D99" s="77"/>
+      <c r="AA99" s="75"/>
+    </row>
+    <row r="100" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="C100" s="75"/>
+      <c r="AA100" s="75"/>
+    </row>
+    <row r="101" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="C101" s="75"/>
+    </row>
+    <row r="102" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="C102" s="75"/>
+    </row>
+    <row r="103" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="C103" s="75"/>
+    </row>
+    <row r="104" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="C104" s="75"/>
+      <c r="E104" t="s">
+        <v>41</v>
+      </c>
+      <c r="F104" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G104" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H104" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="105" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105" s="72">
+        <f t="shared" ref="F105:F136" si="30">SUM(E4:I4)</f>
+        <v>32.300000000000004</v>
+      </c>
+      <c r="G105" s="72">
+        <f t="shared" ref="G105:G136" si="31">SUM(M4:Q4)</f>
+        <v>35.1</v>
+      </c>
+      <c r="H105" s="72">
+        <f>G105-F105</f>
+        <v>2.7999999999999972</v>
+      </c>
+    </row>
+    <row r="106" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="E106">
+        <f>1+E105</f>
+        <v>2</v>
+      </c>
+      <c r="F106" s="72">
+        <f t="shared" si="30"/>
+        <v>34.400000000000006</v>
+      </c>
+      <c r="G106" s="72">
+        <f t="shared" si="31"/>
+        <v>33.799999999999997</v>
+      </c>
+      <c r="H106" s="72">
+        <f t="shared" ref="H106:H164" si="32">G106-F106</f>
+        <v>-0.60000000000000853</v>
+      </c>
+    </row>
+    <row r="107" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="E107">
+        <f t="shared" ref="E107:E164" si="33">1+E106</f>
+        <v>3</v>
+      </c>
+      <c r="F107" s="72">
+        <f t="shared" si="30"/>
+        <v>30.7</v>
+      </c>
+      <c r="G107" s="72">
+        <f t="shared" si="31"/>
+        <v>31.1</v>
+      </c>
+      <c r="H107" s="72">
+        <f t="shared" si="32"/>
+        <v>0.40000000000000213</v>
+      </c>
+    </row>
+    <row r="108" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="E108">
+        <f t="shared" si="33"/>
+        <v>4</v>
+      </c>
+      <c r="F108" s="72">
+        <f t="shared" si="30"/>
+        <v>31.1</v>
+      </c>
+      <c r="G108" s="72">
+        <f t="shared" si="31"/>
+        <v>30.9</v>
+      </c>
+      <c r="H108" s="72">
+        <f t="shared" si="32"/>
+        <v>-0.20000000000000284</v>
+      </c>
+    </row>
+    <row r="109" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="E109">
+        <f t="shared" si="33"/>
+        <v>5</v>
+      </c>
+      <c r="F109" s="72">
+        <f t="shared" si="30"/>
+        <v>24.8</v>
+      </c>
+      <c r="G109" s="72">
+        <f t="shared" si="31"/>
+        <v>23.9</v>
+      </c>
+      <c r="H109" s="72">
+        <f t="shared" si="32"/>
+        <v>-0.90000000000000213</v>
+      </c>
+    </row>
+    <row r="110" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="E110">
+        <f t="shared" si="33"/>
+        <v>6</v>
+      </c>
+      <c r="F110" s="72">
+        <f t="shared" si="30"/>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="G110" s="72">
+        <f t="shared" si="31"/>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="H110" s="72">
+        <f t="shared" si="32"/>
+        <v>-1.2999999999999972</v>
+      </c>
+    </row>
+    <row r="111" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="E111">
+        <f t="shared" si="33"/>
+        <v>7</v>
+      </c>
+      <c r="F111" s="72">
+        <f t="shared" si="30"/>
+        <v>25.8</v>
+      </c>
+      <c r="G111" s="72">
+        <f t="shared" si="31"/>
+        <v>28.700000000000003</v>
+      </c>
+      <c r="H111" s="72">
+        <f t="shared" si="32"/>
+        <v>2.9000000000000021</v>
+      </c>
+    </row>
+    <row r="112" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="E112">
+        <f t="shared" si="33"/>
+        <v>8</v>
+      </c>
+      <c r="F112" s="72">
+        <f t="shared" si="30"/>
+        <v>28.700000000000003</v>
+      </c>
+      <c r="G112" s="72">
+        <f t="shared" si="31"/>
+        <v>26</v>
+      </c>
+      <c r="H112" s="72">
+        <f t="shared" si="32"/>
+        <v>-2.7000000000000028</v>
+      </c>
+    </row>
+    <row r="113" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E113">
+        <f t="shared" si="33"/>
+        <v>9</v>
+      </c>
+      <c r="F113" s="72">
+        <f t="shared" si="30"/>
+        <v>37.5</v>
+      </c>
+      <c r="G113" s="72">
+        <f t="shared" si="31"/>
+        <v>30.5</v>
+      </c>
+      <c r="H113" s="72">
+        <f t="shared" si="32"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="114" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E114">
+        <f t="shared" si="33"/>
+        <v>10</v>
+      </c>
+      <c r="F114" s="72">
+        <f t="shared" si="30"/>
+        <v>35.700000000000003</v>
+      </c>
+      <c r="G114" s="72">
+        <f t="shared" si="31"/>
+        <v>34.699999999999996</v>
+      </c>
+      <c r="H114" s="72">
+        <f t="shared" si="32"/>
+        <v>-1.0000000000000071</v>
+      </c>
+    </row>
+    <row r="115" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E115">
+        <f t="shared" si="33"/>
+        <v>11</v>
+      </c>
+      <c r="F115" s="72">
+        <f t="shared" si="30"/>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="G115" s="72">
+        <f t="shared" si="31"/>
+        <v>40.9</v>
+      </c>
+      <c r="H115" s="72">
+        <f t="shared" si="32"/>
+        <v>3.1999999999999957</v>
+      </c>
+    </row>
+    <row r="116" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E116">
+        <f t="shared" si="33"/>
+        <v>12</v>
+      </c>
+      <c r="F116" s="72">
+        <f t="shared" si="30"/>
+        <v>21</v>
+      </c>
+      <c r="G116" s="72">
+        <f t="shared" si="31"/>
+        <v>22.4</v>
+      </c>
+      <c r="H116" s="72">
+        <f t="shared" si="32"/>
+        <v>1.3999999999999986</v>
+      </c>
+    </row>
+    <row r="117" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E117">
+        <f t="shared" si="33"/>
+        <v>13</v>
+      </c>
+      <c r="F117" s="72">
+        <f t="shared" si="30"/>
+        <v>15.8</v>
+      </c>
+      <c r="G117" s="72">
+        <f t="shared" si="31"/>
+        <v>17.5</v>
+      </c>
+      <c r="H117" s="72">
+        <f t="shared" si="32"/>
+        <v>1.6999999999999993</v>
+      </c>
+    </row>
+    <row r="118" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E118">
+        <f t="shared" si="33"/>
+        <v>14</v>
+      </c>
+      <c r="F118" s="72">
+        <f t="shared" si="30"/>
+        <v>17.5</v>
+      </c>
+      <c r="G118" s="72">
+        <f t="shared" si="31"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="H118" s="72">
+        <f t="shared" si="32"/>
+        <v>-3.1000000000000014</v>
+      </c>
+    </row>
+    <row r="119" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E119">
+        <f t="shared" si="33"/>
+        <v>15</v>
+      </c>
+      <c r="F119" s="72">
+        <f t="shared" si="30"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="G119" s="72">
+        <f t="shared" si="31"/>
+        <v>17</v>
+      </c>
+      <c r="H119" s="72">
+        <f t="shared" si="32"/>
+        <v>2.6000000000000014</v>
+      </c>
+    </row>
+    <row r="120" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E120">
+        <f t="shared" si="33"/>
+        <v>16</v>
+      </c>
+      <c r="F120" s="72">
+        <f t="shared" si="30"/>
+        <v>24.2</v>
+      </c>
+      <c r="G120" s="72">
+        <f t="shared" si="31"/>
+        <v>29.299999999999997</v>
+      </c>
+      <c r="H120" s="72">
+        <f t="shared" si="32"/>
+        <v>5.0999999999999979</v>
+      </c>
+    </row>
+    <row r="121" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E121">
+        <f t="shared" si="33"/>
+        <v>17</v>
+      </c>
+      <c r="F121" s="72">
+        <f t="shared" si="30"/>
+        <v>19.5</v>
+      </c>
+      <c r="G121" s="72">
+        <f t="shared" si="31"/>
+        <v>23.200000000000003</v>
+      </c>
+      <c r="H121" s="72">
+        <f t="shared" si="32"/>
+        <v>3.7000000000000028</v>
+      </c>
+    </row>
+    <row r="122" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E122">
+        <f t="shared" si="33"/>
+        <v>18</v>
+      </c>
+      <c r="F122" s="72">
+        <f t="shared" si="30"/>
+        <v>23.8</v>
+      </c>
+      <c r="G122" s="72">
+        <f t="shared" si="31"/>
+        <v>20.3</v>
+      </c>
+      <c r="H122" s="72">
+        <f t="shared" si="32"/>
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="123" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E123">
+        <f t="shared" si="33"/>
+        <v>19</v>
+      </c>
+      <c r="F123" s="72">
+        <f t="shared" si="30"/>
+        <v>11.6</v>
+      </c>
+      <c r="G123" s="72">
+        <f t="shared" si="31"/>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="H123" s="72">
+        <f t="shared" si="32"/>
+        <v>6.0000000000000018</v>
+      </c>
+    </row>
+    <row r="124" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E124">
+        <f t="shared" si="33"/>
+        <v>20</v>
+      </c>
+      <c r="F124" s="72">
+        <f t="shared" si="30"/>
+        <v>20</v>
+      </c>
+      <c r="G124" s="72">
+        <f t="shared" si="31"/>
+        <v>20.5</v>
+      </c>
+      <c r="H124" s="72">
+        <f t="shared" si="32"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="125" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E125">
+        <f t="shared" si="33"/>
+        <v>21</v>
+      </c>
+      <c r="F125" s="72">
+        <f t="shared" si="30"/>
+        <v>48.2</v>
+      </c>
+      <c r="G125" s="72">
+        <f t="shared" si="31"/>
+        <v>43.400000000000006</v>
+      </c>
+      <c r="H125" s="72">
+        <f t="shared" si="32"/>
+        <v>-4.7999999999999972</v>
+      </c>
+    </row>
+    <row r="126" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E126">
+        <f t="shared" si="33"/>
+        <v>22</v>
+      </c>
+      <c r="F126" s="72">
+        <f t="shared" si="30"/>
+        <v>43.599999999999994</v>
+      </c>
+      <c r="G126" s="72">
+        <f t="shared" si="31"/>
+        <v>40.900000000000006</v>
+      </c>
+      <c r="H126" s="72">
+        <f t="shared" si="32"/>
+        <v>-2.6999999999999886</v>
+      </c>
+    </row>
+    <row r="127" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E127">
+        <f t="shared" si="33"/>
+        <v>23</v>
+      </c>
+      <c r="F127" s="72">
+        <f t="shared" si="30"/>
+        <v>18.400000000000002</v>
+      </c>
+      <c r="G127" s="72">
+        <f t="shared" si="31"/>
+        <v>19</v>
+      </c>
+      <c r="H127" s="72">
+        <f t="shared" si="32"/>
+        <v>0.59999999999999787</v>
+      </c>
+    </row>
+    <row r="128" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E128">
+        <f t="shared" si="33"/>
+        <v>24</v>
+      </c>
+      <c r="F128" s="72">
+        <f t="shared" si="30"/>
+        <v>17</v>
+      </c>
+      <c r="G128" s="72">
+        <f t="shared" si="31"/>
+        <v>26.7</v>
+      </c>
+      <c r="H128" s="72">
+        <f t="shared" si="32"/>
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="129" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E129">
+        <f t="shared" si="33"/>
+        <v>25</v>
+      </c>
+      <c r="F129" s="72">
+        <f t="shared" si="30"/>
+        <v>26.7</v>
+      </c>
+      <c r="G129" s="72">
+        <f t="shared" si="31"/>
+        <v>20.6</v>
+      </c>
+      <c r="H129" s="72">
+        <f t="shared" si="32"/>
+        <v>-6.0999999999999979</v>
+      </c>
+    </row>
+    <row r="130" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E130">
+        <f t="shared" si="33"/>
+        <v>26</v>
+      </c>
+      <c r="F130" s="72">
+        <f t="shared" si="30"/>
+        <v>21.6</v>
+      </c>
+      <c r="G130" s="72">
+        <f t="shared" si="31"/>
+        <v>18</v>
+      </c>
+      <c r="H130" s="72">
+        <f t="shared" si="32"/>
+        <v>-3.6000000000000014</v>
+      </c>
+    </row>
+    <row r="131" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E131">
+        <f t="shared" si="33"/>
+        <v>27</v>
+      </c>
+      <c r="F131" s="72">
+        <f t="shared" si="30"/>
+        <v>25</v>
+      </c>
+      <c r="G131" s="72">
+        <f t="shared" si="31"/>
+        <v>23</v>
+      </c>
+      <c r="H131" s="72">
+        <f t="shared" si="32"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="132" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E132">
+        <f t="shared" si="33"/>
+        <v>28</v>
+      </c>
+      <c r="F132" s="72">
+        <f t="shared" si="30"/>
+        <v>35.599999999999994</v>
+      </c>
+      <c r="G132" s="72">
+        <f t="shared" si="31"/>
+        <v>33.4</v>
+      </c>
+      <c r="H132" s="72">
+        <f t="shared" si="32"/>
+        <v>-2.1999999999999957</v>
+      </c>
+    </row>
+    <row r="133" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E133">
+        <f t="shared" si="33"/>
+        <v>29</v>
+      </c>
+      <c r="F133" s="72">
+        <f t="shared" si="30"/>
+        <v>42.9</v>
+      </c>
+      <c r="G133" s="72">
+        <f t="shared" si="31"/>
+        <v>32.9</v>
+      </c>
+      <c r="H133" s="72">
+        <f t="shared" si="32"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="134" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E134">
+        <f t="shared" si="33"/>
+        <v>30</v>
+      </c>
+      <c r="F134" s="72">
+        <f t="shared" si="30"/>
+        <v>29.4</v>
+      </c>
+      <c r="G134" s="72">
+        <f t="shared" si="31"/>
+        <v>31.1</v>
+      </c>
+      <c r="H134" s="72">
+        <f t="shared" si="32"/>
+        <v>1.7000000000000028</v>
+      </c>
+    </row>
+    <row r="135" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E135">
+        <f t="shared" si="33"/>
         <v>31</v>
       </c>
-      <c r="O83" s="58">
-        <f t="shared" si="22"/>
-        <v>23.399999999999956</v>
-      </c>
-      <c r="P83" s="58">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Q83" s="58">
-        <f t="shared" si="22"/>
-        <v>-10.000000000000098</v>
-      </c>
-      <c r="R83" s="58">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="S83" s="58">
-        <f t="shared" si="22"/>
-        <v>-33.800000000000011</v>
-      </c>
-      <c r="T83" s="58">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="U83" s="45"/>
-      <c r="V83" s="61">
-        <f>SUM(V78:V82)</f>
-        <v>-20.400000000000034</v>
-      </c>
-      <c r="W83" s="61">
-        <f>SUM(W78:W82)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="11"/>
-      <c r="J84" s="11"/>
-      <c r="K84" s="11"/>
-      <c r="L84" s="11"/>
-      <c r="M84" s="11"/>
-      <c r="N84" s="11"/>
-      <c r="O84" s="11"/>
-      <c r="P84" s="11"/>
-      <c r="Q84" s="11"/>
-      <c r="R84" s="11"/>
-      <c r="S84" s="12"/>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="11"/>
-      <c r="J85" s="11"/>
-      <c r="K85" s="11"/>
-      <c r="L85" s="11"/>
-      <c r="M85" s="11"/>
-      <c r="N85" s="11"/>
-      <c r="O85" s="11"/>
-      <c r="P85" s="11"/>
-      <c r="Q85" s="11"/>
-      <c r="R85" s="11"/>
-      <c r="S85" s="12"/>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="11"/>
-      <c r="J86" s="11"/>
-      <c r="K86" s="11"/>
-      <c r="L86" s="11"/>
-      <c r="M86" s="11"/>
-      <c r="N86" s="11"/>
-      <c r="O86" s="11"/>
-      <c r="P86" s="11"/>
-      <c r="Q86" s="11"/>
-      <c r="R86" s="11"/>
-      <c r="S86" s="12"/>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="11"/>
-      <c r="K87" s="11"/>
-      <c r="L87" s="11"/>
-      <c r="M87" s="11"/>
-      <c r="N87" s="11"/>
-      <c r="O87" s="11"/>
-      <c r="P87" s="11"/>
-      <c r="Q87" s="11"/>
-      <c r="R87" s="11"/>
-      <c r="S87" s="12"/>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="11"/>
-      <c r="K88" s="11"/>
-      <c r="L88" s="11"/>
-      <c r="M88" s="11"/>
-      <c r="N88" s="11"/>
-      <c r="O88" s="11"/>
-      <c r="P88" s="11"/>
-      <c r="Q88" s="11"/>
-      <c r="R88" s="11"/>
-      <c r="S88" s="12"/>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="11"/>
-      <c r="L89" s="11"/>
-      <c r="M89" s="11"/>
-      <c r="N89" s="11"/>
-      <c r="O89" s="11"/>
-      <c r="P89" s="11"/>
-      <c r="Q89" s="11"/>
-      <c r="R89" s="11"/>
-      <c r="S89" s="12"/>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
-      <c r="J90" s="11"/>
-      <c r="K90" s="11"/>
-      <c r="L90" s="11"/>
-      <c r="M90" s="11"/>
-      <c r="N90" s="11"/>
-      <c r="O90" s="11"/>
-      <c r="P90" s="11"/>
-      <c r="Q90" s="11"/>
-      <c r="R90" s="11"/>
-      <c r="S90" s="12"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
-      <c r="J91" s="11"/>
-      <c r="K91" s="11"/>
-      <c r="L91" s="11"/>
-      <c r="M91" s="11"/>
-      <c r="N91" s="11"/>
-      <c r="O91" s="11"/>
-      <c r="P91" s="11"/>
-      <c r="Q91" s="11"/>
-      <c r="R91" s="11"/>
-      <c r="S91" s="12"/>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="11"/>
-      <c r="J92" s="11"/>
-      <c r="K92" s="11"/>
-      <c r="L92" s="11"/>
-      <c r="M92" s="11"/>
-      <c r="N92" s="11"/>
-      <c r="O92" s="11"/>
-      <c r="P92" s="11"/>
-      <c r="Q92" s="11"/>
-      <c r="R92" s="11"/>
-      <c r="S92" s="12"/>
+      <c r="F135" s="72">
+        <f t="shared" si="30"/>
+        <v>36.200000000000003</v>
+      </c>
+      <c r="G135" s="72">
+        <f t="shared" si="31"/>
+        <v>39.400000000000006</v>
+      </c>
+      <c r="H135" s="72">
+        <f t="shared" si="32"/>
+        <v>3.2000000000000028</v>
+      </c>
+    </row>
+    <row r="136" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E136">
+        <f t="shared" si="33"/>
+        <v>32</v>
+      </c>
+      <c r="F136" s="72">
+        <f t="shared" si="30"/>
+        <v>39.400000000000006</v>
+      </c>
+      <c r="G136" s="72">
+        <f t="shared" si="31"/>
+        <v>41.5</v>
+      </c>
+      <c r="H136" s="72">
+        <f t="shared" si="32"/>
+        <v>2.0999999999999943</v>
+      </c>
+    </row>
+    <row r="137" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E137">
+        <f t="shared" si="33"/>
+        <v>33</v>
+      </c>
+      <c r="F137" s="72">
+        <f t="shared" ref="F137:F164" si="34">SUM(E36:I36)</f>
+        <v>25</v>
+      </c>
+      <c r="G137" s="72">
+        <f t="shared" ref="G137:G164" si="35">SUM(M36:Q36)</f>
+        <v>27</v>
+      </c>
+      <c r="H137" s="72">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E138">
+        <f t="shared" si="33"/>
+        <v>34</v>
+      </c>
+      <c r="F138" s="72">
+        <f t="shared" si="34"/>
+        <v>37.9</v>
+      </c>
+      <c r="G138" s="72">
+        <f t="shared" si="35"/>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="H138" s="72">
+        <f t="shared" si="32"/>
+        <v>-3.1000000000000014</v>
+      </c>
+    </row>
+    <row r="139" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E139">
+        <f t="shared" si="33"/>
+        <v>35</v>
+      </c>
+      <c r="F139" s="72">
+        <f t="shared" si="34"/>
+        <v>29.8</v>
+      </c>
+      <c r="G139" s="72">
+        <f t="shared" si="35"/>
+        <v>35</v>
+      </c>
+      <c r="H139" s="72">
+        <f t="shared" si="32"/>
+        <v>5.1999999999999993</v>
+      </c>
+    </row>
+    <row r="140" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E140">
+        <f t="shared" si="33"/>
+        <v>36</v>
+      </c>
+      <c r="F140" s="72">
+        <f t="shared" si="34"/>
+        <v>23</v>
+      </c>
+      <c r="G140" s="72">
+        <f t="shared" si="35"/>
+        <v>22.3</v>
+      </c>
+      <c r="H140" s="72">
+        <f t="shared" si="32"/>
+        <v>-0.69999999999999929</v>
+      </c>
+    </row>
+    <row r="141" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E141">
+        <f t="shared" si="33"/>
+        <v>37</v>
+      </c>
+      <c r="F141" s="72">
+        <f t="shared" si="34"/>
+        <v>21.6</v>
+      </c>
+      <c r="G141" s="72">
+        <f t="shared" si="35"/>
+        <v>15.5</v>
+      </c>
+      <c r="H141" s="72">
+        <f t="shared" si="32"/>
+        <v>-6.1000000000000014</v>
+      </c>
+    </row>
+    <row r="142" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E142">
+        <f t="shared" si="33"/>
+        <v>38</v>
+      </c>
+      <c r="F142" s="72">
+        <f t="shared" si="34"/>
+        <v>55.199999999999996</v>
+      </c>
+      <c r="G142" s="72">
+        <f t="shared" si="35"/>
+        <v>46.2</v>
+      </c>
+      <c r="H142" s="72">
+        <f t="shared" si="32"/>
+        <v>-8.9999999999999929</v>
+      </c>
+    </row>
+    <row r="143" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E143">
+        <f t="shared" si="33"/>
+        <v>39</v>
+      </c>
+      <c r="F143" s="72">
+        <f t="shared" si="34"/>
+        <v>21.9</v>
+      </c>
+      <c r="G143" s="72">
+        <f t="shared" si="35"/>
+        <v>18.2</v>
+      </c>
+      <c r="H143" s="72">
+        <f t="shared" si="32"/>
+        <v>-3.6999999999999993</v>
+      </c>
+    </row>
+    <row r="144" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E144">
+        <f t="shared" si="33"/>
+        <v>40</v>
+      </c>
+      <c r="F144" s="72">
+        <f t="shared" si="34"/>
+        <v>18.2</v>
+      </c>
+      <c r="G144" s="72">
+        <f t="shared" si="35"/>
+        <v>32.1</v>
+      </c>
+      <c r="H144" s="72">
+        <f t="shared" si="32"/>
+        <v>13.900000000000002</v>
+      </c>
+    </row>
+    <row r="145" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="E145">
+        <f t="shared" si="33"/>
+        <v>41</v>
+      </c>
+      <c r="F145" s="72">
+        <f t="shared" si="34"/>
+        <v>27.700000000000003</v>
+      </c>
+      <c r="G145" s="72">
+        <f t="shared" si="35"/>
+        <v>34.5</v>
+      </c>
+      <c r="H145" s="72">
+        <f t="shared" si="32"/>
+        <v>6.7999999999999972</v>
+      </c>
+    </row>
+    <row r="146" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="E146">
+        <f t="shared" si="33"/>
+        <v>42</v>
+      </c>
+      <c r="F146" s="72">
+        <f t="shared" si="34"/>
+        <v>34.5</v>
+      </c>
+      <c r="G146" s="72">
+        <f t="shared" si="35"/>
+        <v>33.4</v>
+      </c>
+      <c r="H146" s="72">
+        <f t="shared" si="32"/>
+        <v>-1.1000000000000014</v>
+      </c>
+    </row>
+    <row r="147" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="E147">
+        <f t="shared" si="33"/>
+        <v>43</v>
+      </c>
+      <c r="F147" s="72">
+        <f t="shared" si="34"/>
+        <v>13.2</v>
+      </c>
+      <c r="G147" s="72">
+        <f t="shared" si="35"/>
+        <v>18.699999999999996</v>
+      </c>
+      <c r="H147" s="72">
+        <f t="shared" si="32"/>
+        <v>5.4999999999999964</v>
+      </c>
+    </row>
+    <row r="148" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C148" s="72"/>
+      <c r="E148">
+        <f t="shared" si="33"/>
+        <v>44</v>
+      </c>
+      <c r="F148" s="72">
+        <f t="shared" si="34"/>
+        <v>29.5</v>
+      </c>
+      <c r="G148" s="72">
+        <f t="shared" si="35"/>
+        <v>26.599999999999998</v>
+      </c>
+      <c r="H148" s="72">
+        <f t="shared" si="32"/>
+        <v>-2.9000000000000021</v>
+      </c>
+    </row>
+    <row r="149" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C149" s="72"/>
+      <c r="E149">
+        <f t="shared" si="33"/>
+        <v>45</v>
+      </c>
+      <c r="F149" s="72">
+        <f t="shared" si="34"/>
+        <v>26.599999999999998</v>
+      </c>
+      <c r="G149" s="72">
+        <f t="shared" si="35"/>
+        <v>18.8</v>
+      </c>
+      <c r="H149" s="72">
+        <f t="shared" si="32"/>
+        <v>-7.7999999999999972</v>
+      </c>
+    </row>
+    <row r="150" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C150" s="72"/>
+      <c r="E150">
+        <f t="shared" si="33"/>
+        <v>46</v>
+      </c>
+      <c r="F150" s="72">
+        <f t="shared" si="34"/>
+        <v>27.9</v>
+      </c>
+      <c r="G150" s="72">
+        <f t="shared" si="35"/>
+        <v>20.6</v>
+      </c>
+      <c r="H150" s="72">
+        <f t="shared" si="32"/>
+        <v>-7.2999999999999972</v>
+      </c>
+    </row>
+    <row r="151" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C151" s="72"/>
+      <c r="E151">
+        <f t="shared" si="33"/>
+        <v>47</v>
+      </c>
+      <c r="F151" s="72">
+        <f t="shared" si="34"/>
+        <v>23.5</v>
+      </c>
+      <c r="G151" s="72">
+        <f t="shared" si="35"/>
+        <v>18.8</v>
+      </c>
+      <c r="H151" s="72">
+        <f t="shared" si="32"/>
+        <v>-4.6999999999999993</v>
+      </c>
+    </row>
+    <row r="152" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C152" s="72"/>
+      <c r="E152">
+        <f t="shared" si="33"/>
+        <v>48</v>
+      </c>
+      <c r="F152" s="72">
+        <f t="shared" si="34"/>
+        <v>11.2</v>
+      </c>
+      <c r="G152" s="72">
+        <f t="shared" si="35"/>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="H152" s="72">
+        <f t="shared" si="32"/>
+        <v>7.6999999999999993</v>
+      </c>
+    </row>
+    <row r="153" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C153" s="72"/>
+      <c r="E153">
+        <f t="shared" si="33"/>
+        <v>49</v>
+      </c>
+      <c r="F153" s="72">
+        <f t="shared" si="34"/>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G153" s="72">
+        <f t="shared" si="35"/>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="H153" s="72">
+        <f t="shared" si="32"/>
+        <v>-2.2999999999999972</v>
+      </c>
+    </row>
+    <row r="154" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C154" s="72"/>
+      <c r="E154">
+        <f t="shared" si="33"/>
+        <v>50</v>
+      </c>
+      <c r="F154" s="72">
+        <f t="shared" si="34"/>
+        <v>18.5</v>
+      </c>
+      <c r="G154" s="72">
+        <f t="shared" si="35"/>
+        <v>19</v>
+      </c>
+      <c r="H154" s="72">
+        <f t="shared" si="32"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="155" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C155" s="72"/>
+      <c r="E155">
+        <f t="shared" si="33"/>
+        <v>51</v>
+      </c>
+      <c r="F155" s="72">
+        <f t="shared" si="34"/>
+        <v>28</v>
+      </c>
+      <c r="G155" s="72">
+        <f t="shared" si="35"/>
+        <v>27.900000000000002</v>
+      </c>
+      <c r="H155" s="72">
+        <f t="shared" si="32"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C156" s="72"/>
+      <c r="E156">
+        <f t="shared" si="33"/>
+        <v>52</v>
+      </c>
+      <c r="F156" s="72">
+        <f t="shared" si="34"/>
+        <v>26.700000000000003</v>
+      </c>
+      <c r="G156" s="72">
+        <f t="shared" si="35"/>
+        <v>24.400000000000002</v>
+      </c>
+      <c r="H156" s="72">
+        <f t="shared" si="32"/>
+        <v>-2.3000000000000007</v>
+      </c>
+    </row>
+    <row r="157" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C157" s="72"/>
+      <c r="E157">
+        <f t="shared" si="33"/>
+        <v>53</v>
+      </c>
+      <c r="F157" s="72">
+        <f t="shared" si="34"/>
+        <v>24.400000000000002</v>
+      </c>
+      <c r="G157" s="72">
+        <f t="shared" si="35"/>
+        <v>25.1</v>
+      </c>
+      <c r="H157" s="72">
+        <f t="shared" si="32"/>
+        <v>0.69999999999999929</v>
+      </c>
+    </row>
+    <row r="158" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C158" s="72"/>
+      <c r="E158">
+        <f t="shared" si="33"/>
+        <v>54</v>
+      </c>
+      <c r="F158" s="72">
+        <f t="shared" si="34"/>
+        <v>22.8</v>
+      </c>
+      <c r="G158" s="72">
+        <f t="shared" si="35"/>
+        <v>27.6</v>
+      </c>
+      <c r="H158" s="72">
+        <f t="shared" si="32"/>
+        <v>4.8000000000000007</v>
+      </c>
+    </row>
+    <row r="159" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C159" s="72"/>
+      <c r="E159">
+        <f t="shared" si="33"/>
+        <v>55</v>
+      </c>
+      <c r="F159" s="72">
+        <f t="shared" si="34"/>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G159" s="72">
+        <f t="shared" si="35"/>
+        <v>26.299999999999997</v>
+      </c>
+      <c r="H159" s="72">
+        <f t="shared" si="32"/>
+        <v>8.6999999999999957</v>
+      </c>
+    </row>
+    <row r="160" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C160" s="72"/>
+      <c r="E160">
+        <f t="shared" si="33"/>
+        <v>56</v>
+      </c>
+      <c r="F160" s="72">
+        <f t="shared" si="34"/>
+        <v>19.8</v>
+      </c>
+      <c r="G160" s="72">
+        <f t="shared" si="35"/>
+        <v>12.1</v>
+      </c>
+      <c r="H160" s="72">
+        <f t="shared" si="32"/>
+        <v>-7.7000000000000011</v>
+      </c>
+    </row>
+    <row r="161" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C161" s="72"/>
+      <c r="E161">
+        <f t="shared" si="33"/>
+        <v>57</v>
+      </c>
+      <c r="F161" s="72">
+        <f t="shared" si="34"/>
+        <v>14.3</v>
+      </c>
+      <c r="G161" s="72">
+        <f t="shared" si="35"/>
+        <v>16</v>
+      </c>
+      <c r="H161" s="72">
+        <f t="shared" si="32"/>
+        <v>1.6999999999999993</v>
+      </c>
+    </row>
+    <row r="162" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C162" s="72"/>
+      <c r="E162">
+        <f t="shared" si="33"/>
+        <v>58</v>
+      </c>
+      <c r="F162" s="72">
+        <f t="shared" si="34"/>
+        <v>16</v>
+      </c>
+      <c r="G162" s="72">
+        <f t="shared" si="35"/>
+        <v>6.7</v>
+      </c>
+      <c r="H162" s="72">
+        <f t="shared" si="32"/>
+        <v>-9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="163" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C163" s="72"/>
+      <c r="E163">
+        <f t="shared" si="33"/>
+        <v>59</v>
+      </c>
+      <c r="F163" s="72">
+        <f t="shared" si="34"/>
+        <v>40.6</v>
+      </c>
+      <c r="G163" s="72">
+        <f t="shared" si="35"/>
+        <v>34.400000000000006</v>
+      </c>
+      <c r="H163" s="72">
+        <f t="shared" si="32"/>
+        <v>-6.1999999999999957</v>
+      </c>
+    </row>
+    <row r="164" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C164" s="72"/>
+      <c r="E164">
+        <f t="shared" si="33"/>
+        <v>60</v>
+      </c>
+      <c r="F164" s="72">
+        <f t="shared" si="34"/>
+        <v>34.400000000000006</v>
+      </c>
+      <c r="G164" s="72">
+        <f t="shared" si="35"/>
+        <v>34.900000000000006</v>
+      </c>
+      <c r="H164" s="72">
+        <f t="shared" si="32"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="165" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C165" s="72"/>
+    </row>
+    <row r="166" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C166" s="72"/>
+    </row>
+    <row r="167" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C167" s="72"/>
+    </row>
+    <row r="168" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C168" s="72"/>
+    </row>
+    <row r="169" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C169" s="72"/>
+    </row>
+    <row r="170" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C170" s="72"/>
+    </row>
+    <row r="171" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C171" s="72"/>
+    </row>
+    <row r="172" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C172" s="72"/>
+    </row>
+    <row r="173" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C173" s="72"/>
+    </row>
+    <row r="174" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C174" s="72"/>
+    </row>
+    <row r="175" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C175" s="72"/>
+    </row>
+    <row r="176" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C176" s="72"/>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C177" s="72"/>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C178" s="72"/>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C179" s="72"/>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C180" s="72"/>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C181" s="72"/>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C182" s="72"/>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C183" s="72"/>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C184" s="72"/>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C185" s="72"/>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C186" s="72"/>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C187" s="72"/>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C188" s="72"/>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C189" s="72"/>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C190" s="72"/>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C191" s="72"/>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C192" s="72"/>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C193" s="72"/>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C194" s="72"/>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C195" s="72"/>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C196" s="72"/>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C197" s="72"/>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C198" s="72"/>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C199" s="72"/>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C200" s="72"/>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C201" s="72"/>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C202" s="72"/>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C203" s="72"/>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C204" s="72"/>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C205" s="72"/>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C206" s="72"/>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C207" s="72"/>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C208" s="72"/>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C209" s="72"/>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C210" s="72"/>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C211" s="72"/>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C212" s="72"/>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C213" s="72"/>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C214" s="72"/>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C215" s="72"/>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C216" s="72"/>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C217" s="72"/>
+    </row>
+    <row r="218" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C218" s="72"/>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C219" s="72"/>
+    </row>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C220" s="72"/>
+    </row>
+    <row r="221" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C221" s="72"/>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C222" s="72"/>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C223" s="72"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Z4:AN63">
     <sortCondition ref="Z4:Z63"/>
   </sortState>
-  <mergeCells count="14">
-    <mergeCell ref="C72:W75"/>
+  <mergeCells count="18">
+    <mergeCell ref="O91:S91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="I91:K91"/>
+    <mergeCell ref="B89:K90"/>
+    <mergeCell ref="B70:V73"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="O76:P76"/>
-    <mergeCell ref="Q76:R76"/>
-    <mergeCell ref="S76:T76"/>
-    <mergeCell ref="V76:W76"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="R74:S74"/>
+    <mergeCell ref="U74:V74"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="K2:Q2"/>
     <mergeCell ref="Z2:AF2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8766,6 +13985,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B138E0614BC52847ACFFCABF015068A5" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a916de6bfb69675f6cc2f99efae44739">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b2f57d36-ce1e-4f81-830a-fcb85892b456" xmlns:ns4="b01d7ef3-3012-4ecb-a607-85d1891f3726" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e2f359d95804979a54d297da5d414f4f" ns3:_="" ns4:_="">
     <xsd:import namespace="b2f57d36-ce1e-4f81-830a-fcb85892b456"/>
@@ -8950,15 +14178,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34B6824B-EDD0-411D-84FA-DCF3EFA40CC0}">
   <ds:schemaRefs>
@@ -8969,6 +14188,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{918FAEA0-A5F6-4F87-B713-41F1A01C70D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B3A404B-E4C6-4F5B-AE3B-940237FF3DBA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8985,12 +14212,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{918FAEA0-A5F6-4F87-B713-41F1A01C70D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_All My Stuff\Senior Year\Algorithms\Project\algorithms_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41449A68-ECCC-484C-9486-4610E5CD2C99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E729F77F-5322-418F-BDE1-18D43707940E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="18820" windowHeight="17540" xr2:uid="{36A8888B-E34B-4134-A916-AA0D47BA0190}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{36A8888B-E34B-4134-A916-AA0D47BA0190}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="46">
   <si>
     <t>Sorted by POS</t>
   </si>
@@ -169,7 +169,10 @@
     <t>SD</t>
   </si>
   <si>
-    <t>WEIGHTS</t>
+    <t>PRE-WEIGHTS</t>
+  </si>
+  <si>
+    <t>POST-WEIGHTS</t>
   </si>
   <si>
     <t>POSISTION</t>
@@ -247,7 +250,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,12 +278,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,16 +640,25 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -672,15 +678,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1125,7 +1122,7 @@
                   <c:v>21.6</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>55.199999999999996</c:v>
+                  <c:v>47.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>21.9</c:v>
@@ -2409,7 +2406,7 @@
                   <c:v>-6.1000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-8.9999999999999929</c:v>
+                  <c:v>-1.3999999999999915</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-3.6999999999999993</c:v>
@@ -4296,22 +4293,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD56DDD-8127-410A-A1D4-6813F110275A}">
   <dimension ref="A1:AR223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="S94" sqref="S94"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="11" max="11" width="8.81640625" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
     <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="23" max="23" width="9.81640625" customWidth="1"/>
+    <col min="23" max="23" width="9.88671875" customWidth="1"/>
     <col min="43" max="43" width="8" customWidth="1"/>
     <col min="44" max="44" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4319,55 +4316,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="C2" s="82" t="s">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="C2" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="84"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87"/>
       <c r="J2" s="3" cm="1">
         <f t="array" aca="1" ref="J2" ca="1">J2:P69</f>
         <v>0</v>
       </c>
-      <c r="K2" s="79" t="s">
+      <c r="K2" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="80"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="83"/>
       <c r="R2" s="7"/>
-      <c r="Z2" s="82" t="s">
+      <c r="Z2" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="83"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="83"/>
-      <c r="AF2" s="84"/>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="87"/>
       <c r="AG2" s="3" cm="1">
         <f t="array" aca="1" ref="AG2" ca="1">AG2:AM82</f>
         <v>0</v>
       </c>
-      <c r="AH2" s="79" t="s">
+      <c r="AH2" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="AI2" s="79"/>
-      <c r="AJ2" s="79"/>
-      <c r="AK2" s="79"/>
-      <c r="AL2" s="79"/>
-      <c r="AM2" s="79"/>
-      <c r="AN2" s="80"/>
+      <c r="AI2" s="82"/>
+      <c r="AJ2" s="82"/>
+      <c r="AK2" s="82"/>
+      <c r="AL2" s="82"/>
+      <c r="AM2" s="82"/>
+      <c r="AN2" s="83"/>
       <c r="AO2" s="7"/>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -4469,15 +4466,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B4">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="C4" s="73">
+      <c r="C4" s="76">
         <v>25</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="76" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="13">
@@ -4526,10 +4523,10 @@
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="Z4" s="73">
+      <c r="Z4" s="76">
         <v>20</v>
       </c>
-      <c r="AA4" s="73" t="s">
+      <c r="AA4" s="76" t="s">
         <v>14</v>
       </c>
       <c r="AB4" s="13">
@@ -4577,15 +4574,15 @@
         <v>6.0000000000000018</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B5">
         <f>B4+1</f>
         <v>2</v>
       </c>
-      <c r="C5" s="73">
+      <c r="C5" s="76">
         <v>31</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="76" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="13">
@@ -4605,11 +4602,10 @@
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="20">
-        <f t="shared" ref="K5:K23" si="4">C5+1</f>
         <v>32</v>
       </c>
       <c r="L5" s="21" t="str">
-        <f t="shared" ref="L5:L23" si="5">D5</f>
+        <f t="shared" ref="L5:L23" si="4">D5</f>
         <v>PG</v>
       </c>
       <c r="M5" s="13">
@@ -4636,10 +4632,10 @@
         <f>Y4+1</f>
         <v>2</v>
       </c>
-      <c r="Z5" s="73">
+      <c r="Z5" s="76">
         <v>23</v>
       </c>
-      <c r="AA5" s="73" t="s">
+      <c r="AA5" s="76" t="s">
         <v>14</v>
       </c>
       <c r="AB5" s="13">
@@ -4687,15 +4683,15 @@
         <v>1.3999999999999986</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B6">
-        <f t="shared" ref="B6:B63" si="6">B5+1</f>
+        <f t="shared" ref="B6:B63" si="5">B5+1</f>
         <v>3</v>
       </c>
-      <c r="C6" s="73">
+      <c r="C6" s="76">
         <v>33</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="76" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="13">
@@ -4715,11 +4711,10 @@
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="20">
+        <v>34</v>
+      </c>
+      <c r="L6" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>34</v>
-      </c>
-      <c r="L6" s="21" t="str">
-        <f t="shared" si="5"/>
         <v>PG</v>
       </c>
       <c r="M6" s="13">
@@ -4743,13 +4738,13 @@
         <v>0.40000000000000213</v>
       </c>
       <c r="Y6">
-        <f t="shared" ref="Y6:Y63" si="7">Y5+1</f>
+        <f t="shared" ref="Y6:Y63" si="6">Y5+1</f>
         <v>3</v>
       </c>
-      <c r="Z6" s="73">
+      <c r="Z6" s="76">
         <v>23</v>
       </c>
-      <c r="AA6" s="73" t="s">
+      <c r="AA6" s="76" t="s">
         <v>15</v>
       </c>
       <c r="AB6" s="13">
@@ -4797,15 +4792,15 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="C7" s="73">
+      <c r="C7" s="76">
         <v>34</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="76" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="13">
@@ -4825,11 +4820,10 @@
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="20">
+        <v>35</v>
+      </c>
+      <c r="L7" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="L7" s="21" t="str">
-        <f t="shared" si="5"/>
         <v>PG</v>
       </c>
       <c r="M7" s="13">
@@ -4853,13 +4847,13 @@
         <v>-0.20000000000000284</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="Z7" s="73">
+      <c r="Z7" s="76">
         <v>23</v>
       </c>
-      <c r="AA7" s="73" t="s">
+      <c r="AA7" s="76" t="s">
         <v>16</v>
       </c>
       <c r="AB7" s="13">
@@ -4907,15 +4901,15 @@
         <v>6.7999999999999972</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="C8" s="73">
+      <c r="C8" s="76">
         <v>24</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="76" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="13">
@@ -4935,11 +4929,10 @@
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="20">
+        <v>25</v>
+      </c>
+      <c r="L8" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="L8" s="21" t="str">
-        <f t="shared" si="5"/>
         <v>PG</v>
       </c>
       <c r="M8" s="13">
@@ -4963,13 +4956,13 @@
         <v>-0.90000000000000213</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="Z8" s="73">
+      <c r="Z8" s="76">
         <v>24</v>
       </c>
-      <c r="AA8" s="73" t="s">
+      <c r="AA8" s="76" t="s">
         <v>13</v>
       </c>
       <c r="AB8" s="13">
@@ -5017,15 +5010,15 @@
         <v>-0.90000000000000213</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="C9" s="73">
+      <c r="C9" s="76">
         <v>24</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="76" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="16">
@@ -5045,11 +5038,10 @@
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="20">
+        <v>25</v>
+      </c>
+      <c r="L9" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="L9" s="21" t="str">
-        <f t="shared" si="5"/>
         <v>PG</v>
       </c>
       <c r="M9" s="13">
@@ -5073,13 +5065,13 @@
         <v>-1.2999999999999972</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="Z9" s="73">
+      <c r="Z9" s="76">
         <v>24</v>
       </c>
-      <c r="AA9" s="73" t="s">
+      <c r="AA9" s="76" t="s">
         <v>13</v>
       </c>
       <c r="AB9" s="16">
@@ -5127,15 +5119,15 @@
         <v>-1.2999999999999972</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="C10" s="73">
+      <c r="C10" s="76">
         <v>27</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="76" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="13">
@@ -5155,11 +5147,10 @@
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="20">
+        <v>28</v>
+      </c>
+      <c r="L10" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="L10" s="21" t="str">
-        <f t="shared" si="5"/>
         <v>PG</v>
       </c>
       <c r="M10" s="13">
@@ -5183,13 +5174,13 @@
         <v>2.9000000000000021</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="Z10" s="73">
+      <c r="Z10" s="76">
         <v>24</v>
       </c>
-      <c r="AA10" s="73" t="s">
+      <c r="AA10" s="76" t="s">
         <v>13</v>
       </c>
       <c r="AB10" s="13">
@@ -5237,15 +5228,15 @@
         <v>-1.0000000000000071</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="C11" s="73">
+      <c r="C11" s="76">
         <v>28</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="76" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="13">
@@ -5265,11 +5256,10 @@
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="20">
+        <v>29</v>
+      </c>
+      <c r="L11" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="L11" s="21" t="str">
-        <f t="shared" si="5"/>
         <v>PG</v>
       </c>
       <c r="M11" s="13">
@@ -5293,13 +5283,13 @@
         <v>-2.7000000000000028</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="Z11" s="73">
+      <c r="Z11" s="76">
         <v>24</v>
       </c>
-      <c r="AA11" s="73" t="s">
+      <c r="AA11" s="76" t="s">
         <v>15</v>
       </c>
       <c r="AB11" s="13">
@@ -5347,15 +5337,15 @@
         <v>0.59999999999999787</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="C12" s="73">
+      <c r="C12" s="76">
         <v>28</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="76" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="13">
@@ -5375,11 +5365,10 @@
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="20">
+        <v>29</v>
+      </c>
+      <c r="L12" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="L12" s="21" t="str">
-        <f t="shared" si="5"/>
         <v>PG</v>
       </c>
       <c r="M12" s="13">
@@ -5403,13 +5392,13 @@
         <v>-7</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="Z12" s="73">
+      <c r="Z12" s="76">
         <v>24</v>
       </c>
-      <c r="AA12" s="73" t="s">
+      <c r="AA12" s="76" t="s">
         <v>15</v>
       </c>
       <c r="AB12" s="13">
@@ -5457,15 +5446,15 @@
         <v>-6.0999999999999979</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="C13" s="73">
+      <c r="C13" s="76">
         <v>24</v>
       </c>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="76" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="13">
@@ -5485,11 +5474,10 @@
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="20">
+        <v>25</v>
+      </c>
+      <c r="L13" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="L13" s="21" t="str">
-        <f t="shared" si="5"/>
         <v>PG</v>
       </c>
       <c r="M13" s="13">
@@ -5516,13 +5504,13 @@
         <v>17</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="Z13" s="73">
+      <c r="Z13" s="76">
         <v>24</v>
       </c>
-      <c r="AA13" s="73" t="s">
+      <c r="AA13" s="76" t="s">
         <v>16</v>
       </c>
       <c r="AB13" s="13">
@@ -5570,9 +5558,9 @@
         <v>-3.6999999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="C14" s="45">
@@ -5598,11 +5586,10 @@
       </c>
       <c r="J14" s="48"/>
       <c r="K14" s="49">
+        <v>27</v>
+      </c>
+      <c r="L14" s="50" t="str">
         <f t="shared" si="4"/>
-        <v>27</v>
-      </c>
-      <c r="L14" s="50" t="str">
-        <f t="shared" si="5"/>
         <v>PG</v>
       </c>
       <c r="M14" s="46">
@@ -5631,13 +5618,13 @@
         <v>-0.40000000000000213</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="Z14" s="73">
+      <c r="Z14" s="76">
         <v>24</v>
       </c>
-      <c r="AA14" s="73" t="s">
+      <c r="AA14" s="76" t="s">
         <v>16</v>
       </c>
       <c r="AB14" s="13">
@@ -5685,9 +5672,9 @@
         <v>-1.1000000000000014</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="C15" s="24">
@@ -5713,11 +5700,10 @@
       </c>
       <c r="J15" s="27"/>
       <c r="K15" s="28">
+        <v>24</v>
+      </c>
+      <c r="L15" s="29" t="str">
         <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="L15" s="29" t="str">
-        <f t="shared" si="5"/>
         <v>SG</v>
       </c>
       <c r="M15" s="42">
@@ -5741,13 +5727,13 @@
         <v>1.3999999999999986</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="Z15" s="73">
+      <c r="Z15" s="76">
         <v>24</v>
       </c>
-      <c r="AA15" s="73" t="s">
+      <c r="AA15" s="76" t="s">
         <v>16</v>
       </c>
       <c r="AB15" s="13">
@@ -5795,15 +5781,15 @@
         <v>7.6999999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="C16" s="73">
+      <c r="C16" s="76">
         <v>30</v>
       </c>
-      <c r="D16" s="73" t="s">
+      <c r="D16" s="76" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="13">
@@ -5823,11 +5809,10 @@
       </c>
       <c r="J16" s="14"/>
       <c r="K16" s="20">
+        <v>31</v>
+      </c>
+      <c r="L16" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>31</v>
-      </c>
-      <c r="L16" s="21" t="str">
-        <f t="shared" si="5"/>
         <v>SG</v>
       </c>
       <c r="M16" s="13">
@@ -5851,13 +5836,13 @@
         <v>1.6999999999999993</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="Z16" s="73">
+      <c r="Z16" s="76">
         <v>24</v>
       </c>
-      <c r="AA16" s="73" t="s">
+      <c r="AA16" s="76" t="s">
         <v>18</v>
       </c>
       <c r="AB16" s="13">
@@ -5908,15 +5893,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="C17" s="73">
+      <c r="C17" s="76">
         <v>31</v>
       </c>
-      <c r="D17" s="73" t="s">
+      <c r="D17" s="76" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="13">
@@ -5936,11 +5921,10 @@
       </c>
       <c r="J17" s="14"/>
       <c r="K17" s="20">
+        <v>32</v>
+      </c>
+      <c r="L17" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
-      <c r="L17" s="21" t="str">
-        <f t="shared" si="5"/>
         <v>SG</v>
       </c>
       <c r="M17" s="13">
@@ -5964,7 +5948,7 @@
         <v>-3.1000000000000014</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="Z17" s="45">
@@ -6023,15 +6007,15 @@
         <v>-1.6714285714285708</v>
       </c>
     </row>
-    <row r="18" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="C18" s="73">
+      <c r="C18" s="76">
         <v>32</v>
       </c>
-      <c r="D18" s="73" t="s">
+      <c r="D18" s="76" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="13">
@@ -6051,11 +6035,10 @@
       </c>
       <c r="J18" s="14"/>
       <c r="K18" s="20">
+        <v>33</v>
+      </c>
+      <c r="L18" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>33</v>
-      </c>
-      <c r="L18" s="21" t="str">
-        <f t="shared" si="5"/>
         <v>SG</v>
       </c>
       <c r="M18" s="13">
@@ -6079,7 +6062,7 @@
         <v>2.6000000000000014</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="Z18" s="24">
@@ -6131,15 +6114,15 @@
         <v>2.7999999999999972</v>
       </c>
     </row>
-    <row r="19" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="C19" s="73">
+      <c r="C19" s="76">
         <v>26</v>
       </c>
-      <c r="D19" s="73" t="s">
+      <c r="D19" s="76" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="13">
@@ -6159,11 +6142,10 @@
       </c>
       <c r="J19" s="14"/>
       <c r="K19" s="20">
+        <v>27</v>
+      </c>
+      <c r="L19" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>27</v>
-      </c>
-      <c r="L19" s="21" t="str">
-        <f t="shared" si="5"/>
         <v>SG</v>
       </c>
       <c r="M19" s="13">
@@ -6187,7 +6169,7 @@
         <v>5.0999999999999979</v>
       </c>
       <c r="Y19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="Z19" s="35">
@@ -6241,15 +6223,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="C20" s="73">
+      <c r="C20" s="76">
         <v>32</v>
       </c>
-      <c r="D20" s="73" t="s">
+      <c r="D20" s="76" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="13">
@@ -6269,11 +6251,10 @@
       </c>
       <c r="J20" s="14"/>
       <c r="K20" s="20">
+        <v>33</v>
+      </c>
+      <c r="L20" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>33</v>
-      </c>
-      <c r="L20" s="21" t="str">
-        <f t="shared" si="5"/>
         <v>SG</v>
       </c>
       <c r="M20" s="13">
@@ -6297,13 +6278,13 @@
         <v>3.7000000000000028</v>
       </c>
       <c r="Y20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="Z20" s="73">
+      <c r="Z20" s="76">
         <v>25</v>
       </c>
-      <c r="AA20" s="73" t="s">
+      <c r="AA20" s="76" t="s">
         <v>15</v>
       </c>
       <c r="AB20" s="13">
@@ -6351,15 +6332,15 @@
       <c r="AQ20" s="10"/>
       <c r="AR20" s="10"/>
     </row>
-    <row r="21" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="C21" s="73">
+      <c r="C21" s="76">
         <v>34</v>
       </c>
-      <c r="D21" s="73" t="s">
+      <c r="D21" s="76" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="13">
@@ -6379,11 +6360,10 @@
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="20">
+        <v>35</v>
+      </c>
+      <c r="L21" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="L21" s="21" t="str">
-        <f t="shared" si="5"/>
         <v>SG</v>
       </c>
       <c r="M21" s="13">
@@ -6407,7 +6387,7 @@
         <v>-3.5</v>
       </c>
       <c r="Y21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="Z21" s="24">
@@ -6433,11 +6413,11 @@
       </c>
       <c r="AG21" s="27"/>
       <c r="AH21" s="28">
-        <f t="shared" ref="AH21:AH58" si="8">Z21+1</f>
+        <f t="shared" ref="AH21:AH58" si="7">Z21+1</f>
         <v>26</v>
       </c>
       <c r="AI21" s="29" t="str">
-        <f t="shared" ref="AI21:AI58" si="9">AA21</f>
+        <f t="shared" ref="AI21:AI58" si="8">AA21</f>
         <v>PF</v>
       </c>
       <c r="AJ21" s="25">
@@ -6461,15 +6441,15 @@
         <v>13.900000000000002</v>
       </c>
     </row>
-    <row r="22" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="C22" s="73">
+      <c r="C22" s="76">
         <v>20</v>
       </c>
-      <c r="D22" s="73" t="s">
+      <c r="D22" s="76" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="13">
@@ -6489,11 +6469,10 @@
       </c>
       <c r="J22" s="14"/>
       <c r="K22" s="20">
+        <v>21</v>
+      </c>
+      <c r="L22" s="21" t="str">
         <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
-      <c r="L22" s="21" t="str">
-        <f t="shared" si="5"/>
         <v>SG</v>
       </c>
       <c r="M22" s="13">
@@ -6520,13 +6499,13 @@
         <v>20</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="Z22" s="73">
+      <c r="Z22" s="76">
         <v>25</v>
       </c>
-      <c r="AA22" s="73" t="s">
+      <c r="AA22" s="76" t="s">
         <v>16</v>
       </c>
       <c r="AB22" s="13">
@@ -6546,11 +6525,11 @@
       </c>
       <c r="AG22" s="14"/>
       <c r="AH22" s="20">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="AI22" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>26</v>
-      </c>
-      <c r="AI22" s="21" t="str">
-        <f t="shared" si="9"/>
         <v>PF</v>
       </c>
       <c r="AJ22" s="13">
@@ -6574,9 +6553,9 @@
         <v>-2.2999999999999972</v>
       </c>
     </row>
-    <row r="23" spans="2:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="C23" s="45">
@@ -6602,11 +6581,10 @@
       </c>
       <c r="J23" s="48"/>
       <c r="K23" s="49">
+        <v>26</v>
+      </c>
+      <c r="L23" s="50" t="str">
         <f t="shared" si="4"/>
-        <v>26</v>
-      </c>
-      <c r="L23" s="50" t="str">
-        <f t="shared" si="5"/>
         <v>SG</v>
       </c>
       <c r="M23" s="46">
@@ -6635,13 +6613,13 @@
         <v>1.6</v>
       </c>
       <c r="Y23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="Z23" s="73">
+      <c r="Z23" s="76">
         <v>26</v>
       </c>
-      <c r="AA23" s="73" t="s">
+      <c r="AA23" s="76" t="s">
         <v>13</v>
       </c>
       <c r="AB23" s="13">
@@ -6661,11 +6639,11 @@
       </c>
       <c r="AG23" s="14"/>
       <c r="AH23" s="20">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="AI23" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>27</v>
-      </c>
-      <c r="AI23" s="21" t="str">
-        <f t="shared" si="9"/>
         <v>PG</v>
       </c>
       <c r="AJ23" s="13">
@@ -6689,9 +6667,9 @@
         <v>3.1999999999999957</v>
       </c>
     </row>
-    <row r="24" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="C24" s="24">
@@ -6743,13 +6721,13 @@
         <v>-4.7999999999999972</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="Z24" s="73">
+      <c r="Z24" s="76">
         <v>26</v>
       </c>
-      <c r="AA24" s="73" t="s">
+      <c r="AA24" s="76" t="s">
         <v>14</v>
       </c>
       <c r="AB24" s="13">
@@ -6769,11 +6747,11 @@
       </c>
       <c r="AG24" s="14"/>
       <c r="AH24" s="20">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="AI24" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>27</v>
-      </c>
-      <c r="AI24" s="21" t="str">
-        <f t="shared" si="9"/>
         <v>SG</v>
       </c>
       <c r="AJ24" s="13">
@@ -6797,15 +6775,15 @@
         <v>5.0999999999999979</v>
       </c>
     </row>
-    <row r="25" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="C25" s="73">
+      <c r="C25" s="76">
         <v>27</v>
       </c>
-      <c r="D25" s="73" t="s">
+      <c r="D25" s="76" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="13">
@@ -6825,11 +6803,10 @@
       </c>
       <c r="J25" s="14"/>
       <c r="K25" s="20">
-        <f t="shared" ref="K25:K40" si="10">C25+1</f>
         <v>28</v>
       </c>
       <c r="L25" s="21" t="str">
-        <f t="shared" ref="L25:L40" si="11">D25</f>
+        <f t="shared" ref="L25:L40" si="9">D25</f>
         <v>SF</v>
       </c>
       <c r="M25" s="16">
@@ -6853,13 +6830,13 @@
         <v>-2.6999999999999886</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="Z25" s="73">
+      <c r="Z25" s="76">
         <v>26</v>
       </c>
-      <c r="AA25" s="73" t="s">
+      <c r="AA25" s="76" t="s">
         <v>15</v>
       </c>
       <c r="AB25" s="13">
@@ -6879,11 +6856,11 @@
       </c>
       <c r="AG25" s="14"/>
       <c r="AH25" s="20">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="AI25" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>27</v>
-      </c>
-      <c r="AI25" s="21" t="str">
-        <f t="shared" si="9"/>
         <v>SF</v>
       </c>
       <c r="AJ25" s="13">
@@ -6907,15 +6884,15 @@
         <v>-3.6000000000000014</v>
       </c>
     </row>
-    <row r="26" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="C26" s="73">
+      <c r="C26" s="76">
         <v>24</v>
       </c>
-      <c r="D26" s="73" t="s">
+      <c r="D26" s="76" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="13">
@@ -6935,11 +6912,10 @@
       </c>
       <c r="J26" s="14"/>
       <c r="K26" s="20">
-        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="L26" s="21" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>SF</v>
       </c>
       <c r="M26" s="16">
@@ -6963,13 +6939,13 @@
         <v>0.59999999999999787</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
-      <c r="Z26" s="73">
+      <c r="Z26" s="76">
         <v>26</v>
       </c>
-      <c r="AA26" s="73" t="s">
+      <c r="AA26" s="76" t="s">
         <v>15</v>
       </c>
       <c r="AB26" s="13">
@@ -6989,11 +6965,11 @@
       </c>
       <c r="AG26" s="14"/>
       <c r="AH26" s="20">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="AI26" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>27</v>
-      </c>
-      <c r="AI26" s="21" t="str">
-        <f t="shared" si="9"/>
         <v>SF</v>
       </c>
       <c r="AJ26" s="13">
@@ -7017,15 +6993,15 @@
         <v>-2.1999999999999957</v>
       </c>
     </row>
-    <row r="27" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="C27" s="73">
+      <c r="C27" s="76">
         <v>23</v>
       </c>
-      <c r="D27" s="73" t="s">
+      <c r="D27" s="76" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="13">
@@ -7045,11 +7021,10 @@
       </c>
       <c r="J27" s="14"/>
       <c r="K27" s="20">
-        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="L27" s="21" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>SF</v>
       </c>
       <c r="M27" s="13">
@@ -7073,13 +7048,13 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="Y27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="Z27" s="73">
+      <c r="Z27" s="76">
         <v>26</v>
       </c>
-      <c r="AA27" s="73" t="s">
+      <c r="AA27" s="76" t="s">
         <v>15</v>
       </c>
       <c r="AB27" s="13">
@@ -7099,11 +7074,11 @@
       </c>
       <c r="AG27" s="14"/>
       <c r="AH27" s="20">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="AI27" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>27</v>
-      </c>
-      <c r="AI27" s="21" t="str">
-        <f t="shared" si="9"/>
         <v>SF</v>
       </c>
       <c r="AJ27" s="13">
@@ -7127,15 +7102,15 @@
         <v>3.2000000000000028</v>
       </c>
     </row>
-    <row r="28" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="C28" s="73">
+      <c r="C28" s="76">
         <v>24</v>
       </c>
-      <c r="D28" s="73" t="s">
+      <c r="D28" s="76" t="s">
         <v>15</v>
       </c>
       <c r="E28" s="13">
@@ -7155,11 +7130,10 @@
       </c>
       <c r="J28" s="14"/>
       <c r="K28" s="20">
-        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="L28" s="21" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>SF</v>
       </c>
       <c r="M28" s="13">
@@ -7183,13 +7157,13 @@
         <v>-6.0999999999999979</v>
       </c>
       <c r="Y28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="Z28" s="73">
+      <c r="Z28" s="76">
         <v>26</v>
       </c>
-      <c r="AA28" s="73" t="s">
+      <c r="AA28" s="76" t="s">
         <v>18</v>
       </c>
       <c r="AB28" s="13">
@@ -7209,11 +7183,11 @@
       </c>
       <c r="AG28" s="14"/>
       <c r="AH28" s="20">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="AI28" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>27</v>
-      </c>
-      <c r="AI28" s="21" t="str">
-        <f t="shared" si="9"/>
         <v>C</v>
       </c>
       <c r="AJ28" s="13">
@@ -7237,15 +7211,15 @@
         <v>-6.1999999999999957</v>
       </c>
     </row>
-    <row r="29" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="C29" s="73">
+      <c r="C29" s="76">
         <v>26</v>
       </c>
-      <c r="D29" s="73" t="s">
+      <c r="D29" s="76" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="13">
@@ -7265,11 +7239,10 @@
       </c>
       <c r="J29" s="14"/>
       <c r="K29" s="20">
-        <f t="shared" si="10"/>
         <v>27</v>
       </c>
       <c r="L29" s="21" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>SF</v>
       </c>
       <c r="M29" s="13">
@@ -7293,13 +7266,13 @@
         <v>-3.6000000000000014</v>
       </c>
       <c r="Y29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="Z29" s="73">
+      <c r="Z29" s="76">
         <v>27</v>
       </c>
-      <c r="AA29" s="73" t="s">
+      <c r="AA29" s="76" t="s">
         <v>13</v>
       </c>
       <c r="AB29" s="13">
@@ -7319,11 +7292,11 @@
       </c>
       <c r="AG29" s="14"/>
       <c r="AH29" s="20">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="AI29" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>28</v>
-      </c>
-      <c r="AI29" s="21" t="str">
-        <f t="shared" si="9"/>
         <v>PG</v>
       </c>
       <c r="AJ29" s="13">
@@ -7347,15 +7320,15 @@
         <v>2.9000000000000021</v>
       </c>
     </row>
-    <row r="30" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="C30" s="73">
+      <c r="C30" s="76">
         <v>28</v>
       </c>
-      <c r="D30" s="73" t="s">
+      <c r="D30" s="76" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="13">
@@ -7375,11 +7348,10 @@
       </c>
       <c r="J30" s="14"/>
       <c r="K30" s="20">
-        <f t="shared" si="10"/>
         <v>29</v>
       </c>
       <c r="L30" s="21" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>SF</v>
       </c>
       <c r="M30" s="13">
@@ -7403,13 +7375,13 @@
         <v>-2</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="Z30" s="73">
+      <c r="Z30" s="76">
         <v>27</v>
       </c>
-      <c r="AA30" s="73" t="s">
+      <c r="AA30" s="76" t="s">
         <v>15</v>
       </c>
       <c r="AB30" s="13">
@@ -7429,11 +7401,11 @@
       </c>
       <c r="AG30" s="14"/>
       <c r="AH30" s="20">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="AI30" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>28</v>
-      </c>
-      <c r="AI30" s="21" t="str">
-        <f t="shared" si="9"/>
         <v>SF</v>
       </c>
       <c r="AJ30" s="16">
@@ -7457,15 +7429,15 @@
         <v>-2.6999999999999886</v>
       </c>
     </row>
-    <row r="31" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="C31" s="73">
+      <c r="C31" s="76">
         <v>26</v>
       </c>
-      <c r="D31" s="73" t="s">
+      <c r="D31" s="76" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="13">
@@ -7485,11 +7457,10 @@
       </c>
       <c r="J31" s="14"/>
       <c r="K31" s="20">
-        <f t="shared" si="10"/>
         <v>27</v>
       </c>
       <c r="L31" s="21" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>SF</v>
       </c>
       <c r="M31" s="13">
@@ -7513,37 +7484,37 @@
         <v>-2.1999999999999957</v>
       </c>
       <c r="Y31">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="Z31" s="76">
+        <v>27</v>
+      </c>
+      <c r="AA31" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB31" s="13">
+        <v>7.3</v>
+      </c>
+      <c r="AC31" s="13">
+        <v>3.3</v>
+      </c>
+      <c r="AD31" s="13">
+        <v>1.8</v>
+      </c>
+      <c r="AE31" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="AF31" s="15">
+        <v>26.6</v>
+      </c>
+      <c r="AG31" s="14"/>
+      <c r="AH31" s="20">
         <f t="shared" si="7"/>
         <v>28</v>
       </c>
-      <c r="Z31" s="73">
-        <v>27</v>
-      </c>
-      <c r="AA31" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB31" s="13">
-        <v>7.3</v>
-      </c>
-      <c r="AC31" s="13">
-        <v>3.3</v>
-      </c>
-      <c r="AD31" s="13">
-        <v>1.8</v>
-      </c>
-      <c r="AE31" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="AF31" s="15">
-        <v>26.6</v>
-      </c>
-      <c r="AG31" s="14"/>
-      <c r="AH31" s="20">
+      <c r="AI31" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>28</v>
-      </c>
-      <c r="AI31" s="21" t="str">
-        <f t="shared" si="9"/>
         <v>SF</v>
       </c>
       <c r="AJ31" s="13">
@@ -7567,15 +7538,15 @@
         <v>2.0999999999999943</v>
       </c>
     </row>
-    <row r="32" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="C32" s="73">
+      <c r="C32" s="76">
         <v>28</v>
       </c>
-      <c r="D32" s="73" t="s">
+      <c r="D32" s="76" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="13">
@@ -7595,11 +7566,10 @@
       </c>
       <c r="J32" s="14"/>
       <c r="K32" s="20">
-        <f t="shared" si="10"/>
         <v>29</v>
       </c>
       <c r="L32" s="21" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>SF</v>
       </c>
       <c r="M32" s="13">
@@ -7623,13 +7593,13 @@
         <v>-10</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="Z32" s="73">
+      <c r="Z32" s="76">
         <v>27</v>
       </c>
-      <c r="AA32" s="73" t="s">
+      <c r="AA32" s="76" t="s">
         <v>15</v>
       </c>
       <c r="AB32" s="13">
@@ -7649,11 +7619,11 @@
       </c>
       <c r="AG32" s="14"/>
       <c r="AH32" s="20">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="AI32" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>28</v>
-      </c>
-      <c r="AI32" s="21" t="str">
-        <f t="shared" si="9"/>
         <v>SF</v>
       </c>
       <c r="AJ32" s="13">
@@ -7677,15 +7647,15 @@
         <v>-3.1000000000000014</v>
       </c>
     </row>
-    <row r="33" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="C33" s="73">
+      <c r="C33" s="76">
         <v>29</v>
       </c>
-      <c r="D33" s="73" t="s">
+      <c r="D33" s="76" t="s">
         <v>15</v>
       </c>
       <c r="E33" s="13">
@@ -7705,11 +7675,10 @@
       </c>
       <c r="J33" s="14"/>
       <c r="K33" s="20">
-        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="L33" s="21" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>SF</v>
       </c>
       <c r="M33" s="13">
@@ -7733,13 +7702,13 @@
         <v>1.7000000000000028</v>
       </c>
       <c r="Y33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="Z33" s="73">
+      <c r="Z33" s="76">
         <v>27</v>
       </c>
-      <c r="AA33" s="73" t="s">
+      <c r="AA33" s="76" t="s">
         <v>16</v>
       </c>
       <c r="AB33" s="13">
@@ -7759,11 +7728,11 @@
       </c>
       <c r="AG33" s="14"/>
       <c r="AH33" s="20">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="AI33" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>28</v>
-      </c>
-      <c r="AI33" s="21" t="str">
-        <f t="shared" si="9"/>
         <v>PF</v>
       </c>
       <c r="AJ33" s="13">
@@ -7787,15 +7756,15 @@
         <v>-7.2999999999999972</v>
       </c>
     </row>
-    <row r="34" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="C34" s="73">
+      <c r="C34" s="76">
         <v>26</v>
       </c>
-      <c r="D34" s="73" t="s">
+      <c r="D34" s="76" t="s">
         <v>15</v>
       </c>
       <c r="E34" s="13">
@@ -7815,11 +7784,10 @@
       </c>
       <c r="J34" s="14"/>
       <c r="K34" s="20">
-        <f t="shared" si="10"/>
         <v>27</v>
       </c>
       <c r="L34" s="21" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>SF</v>
       </c>
       <c r="M34" s="13">
@@ -7843,13 +7811,13 @@
         <v>3.2000000000000028</v>
       </c>
       <c r="Y34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
-      <c r="Z34" s="73">
+      <c r="Z34" s="76">
         <v>27</v>
       </c>
-      <c r="AA34" s="73" t="s">
+      <c r="AA34" s="76" t="s">
         <v>18</v>
       </c>
       <c r="AB34" s="13">
@@ -7869,11 +7837,11 @@
       </c>
       <c r="AG34" s="14"/>
       <c r="AH34" s="20">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="AI34" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>28</v>
-      </c>
-      <c r="AI34" s="21" t="str">
-        <f t="shared" si="9"/>
         <v>C</v>
       </c>
       <c r="AJ34" s="13">
@@ -7897,15 +7865,15 @@
         <v>8.6999999999999957</v>
       </c>
     </row>
-    <row r="35" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="C35" s="73">
+      <c r="C35" s="76">
         <v>27</v>
       </c>
-      <c r="D35" s="73" t="s">
+      <c r="D35" s="76" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="13">
@@ -7925,11 +7893,10 @@
       </c>
       <c r="J35" s="14"/>
       <c r="K35" s="20">
-        <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="L35" s="21" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>SF</v>
       </c>
       <c r="M35" s="13">
@@ -7953,13 +7920,13 @@
         <v>2.0999999999999943</v>
       </c>
       <c r="Y35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
-      <c r="Z35" s="73">
+      <c r="Z35" s="76">
         <v>27</v>
       </c>
-      <c r="AA35" s="73" t="s">
+      <c r="AA35" s="76" t="s">
         <v>18</v>
       </c>
       <c r="AB35" s="13">
@@ -7979,11 +7946,11 @@
       </c>
       <c r="AG35" s="14"/>
       <c r="AH35" s="20">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="AI35" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>28</v>
-      </c>
-      <c r="AI35" s="21" t="str">
-        <f t="shared" si="9"/>
         <v>C</v>
       </c>
       <c r="AJ35" s="13">
@@ -8007,69 +7974,68 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B36">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="C36" s="76">
+        <v>29</v>
+      </c>
+      <c r="D36" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F36" s="13">
+        <v>2</v>
+      </c>
+      <c r="G36" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="H36" s="13">
+        <v>0</v>
+      </c>
+      <c r="I36" s="15">
+        <v>18</v>
+      </c>
+      <c r="J36" s="14"/>
+      <c r="K36" s="20">
+        <v>30</v>
+      </c>
+      <c r="L36" s="21" t="str">
+        <f t="shared" si="9"/>
+        <v>SF</v>
+      </c>
+      <c r="M36" s="13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N36" s="13">
+        <v>2.1</v>
+      </c>
+      <c r="O36" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="P36" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Q36" s="15">
+        <v>20.2</v>
+      </c>
+      <c r="R36" s="6"/>
+      <c r="S36" s="22">
+        <f t="shared" ref="S36:S63" si="10">(SUM(M36:Q36)-SUM(E36:I36))</f>
+        <v>2</v>
+      </c>
+      <c r="Y36">
         <f t="shared" si="6"/>
         <v>33</v>
       </c>
-      <c r="C36" s="73">
-        <v>29</v>
-      </c>
-      <c r="D36" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="13">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F36" s="13">
-        <v>2</v>
-      </c>
-      <c r="G36" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="H36" s="13">
-        <v>0</v>
-      </c>
-      <c r="I36" s="15">
-        <v>18</v>
-      </c>
-      <c r="J36" s="14"/>
-      <c r="K36" s="20">
-        <f t="shared" si="10"/>
-        <v>30</v>
-      </c>
-      <c r="L36" s="21" t="str">
-        <f t="shared" si="11"/>
-        <v>SF</v>
-      </c>
-      <c r="M36" s="13">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="N36" s="13">
-        <v>2.1</v>
-      </c>
-      <c r="O36" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="P36" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="Q36" s="15">
-        <v>20.2</v>
-      </c>
-      <c r="R36" s="6"/>
-      <c r="S36" s="22">
-        <f t="shared" ref="S36:S63" si="12">(SUM(M36:Q36)-SUM(E36:I36))</f>
-        <v>2</v>
-      </c>
-      <c r="Y36">
-        <f t="shared" si="7"/>
-        <v>33</v>
-      </c>
-      <c r="Z36" s="73">
+      <c r="Z36" s="76">
         <v>28</v>
       </c>
-      <c r="AA36" s="73" t="s">
+      <c r="AA36" s="76" t="s">
         <v>13</v>
       </c>
       <c r="AB36" s="13">
@@ -8089,11 +8055,11 @@
       </c>
       <c r="AG36" s="14"/>
       <c r="AH36" s="20">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+      <c r="AI36" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>29</v>
-      </c>
-      <c r="AI36" s="21" t="str">
-        <f t="shared" si="9"/>
         <v>PG</v>
       </c>
       <c r="AJ36" s="13">
@@ -8113,73 +8079,72 @@
       </c>
       <c r="AO36" s="6"/>
       <c r="AP36" s="22">
-        <f t="shared" ref="AP36:AP63" si="13">(SUM(AJ36:AN36)-SUM(AB36:AF36))</f>
+        <f t="shared" ref="AP36:AP63" si="11">(SUM(AJ36:AN36)-SUM(AB36:AF36))</f>
         <v>-2.7000000000000028</v>
       </c>
     </row>
-    <row r="37" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B37">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="C37" s="76">
+        <v>27</v>
+      </c>
+      <c r="D37" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="F37" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="G37" s="13">
+        <v>1.9</v>
+      </c>
+      <c r="H37" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="I37" s="15">
+        <v>23.9</v>
+      </c>
+      <c r="J37" s="14"/>
+      <c r="K37" s="20">
+        <v>28</v>
+      </c>
+      <c r="L37" s="21" t="str">
+        <f t="shared" si="9"/>
+        <v>SF</v>
+      </c>
+      <c r="M37" s="13">
+        <v>5.3</v>
+      </c>
+      <c r="N37" s="13">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="O37" s="13">
+        <v>2</v>
+      </c>
+      <c r="P37" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="Q37" s="15">
+        <v>22.2</v>
+      </c>
+      <c r="R37" s="6"/>
+      <c r="S37" s="22">
+        <f t="shared" si="10"/>
+        <v>-3.1000000000000014</v>
+      </c>
+      <c r="Y37">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
-      <c r="C37" s="73">
-        <v>27</v>
-      </c>
-      <c r="D37" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="13">
-        <v>6.2</v>
-      </c>
-      <c r="F37" s="13">
-        <v>5.5</v>
-      </c>
-      <c r="G37" s="13">
-        <v>1.9</v>
-      </c>
-      <c r="H37" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="I37" s="15">
-        <v>23.9</v>
-      </c>
-      <c r="J37" s="14"/>
-      <c r="K37" s="20">
-        <f t="shared" si="10"/>
+      <c r="Z37" s="76">
         <v>28</v>
       </c>
-      <c r="L37" s="21" t="str">
-        <f t="shared" si="11"/>
-        <v>SF</v>
-      </c>
-      <c r="M37" s="13">
-        <v>5.3</v>
-      </c>
-      <c r="N37" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="O37" s="13">
-        <v>2</v>
-      </c>
-      <c r="P37" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="Q37" s="15">
-        <v>22.2</v>
-      </c>
-      <c r="R37" s="6"/>
-      <c r="S37" s="22">
-        <f t="shared" si="12"/>
-        <v>-3.1000000000000014</v>
-      </c>
-      <c r="Y37">
-        <f t="shared" si="7"/>
-        <v>34</v>
-      </c>
-      <c r="Z37" s="73">
-        <v>28</v>
-      </c>
-      <c r="AA37" s="73" t="s">
+      <c r="AA37" s="76" t="s">
         <v>13</v>
       </c>
       <c r="AB37" s="13">
@@ -8199,11 +8164,11 @@
       </c>
       <c r="AG37" s="14"/>
       <c r="AH37" s="20">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+      <c r="AI37" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>29</v>
-      </c>
-      <c r="AI37" s="21" t="str">
-        <f t="shared" si="9"/>
         <v>PG</v>
       </c>
       <c r="AJ37" s="13">
@@ -8223,73 +8188,72 @@
       </c>
       <c r="AO37" s="6"/>
       <c r="AP37" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-7</v>
       </c>
     </row>
-    <row r="38" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B38">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="C38" s="76">
+        <v>29</v>
+      </c>
+      <c r="D38" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="13">
+        <v>5.3</v>
+      </c>
+      <c r="F38" s="13">
+        <v>4</v>
+      </c>
+      <c r="G38" s="13">
+        <v>1.8</v>
+      </c>
+      <c r="H38" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="I38" s="13">
+        <v>18.2</v>
+      </c>
+      <c r="J38" s="14"/>
+      <c r="K38" s="20">
+        <v>30</v>
+      </c>
+      <c r="L38" s="21" t="str">
+        <f t="shared" si="9"/>
+        <v>SF</v>
+      </c>
+      <c r="M38" s="13">
+        <v>6.7</v>
+      </c>
+      <c r="N38" s="13">
+        <v>6</v>
+      </c>
+      <c r="O38" s="13">
+        <v>1.8</v>
+      </c>
+      <c r="P38" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="Q38" s="15">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="R38" s="6"/>
+      <c r="S38" s="22">
+        <f t="shared" si="10"/>
+        <v>5.1999999999999993</v>
+      </c>
+      <c r="Y38">
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="C38" s="73">
-        <v>29</v>
-      </c>
-      <c r="D38" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="13">
-        <v>5.3</v>
-      </c>
-      <c r="F38" s="13">
-        <v>4</v>
-      </c>
-      <c r="G38" s="13">
-        <v>1.8</v>
-      </c>
-      <c r="H38" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="I38" s="13">
-        <v>18.2</v>
-      </c>
-      <c r="J38" s="14"/>
-      <c r="K38" s="20">
-        <f t="shared" si="10"/>
-        <v>30</v>
-      </c>
-      <c r="L38" s="21" t="str">
-        <f t="shared" si="11"/>
-        <v>SF</v>
-      </c>
-      <c r="M38" s="13">
-        <v>6.7</v>
-      </c>
-      <c r="N38" s="13">
-        <v>6</v>
-      </c>
-      <c r="O38" s="13">
-        <v>1.8</v>
-      </c>
-      <c r="P38" s="13">
-        <v>0.6</v>
-      </c>
-      <c r="Q38" s="15">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="R38" s="6"/>
-      <c r="S38" s="22">
-        <f t="shared" si="12"/>
-        <v>5.1999999999999993</v>
-      </c>
-      <c r="Y38">
-        <f t="shared" si="7"/>
-        <v>35</v>
-      </c>
-      <c r="Z38" s="73">
+      <c r="Z38" s="76">
         <v>28</v>
       </c>
-      <c r="AA38" s="73" t="s">
+      <c r="AA38" s="76" t="s">
         <v>15</v>
       </c>
       <c r="AB38" s="13">
@@ -8309,100 +8273,99 @@
       </c>
       <c r="AG38" s="14"/>
       <c r="AH38" s="20">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+      <c r="AI38" s="21" t="str">
         <f t="shared" si="8"/>
+        <v>SF</v>
+      </c>
+      <c r="AJ38" s="13">
+        <v>5.6</v>
+      </c>
+      <c r="AK38" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="AL38" s="13">
+        <v>1.9</v>
+      </c>
+      <c r="AM38" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="AN38" s="15">
+        <v>12.8</v>
+      </c>
+      <c r="AO38" s="6"/>
+      <c r="AP38" s="22">
+        <f t="shared" si="11"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:44" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="C39" s="76">
+        <v>28</v>
+      </c>
+      <c r="D39" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="13">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F39" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="G39" s="13">
+        <v>1</v>
+      </c>
+      <c r="H39" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="I39" s="13">
+        <v>14.3</v>
+      </c>
+      <c r="J39" s="14"/>
+      <c r="K39" s="20">
         <v>29</v>
       </c>
-      <c r="AI38" s="21" t="str">
+      <c r="L39" s="21" t="str">
         <f t="shared" si="9"/>
         <v>SF</v>
       </c>
-      <c r="AJ38" s="13">
-        <v>5.6</v>
-      </c>
-      <c r="AK38" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="AL38" s="13">
+      <c r="M39" s="13">
+        <v>5.2</v>
+      </c>
+      <c r="N39" s="13">
         <v>1.9</v>
       </c>
-      <c r="AM38" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="AN38" s="15">
-        <v>12.8</v>
-      </c>
-      <c r="AO38" s="6"/>
-      <c r="AP38" s="22">
-        <f t="shared" si="13"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:44" x14ac:dyDescent="0.35">
-      <c r="B39">
+      <c r="O39" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="P39" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="Q39" s="15">
+        <v>14</v>
+      </c>
+      <c r="R39" s="6"/>
+      <c r="S39" s="22">
+        <f t="shared" si="10"/>
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="U39" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y39">
         <f t="shared" si="6"/>
         <v>36</v>
       </c>
-      <c r="C39" s="73">
+      <c r="Z39" s="76">
         <v>28</v>
       </c>
-      <c r="D39" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="13">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="F39" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="G39" s="13">
-        <v>1</v>
-      </c>
-      <c r="H39" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="I39" s="13">
-        <v>14.3</v>
-      </c>
-      <c r="J39" s="14"/>
-      <c r="K39" s="20">
-        <f t="shared" si="10"/>
-        <v>29</v>
-      </c>
-      <c r="L39" s="21" t="str">
-        <f t="shared" si="11"/>
-        <v>SF</v>
-      </c>
-      <c r="M39" s="13">
-        <v>5.2</v>
-      </c>
-      <c r="N39" s="13">
-        <v>1.9</v>
-      </c>
-      <c r="O39" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="P39" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="Q39" s="15">
-        <v>14</v>
-      </c>
-      <c r="R39" s="6"/>
-      <c r="S39" s="22">
-        <f t="shared" si="12"/>
-        <v>-0.69999999999999929</v>
-      </c>
-      <c r="U39" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y39">
-        <f t="shared" si="7"/>
-        <v>36</v>
-      </c>
-      <c r="Z39" s="73">
-        <v>28</v>
-      </c>
-      <c r="AA39" s="73" t="s">
+      <c r="AA39" s="76" t="s">
         <v>15</v>
       </c>
       <c r="AB39" s="13">
@@ -8422,69 +8385,68 @@
       </c>
       <c r="AG39" s="14"/>
       <c r="AH39" s="20">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+      <c r="AI39" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>29</v>
-      </c>
-      <c r="AI39" s="21" t="str">
+        <v>SF</v>
+      </c>
+      <c r="AJ39" s="13">
+        <v>5.7</v>
+      </c>
+      <c r="AK39" s="13">
+        <v>3.9</v>
+      </c>
+      <c r="AL39" s="13">
+        <v>1.4</v>
+      </c>
+      <c r="AM39" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="AN39" s="15">
+        <v>21.5</v>
+      </c>
+      <c r="AO39" s="6"/>
+      <c r="AP39" s="22">
+        <f t="shared" si="11"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="40" spans="2:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="C40" s="45">
+        <v>30</v>
+      </c>
+      <c r="D40" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="46">
+        <v>6</v>
+      </c>
+      <c r="F40" s="46">
+        <v>1.9</v>
+      </c>
+      <c r="G40" s="46">
+        <v>1</v>
+      </c>
+      <c r="H40" s="46">
+        <v>0.4</v>
+      </c>
+      <c r="I40" s="47">
+        <v>12.3</v>
+      </c>
+      <c r="J40" s="48"/>
+      <c r="K40" s="49">
+        <v>31</v>
+      </c>
+      <c r="L40" s="50" t="str">
         <f t="shared" si="9"/>
         <v>SF</v>
       </c>
-      <c r="AJ39" s="13">
-        <v>5.7</v>
-      </c>
-      <c r="AK39" s="13">
-        <v>3.9</v>
-      </c>
-      <c r="AL39" s="13">
-        <v>1.4</v>
-      </c>
-      <c r="AM39" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="AN39" s="15">
-        <v>21.5</v>
-      </c>
-      <c r="AO39" s="6"/>
-      <c r="AP39" s="22">
-        <f t="shared" si="13"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="40" spans="2:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40">
-        <f t="shared" si="6"/>
-        <v>37</v>
-      </c>
-      <c r="C40" s="45">
-        <v>30</v>
-      </c>
-      <c r="D40" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="46">
-        <v>6</v>
-      </c>
-      <c r="F40" s="46">
-        <v>1.9</v>
-      </c>
-      <c r="G40" s="46">
-        <v>1</v>
-      </c>
-      <c r="H40" s="46">
-        <v>0.4</v>
-      </c>
-      <c r="I40" s="47">
-        <v>12.3</v>
-      </c>
-      <c r="J40" s="48"/>
-      <c r="K40" s="49">
-        <f t="shared" si="10"/>
-        <v>31</v>
-      </c>
-      <c r="L40" s="50" t="str">
-        <f t="shared" si="11"/>
-        <v>SF</v>
-      </c>
       <c r="M40" s="46">
         <v>5.3</v>
       </c>
@@ -8502,7 +8464,7 @@
       </c>
       <c r="R40" s="51"/>
       <c r="S40" s="52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>-6.1000000000000014</v>
       </c>
       <c r="T40" s="53"/>
@@ -8511,13 +8473,13 @@
         <v>-0.98823529411764621</v>
       </c>
       <c r="Y40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
-      <c r="Z40" s="73">
+      <c r="Z40" s="76">
         <v>28</v>
       </c>
-      <c r="AA40" s="73" t="s">
+      <c r="AA40" s="76" t="s">
         <v>15</v>
       </c>
       <c r="AB40" s="13">
@@ -8537,11 +8499,11 @@
       </c>
       <c r="AG40" s="14"/>
       <c r="AH40" s="20">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+      <c r="AI40" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>29</v>
-      </c>
-      <c r="AI40" s="21" t="str">
-        <f t="shared" si="9"/>
         <v>SF</v>
       </c>
       <c r="AJ40" s="13">
@@ -8561,16 +8523,16 @@
       </c>
       <c r="AO40" s="6"/>
       <c r="AP40" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-0.69999999999999929</v>
       </c>
       <c r="AR40" s="41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="2:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="C41" s="24">
@@ -8586,7 +8548,7 @@
         <v>9.1</v>
       </c>
       <c r="G41" s="25">
-        <v>9.1</v>
+        <v>1.5</v>
       </c>
       <c r="H41" s="25">
         <v>0.9</v>
@@ -8618,11 +8580,11 @@
       </c>
       <c r="R41" s="6"/>
       <c r="S41" s="22">
-        <f t="shared" si="12"/>
-        <v>-8.9999999999999929</v>
+        <f t="shared" si="10"/>
+        <v>-1.3999999999999915</v>
       </c>
       <c r="Y41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="Z41" s="45">
@@ -8648,11 +8610,11 @@
       </c>
       <c r="AG41" s="48"/>
       <c r="AH41" s="49">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+      <c r="AI41" s="50" t="str">
         <f t="shared" si="8"/>
-        <v>29</v>
-      </c>
-      <c r="AI41" s="50" t="str">
-        <f t="shared" si="9"/>
         <v>C</v>
       </c>
       <c r="AJ41" s="46">
@@ -8672,7 +8634,7 @@
       </c>
       <c r="AO41" s="51"/>
       <c r="AP41" s="52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1.6999999999999993</v>
       </c>
       <c r="AQ41" s="53"/>
@@ -8681,65 +8643,64 @@
         <v>-0.41666666666666624</v>
       </c>
     </row>
-    <row r="42" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B42">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="C42" s="76">
+        <v>24</v>
+      </c>
+      <c r="D42" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="13">
+        <v>5.2</v>
+      </c>
+      <c r="F42" s="13">
+        <v>1</v>
+      </c>
+      <c r="G42" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="H42" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="I42" s="13">
+        <v>13.6</v>
+      </c>
+      <c r="J42" s="14"/>
+      <c r="K42" s="20">
+        <v>25</v>
+      </c>
+      <c r="L42" s="21" t="str">
+        <f t="shared" ref="L42:L63" si="12">D42</f>
+        <v>PF</v>
+      </c>
+      <c r="M42" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="N42" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="O42" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="P42" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="Q42" s="15">
+        <v>12</v>
+      </c>
+      <c r="R42" s="6"/>
+      <c r="S42" s="22">
+        <f t="shared" si="10"/>
+        <v>-3.6999999999999993</v>
+      </c>
+      <c r="Y42">
         <f t="shared" si="6"/>
         <v>39</v>
       </c>
-      <c r="C42" s="73">
-        <v>24</v>
-      </c>
-      <c r="D42" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="13">
-        <v>5.2</v>
-      </c>
-      <c r="F42" s="13">
-        <v>1</v>
-      </c>
-      <c r="G42" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="H42" s="13">
-        <v>1.3</v>
-      </c>
-      <c r="I42" s="13">
-        <v>13.6</v>
-      </c>
-      <c r="J42" s="14"/>
-      <c r="K42" s="20">
-        <f t="shared" ref="K42:K63" si="14">C42+1</f>
-        <v>25</v>
-      </c>
-      <c r="L42" s="21" t="str">
-        <f t="shared" ref="L42:L63" si="15">D42</f>
-        <v>PF</v>
-      </c>
-      <c r="M42" s="13">
-        <v>3.5</v>
-      </c>
-      <c r="N42" s="13">
-        <v>1.2</v>
-      </c>
-      <c r="O42" s="13">
-        <v>0.7</v>
-      </c>
-      <c r="P42" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="Q42" s="15">
-        <v>12</v>
-      </c>
-      <c r="R42" s="6"/>
-      <c r="S42" s="22">
-        <f t="shared" si="12"/>
-        <v>-3.6999999999999993</v>
-      </c>
-      <c r="Y42">
-        <f t="shared" si="7"/>
-        <v>39</v>
-      </c>
       <c r="Z42" s="24">
         <v>29</v>
       </c>
@@ -8763,11 +8724,11 @@
       </c>
       <c r="AG42" s="27"/>
       <c r="AH42" s="28">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="AI42" s="29" t="str">
         <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
-      <c r="AI42" s="29" t="str">
-        <f t="shared" si="9"/>
         <v>SF</v>
       </c>
       <c r="AJ42" s="25">
@@ -8787,73 +8748,72 @@
       </c>
       <c r="AO42" s="6"/>
       <c r="AP42" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1.7000000000000028</v>
       </c>
     </row>
-    <row r="43" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B43">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="C43" s="76">
+        <v>25</v>
+      </c>
+      <c r="D43" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="F43" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="G43" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="H43" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="I43" s="13">
+        <v>12</v>
+      </c>
+      <c r="J43" s="14"/>
+      <c r="K43" s="20">
+        <v>26</v>
+      </c>
+      <c r="L43" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>PF</v>
+      </c>
+      <c r="M43" s="13">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="N43" s="13">
+        <v>2.8</v>
+      </c>
+      <c r="O43" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="P43" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q43" s="15">
+        <v>22.6</v>
+      </c>
+      <c r="R43" s="6"/>
+      <c r="S43" s="22">
+        <f t="shared" si="10"/>
+        <v>13.900000000000002</v>
+      </c>
+      <c r="Y43">
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
-      <c r="C43" s="73">
-        <v>25</v>
-      </c>
-      <c r="D43" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="13">
-        <v>3.5</v>
-      </c>
-      <c r="F43" s="13">
-        <v>1.2</v>
-      </c>
-      <c r="G43" s="13">
-        <v>0.7</v>
-      </c>
-      <c r="H43" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="I43" s="13">
-        <v>12</v>
-      </c>
-      <c r="J43" s="14"/>
-      <c r="K43" s="20">
-        <f t="shared" si="14"/>
-        <v>26</v>
-      </c>
-      <c r="L43" s="21" t="str">
-        <f t="shared" si="15"/>
-        <v>PF</v>
-      </c>
-      <c r="M43" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="N43" s="13">
-        <v>2.8</v>
-      </c>
-      <c r="O43" s="13">
-        <v>0.7</v>
-      </c>
-      <c r="P43" s="13">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Q43" s="15">
-        <v>22.6</v>
-      </c>
-      <c r="R43" s="6"/>
-      <c r="S43" s="22">
-        <f t="shared" si="12"/>
-        <v>13.900000000000002</v>
-      </c>
-      <c r="Y43">
-        <f t="shared" si="7"/>
-        <v>40</v>
-      </c>
-      <c r="Z43" s="73">
+      <c r="Z43" s="76">
         <v>29</v>
       </c>
-      <c r="AA43" s="73" t="s">
+      <c r="AA43" s="76" t="s">
         <v>15</v>
       </c>
       <c r="AB43" s="13">
@@ -8873,11 +8833,11 @@
       </c>
       <c r="AG43" s="14"/>
       <c r="AH43" s="20">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="AI43" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
-      <c r="AI43" s="21" t="str">
-        <f t="shared" si="9"/>
         <v>SF</v>
       </c>
       <c r="AJ43" s="13">
@@ -8897,73 +8857,72 @@
       </c>
       <c r="AO43" s="6"/>
       <c r="AP43" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B44">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="C44" s="76">
+        <v>23</v>
+      </c>
+      <c r="D44" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="13">
+        <v>8</v>
+      </c>
+      <c r="F44" s="13">
+        <v>2.6</v>
+      </c>
+      <c r="G44" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="H44" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="I44" s="13">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="J44" s="14"/>
+      <c r="K44" s="20">
+        <v>24</v>
+      </c>
+      <c r="L44" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>PF</v>
+      </c>
+      <c r="M44" s="13">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="N44" s="13">
+        <v>3.1</v>
+      </c>
+      <c r="O44" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="P44" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="Q44" s="15">
+        <v>21.4</v>
+      </c>
+      <c r="R44" s="6"/>
+      <c r="S44" s="22">
+        <f t="shared" si="10"/>
+        <v>6.7999999999999972</v>
+      </c>
+      <c r="Y44">
         <f t="shared" si="6"/>
         <v>41</v>
       </c>
-      <c r="C44" s="73">
-        <v>23</v>
-      </c>
-      <c r="D44" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44" s="13">
-        <v>8</v>
-      </c>
-      <c r="F44" s="13">
-        <v>2.6</v>
-      </c>
-      <c r="G44" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="H44" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="I44" s="13">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="J44" s="14"/>
-      <c r="K44" s="20">
-        <f t="shared" si="14"/>
-        <v>24</v>
-      </c>
-      <c r="L44" s="21" t="str">
-        <f t="shared" si="15"/>
-        <v>PF</v>
-      </c>
-      <c r="M44" s="13">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="N44" s="13">
-        <v>3.1</v>
-      </c>
-      <c r="O44" s="13">
-        <v>0.7</v>
-      </c>
-      <c r="P44" s="13">
-        <v>0.6</v>
-      </c>
-      <c r="Q44" s="15">
-        <v>21.4</v>
-      </c>
-      <c r="R44" s="6"/>
-      <c r="S44" s="22">
-        <f t="shared" si="12"/>
-        <v>6.7999999999999972</v>
-      </c>
-      <c r="Y44">
-        <f t="shared" si="7"/>
-        <v>41</v>
-      </c>
-      <c r="Z44" s="73">
+      <c r="Z44" s="76">
         <v>29</v>
       </c>
-      <c r="AA44" s="73" t="s">
+      <c r="AA44" s="76" t="s">
         <v>15</v>
       </c>
       <c r="AB44" s="13">
@@ -8983,11 +8942,11 @@
       </c>
       <c r="AG44" s="14"/>
       <c r="AH44" s="20">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="AI44" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
-      <c r="AI44" s="21" t="str">
-        <f t="shared" si="9"/>
         <v>SF</v>
       </c>
       <c r="AJ44" s="13">
@@ -9007,73 +8966,72 @@
       </c>
       <c r="AO44" s="6"/>
       <c r="AP44" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>5.1999999999999993</v>
       </c>
     </row>
-    <row r="45" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B45">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="C45" s="76">
+        <v>24</v>
+      </c>
+      <c r="D45" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="13">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F45" s="13">
+        <v>3.1</v>
+      </c>
+      <c r="G45" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="H45" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="I45" s="13">
+        <v>21.4</v>
+      </c>
+      <c r="J45" s="14"/>
+      <c r="K45" s="20">
+        <v>25</v>
+      </c>
+      <c r="L45" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>PF</v>
+      </c>
+      <c r="M45" s="13">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="N45" s="13">
+        <v>3.1</v>
+      </c>
+      <c r="O45" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="P45" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="Q45" s="15">
+        <v>19.5</v>
+      </c>
+      <c r="R45" s="6"/>
+      <c r="S45" s="22">
+        <f t="shared" si="10"/>
+        <v>-1.1000000000000014</v>
+      </c>
+      <c r="Y45">
         <f t="shared" si="6"/>
         <v>42</v>
       </c>
-      <c r="C45" s="73">
-        <v>24</v>
-      </c>
-      <c r="D45" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="13">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F45" s="13">
-        <v>3.1</v>
-      </c>
-      <c r="G45" s="13">
-        <v>0.7</v>
-      </c>
-      <c r="H45" s="13">
-        <v>0.6</v>
-      </c>
-      <c r="I45" s="13">
-        <v>21.4</v>
-      </c>
-      <c r="J45" s="14"/>
-      <c r="K45" s="20">
-        <f t="shared" si="14"/>
-        <v>25</v>
-      </c>
-      <c r="L45" s="21" t="str">
-        <f t="shared" si="15"/>
-        <v>PF</v>
-      </c>
-      <c r="M45" s="13">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="N45" s="13">
-        <v>3.1</v>
-      </c>
-      <c r="O45" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="P45" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="Q45" s="15">
-        <v>19.5</v>
-      </c>
-      <c r="R45" s="6"/>
-      <c r="S45" s="22">
-        <f t="shared" si="12"/>
-        <v>-1.1000000000000014</v>
-      </c>
-      <c r="Y45">
-        <f t="shared" si="7"/>
-        <v>42</v>
-      </c>
-      <c r="Z45" s="73">
+      <c r="Z45" s="76">
         <v>29</v>
       </c>
-      <c r="AA45" s="73" t="s">
+      <c r="AA45" s="76" t="s">
         <v>16</v>
       </c>
       <c r="AB45" s="13">
@@ -9093,11 +9051,11 @@
       </c>
       <c r="AG45" s="14"/>
       <c r="AH45" s="20">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="AI45" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
-      <c r="AI45" s="21" t="str">
-        <f t="shared" si="9"/>
         <v>PF</v>
       </c>
       <c r="AJ45" s="13">
@@ -9117,73 +9075,72 @@
       </c>
       <c r="AO45" s="6"/>
       <c r="AP45" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>5.4999999999999964</v>
       </c>
     </row>
-    <row r="46" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B46">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="C46" s="76">
+        <v>29</v>
+      </c>
+      <c r="D46" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F46" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="G46" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="H46" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="I46" s="13">
+        <v>6.8</v>
+      </c>
+      <c r="J46" s="14"/>
+      <c r="K46" s="20">
+        <v>30</v>
+      </c>
+      <c r="L46" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>PF</v>
+      </c>
+      <c r="M46" s="13">
+        <v>5.8</v>
+      </c>
+      <c r="N46" s="13">
+        <v>1.9</v>
+      </c>
+      <c r="O46" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="P46" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="Q46" s="15">
+        <v>9.6</v>
+      </c>
+      <c r="R46" s="6"/>
+      <c r="S46" s="22">
+        <f t="shared" si="10"/>
+        <v>5.4999999999999964</v>
+      </c>
+      <c r="Y46">
         <f t="shared" si="6"/>
         <v>43</v>
       </c>
-      <c r="C46" s="73">
+      <c r="Z46" s="76">
         <v>29</v>
       </c>
-      <c r="D46" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46" s="13">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F46" s="13">
-        <v>1.3</v>
-      </c>
-      <c r="G46" s="13">
-        <v>0.7</v>
-      </c>
-      <c r="H46" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="I46" s="13">
-        <v>6.8</v>
-      </c>
-      <c r="J46" s="14"/>
-      <c r="K46" s="20">
-        <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="L46" s="21" t="str">
-        <f t="shared" si="15"/>
-        <v>PF</v>
-      </c>
-      <c r="M46" s="13">
-        <v>5.8</v>
-      </c>
-      <c r="N46" s="13">
-        <v>1.9</v>
-      </c>
-      <c r="O46" s="13">
-        <v>0.7</v>
-      </c>
-      <c r="P46" s="13">
-        <v>0.7</v>
-      </c>
-      <c r="Q46" s="15">
-        <v>9.6</v>
-      </c>
-      <c r="R46" s="6"/>
-      <c r="S46" s="22">
-        <f t="shared" si="12"/>
-        <v>5.4999999999999964</v>
-      </c>
-      <c r="Y46">
-        <f t="shared" si="7"/>
-        <v>43</v>
-      </c>
-      <c r="Z46" s="73">
-        <v>29</v>
-      </c>
-      <c r="AA46" s="73" t="s">
+      <c r="AA46" s="76" t="s">
         <v>18</v>
       </c>
       <c r="AB46" s="13">
@@ -9203,11 +9160,11 @@
       </c>
       <c r="AG46" s="14"/>
       <c r="AH46" s="20">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="AI46" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
-      <c r="AI46" s="21" t="str">
-        <f t="shared" si="9"/>
         <v>C</v>
       </c>
       <c r="AJ46" s="13">
@@ -9227,73 +9184,72 @@
       </c>
       <c r="AO46" s="6"/>
       <c r="AP46" s="44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-9.9999999999997868E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B47">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="C47" s="76">
+        <v>30</v>
+      </c>
+      <c r="D47" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="13">
+        <v>6.1</v>
+      </c>
+      <c r="F47" s="13">
+        <v>2.6</v>
+      </c>
+      <c r="G47" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="I47" s="13">
+        <v>19.8</v>
+      </c>
+      <c r="J47" s="14"/>
+      <c r="K47" s="20">
+        <v>31</v>
+      </c>
+      <c r="L47" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>PF</v>
+      </c>
+      <c r="M47" s="13">
+        <v>5.2</v>
+      </c>
+      <c r="N47" s="13">
+        <v>1.9</v>
+      </c>
+      <c r="O47" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="P47" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="Q47" s="15">
+        <v>18.7</v>
+      </c>
+      <c r="R47" s="6"/>
+      <c r="S47" s="22">
+        <f t="shared" si="10"/>
+        <v>-2.9000000000000021</v>
+      </c>
+      <c r="Y47">
         <f t="shared" si="6"/>
         <v>44</v>
       </c>
-      <c r="C47" s="73">
-        <v>30</v>
-      </c>
-      <c r="D47" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="E47" s="13">
-        <v>6.1</v>
-      </c>
-      <c r="F47" s="13">
-        <v>2.6</v>
-      </c>
-      <c r="G47" s="13">
-        <v>0.7</v>
-      </c>
-      <c r="H47" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="I47" s="13">
-        <v>19.8</v>
-      </c>
-      <c r="J47" s="14"/>
-      <c r="K47" s="20">
-        <f t="shared" si="14"/>
-        <v>31</v>
-      </c>
-      <c r="L47" s="21" t="str">
-        <f t="shared" si="15"/>
-        <v>PF</v>
-      </c>
-      <c r="M47" s="13">
-        <v>5.2</v>
-      </c>
-      <c r="N47" s="13">
-        <v>1.9</v>
-      </c>
-      <c r="O47" s="13">
-        <v>0.7</v>
-      </c>
-      <c r="P47" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="Q47" s="15">
-        <v>18.7</v>
-      </c>
-      <c r="R47" s="6"/>
-      <c r="S47" s="22">
-        <f t="shared" si="12"/>
-        <v>-2.9000000000000021</v>
-      </c>
-      <c r="Y47">
-        <f t="shared" si="7"/>
-        <v>44</v>
-      </c>
-      <c r="Z47" s="73">
+      <c r="Z47" s="76">
         <v>29</v>
       </c>
-      <c r="AA47" s="73" t="s">
+      <c r="AA47" s="76" t="s">
         <v>18</v>
       </c>
       <c r="AB47" s="13">
@@ -9313,11 +9269,11 @@
       </c>
       <c r="AG47" s="14"/>
       <c r="AH47" s="20">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="AI47" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
-      <c r="AI47" s="21" t="str">
-        <f t="shared" si="9"/>
         <v>C</v>
       </c>
       <c r="AJ47" s="13">
@@ -9337,73 +9293,72 @@
       </c>
       <c r="AO47" s="6"/>
       <c r="AP47" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-9.3000000000000007</v>
       </c>
     </row>
-    <row r="48" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B48">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="C48" s="76">
+        <v>31</v>
+      </c>
+      <c r="D48" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="13">
+        <v>5.2</v>
+      </c>
+      <c r="F48" s="13">
+        <v>1.9</v>
+      </c>
+      <c r="G48" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="H48" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="I48" s="13">
+        <v>18.7</v>
+      </c>
+      <c r="J48" s="14"/>
+      <c r="K48" s="20">
+        <v>32</v>
+      </c>
+      <c r="L48" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>PF</v>
+      </c>
+      <c r="M48" s="13">
+        <v>3.7</v>
+      </c>
+      <c r="N48" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="O48" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="P48" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="Q48" s="15">
+        <v>12.8</v>
+      </c>
+      <c r="R48" s="6"/>
+      <c r="S48" s="22">
+        <f t="shared" si="10"/>
+        <v>-7.7999999999999972</v>
+      </c>
+      <c r="Y48">
         <f t="shared" si="6"/>
         <v>45</v>
       </c>
-      <c r="C48" s="73">
-        <v>31</v>
-      </c>
-      <c r="D48" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" s="13">
-        <v>5.2</v>
-      </c>
-      <c r="F48" s="13">
-        <v>1.9</v>
-      </c>
-      <c r="G48" s="13">
-        <v>0.7</v>
-      </c>
-      <c r="H48" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="I48" s="13">
-        <v>18.7</v>
-      </c>
-      <c r="J48" s="14"/>
-      <c r="K48" s="20">
-        <f t="shared" si="14"/>
-        <v>32</v>
-      </c>
-      <c r="L48" s="21" t="str">
-        <f t="shared" si="15"/>
-        <v>PF</v>
-      </c>
-      <c r="M48" s="13">
-        <v>3.7</v>
-      </c>
-      <c r="N48" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="O48" s="13">
-        <v>0.6</v>
-      </c>
-      <c r="P48" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="Q48" s="15">
-        <v>12.8</v>
-      </c>
-      <c r="R48" s="6"/>
-      <c r="S48" s="22">
-        <f t="shared" si="12"/>
-        <v>-7.7999999999999972</v>
-      </c>
-      <c r="Y48">
-        <f t="shared" si="7"/>
-        <v>45</v>
-      </c>
-      <c r="Z48" s="73">
+      <c r="Z48" s="76">
         <v>30</v>
       </c>
-      <c r="AA48" s="73" t="s">
+      <c r="AA48" s="76" t="s">
         <v>14</v>
       </c>
       <c r="AB48" s="13">
@@ -9423,11 +9378,11 @@
       </c>
       <c r="AG48" s="14"/>
       <c r="AH48" s="20">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="AI48" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>31</v>
-      </c>
-      <c r="AI48" s="21" t="str">
-        <f t="shared" si="9"/>
         <v>SG</v>
       </c>
       <c r="AJ48" s="13">
@@ -9447,73 +9402,72 @@
       </c>
       <c r="AO48" s="6"/>
       <c r="AP48" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1.6999999999999993</v>
       </c>
     </row>
-    <row r="49" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B49">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+      <c r="C49" s="76">
+        <v>27</v>
+      </c>
+      <c r="D49" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="13">
+        <v>9</v>
+      </c>
+      <c r="F49" s="13">
+        <v>1.8</v>
+      </c>
+      <c r="G49" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="H49" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="I49" s="13">
+        <v>15.1</v>
+      </c>
+      <c r="J49" s="14"/>
+      <c r="K49" s="20">
+        <v>28</v>
+      </c>
+      <c r="L49" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>PF</v>
+      </c>
+      <c r="M49" s="13">
+        <v>6.1</v>
+      </c>
+      <c r="N49" s="13">
+        <v>1.6</v>
+      </c>
+      <c r="O49" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="P49" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="Q49" s="15">
+        <v>11</v>
+      </c>
+      <c r="R49" s="6"/>
+      <c r="S49" s="22">
+        <f t="shared" si="10"/>
+        <v>-7.2999999999999972</v>
+      </c>
+      <c r="Y49">
         <f t="shared" si="6"/>
         <v>46</v>
       </c>
-      <c r="C49" s="73">
-        <v>27</v>
-      </c>
-      <c r="D49" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="E49" s="13">
-        <v>9</v>
-      </c>
-      <c r="F49" s="13">
-        <v>1.8</v>
-      </c>
-      <c r="G49" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="H49" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="I49" s="13">
-        <v>15.1</v>
-      </c>
-      <c r="J49" s="14"/>
-      <c r="K49" s="20">
-        <f t="shared" si="14"/>
-        <v>28</v>
-      </c>
-      <c r="L49" s="21" t="str">
-        <f t="shared" si="15"/>
-        <v>PF</v>
-      </c>
-      <c r="M49" s="13">
-        <v>6.1</v>
-      </c>
-      <c r="N49" s="13">
-        <v>1.6</v>
-      </c>
-      <c r="O49" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="P49" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="Q49" s="15">
-        <v>11</v>
-      </c>
-      <c r="R49" s="6"/>
-      <c r="S49" s="22">
-        <f t="shared" si="12"/>
-        <v>-7.2999999999999972</v>
-      </c>
-      <c r="Y49">
-        <f t="shared" si="7"/>
-        <v>46</v>
-      </c>
-      <c r="Z49" s="73">
+      <c r="Z49" s="76">
         <v>30</v>
       </c>
-      <c r="AA49" s="73" t="s">
+      <c r="AA49" s="76" t="s">
         <v>15</v>
       </c>
       <c r="AB49" s="13">
@@ -9533,11 +9487,11 @@
       </c>
       <c r="AG49" s="14"/>
       <c r="AH49" s="20">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="AI49" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>31</v>
-      </c>
-      <c r="AI49" s="21" t="str">
-        <f t="shared" si="9"/>
         <v>SF</v>
       </c>
       <c r="AJ49" s="13">
@@ -9557,73 +9511,72 @@
       </c>
       <c r="AO49" s="6"/>
       <c r="AP49" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-6.1000000000000014</v>
       </c>
     </row>
-    <row r="50" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B50">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+      <c r="C50" s="76">
+        <v>30</v>
+      </c>
+      <c r="D50" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="F50" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="G50" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="H50" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="I50" s="13">
+        <v>12.6</v>
+      </c>
+      <c r="J50" s="14"/>
+      <c r="K50" s="20">
+        <v>31</v>
+      </c>
+      <c r="L50" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>PF</v>
+      </c>
+      <c r="M50" s="13">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="N50" s="13">
+        <v>1.8</v>
+      </c>
+      <c r="O50" s="13">
+        <v>1.4</v>
+      </c>
+      <c r="P50" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="Q50" s="15">
+        <v>10.3</v>
+      </c>
+      <c r="R50" s="6"/>
+      <c r="S50" s="22">
+        <f t="shared" si="10"/>
+        <v>-4.6999999999999993</v>
+      </c>
+      <c r="Y50">
         <f t="shared" si="6"/>
         <v>47</v>
       </c>
-      <c r="C50" s="73">
+      <c r="Z50" s="76">
         <v>30</v>
       </c>
-      <c r="D50" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50" s="13">
-        <v>6.5</v>
-      </c>
-      <c r="F50" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="G50" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="H50" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="I50" s="13">
-        <v>12.6</v>
-      </c>
-      <c r="J50" s="14"/>
-      <c r="K50" s="20">
-        <f t="shared" si="14"/>
-        <v>31</v>
-      </c>
-      <c r="L50" s="21" t="str">
-        <f t="shared" si="15"/>
-        <v>PF</v>
-      </c>
-      <c r="M50" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="N50" s="13">
-        <v>1.8</v>
-      </c>
-      <c r="O50" s="13">
-        <v>1.4</v>
-      </c>
-      <c r="P50" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="Q50" s="15">
-        <v>10.3</v>
-      </c>
-      <c r="R50" s="6"/>
-      <c r="S50" s="22">
-        <f t="shared" si="12"/>
-        <v>-4.6999999999999993</v>
-      </c>
-      <c r="Y50">
-        <f t="shared" si="7"/>
-        <v>47</v>
-      </c>
-      <c r="Z50" s="73">
-        <v>30</v>
-      </c>
-      <c r="AA50" s="73" t="s">
+      <c r="AA50" s="76" t="s">
         <v>16</v>
       </c>
       <c r="AB50" s="13">
@@ -9643,11 +9596,11 @@
       </c>
       <c r="AG50" s="14"/>
       <c r="AH50" s="20">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="AI50" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>31</v>
-      </c>
-      <c r="AI50" s="21" t="str">
-        <f t="shared" si="9"/>
         <v>PF</v>
       </c>
       <c r="AJ50" s="13">
@@ -9667,76 +9620,75 @@
       </c>
       <c r="AO50" s="6"/>
       <c r="AP50" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-2.9000000000000021</v>
       </c>
     </row>
-    <row r="51" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B51">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="C51" s="76">
+        <v>24</v>
+      </c>
+      <c r="D51" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F51" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="G51" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="H51" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="I51" s="15">
+        <v>5.7</v>
+      </c>
+      <c r="J51" s="14"/>
+      <c r="K51" s="20">
+        <v>25</v>
+      </c>
+      <c r="L51" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>PF</v>
+      </c>
+      <c r="M51" s="13">
+        <v>7.6</v>
+      </c>
+      <c r="N51" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="O51" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="P51" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="Q51" s="15">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="R51" s="6"/>
+      <c r="S51" s="22">
+        <f t="shared" si="10"/>
+        <v>7.6999999999999993</v>
+      </c>
+      <c r="U51" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y51">
         <f t="shared" si="6"/>
         <v>48</v>
       </c>
-      <c r="C51" s="73">
-        <v>24</v>
-      </c>
-      <c r="D51" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" s="13">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F51" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="G51" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="H51" s="13">
-        <v>0.7</v>
-      </c>
-      <c r="I51" s="15">
-        <v>5.7</v>
-      </c>
-      <c r="J51" s="14"/>
-      <c r="K51" s="20">
-        <f t="shared" si="14"/>
-        <v>25</v>
-      </c>
-      <c r="L51" s="21" t="str">
-        <f t="shared" si="15"/>
-        <v>PF</v>
-      </c>
-      <c r="M51" s="13">
-        <v>7.6</v>
-      </c>
-      <c r="N51" s="13">
-        <v>1.2</v>
-      </c>
-      <c r="O51" s="13">
-        <v>0.6</v>
-      </c>
-      <c r="P51" s="13">
-        <v>1.2</v>
-      </c>
-      <c r="Q51" s="15">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="R51" s="6"/>
-      <c r="S51" s="22">
-        <f t="shared" si="12"/>
-        <v>7.6999999999999993</v>
-      </c>
-      <c r="U51" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y51">
-        <f t="shared" si="7"/>
-        <v>48</v>
-      </c>
-      <c r="Z51" s="73">
+      <c r="Z51" s="76">
         <v>30</v>
       </c>
-      <c r="AA51" s="73" t="s">
+      <c r="AA51" s="76" t="s">
         <v>16</v>
       </c>
       <c r="AB51" s="13">
@@ -9756,11 +9708,11 @@
       </c>
       <c r="AG51" s="14"/>
       <c r="AH51" s="20">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="AI51" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>31</v>
-      </c>
-      <c r="AI51" s="21" t="str">
-        <f t="shared" si="9"/>
         <v>PF</v>
       </c>
       <c r="AJ51" s="13">
@@ -9780,13 +9732,13 @@
       </c>
       <c r="AO51" s="6"/>
       <c r="AP51" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-4.6999999999999993</v>
       </c>
     </row>
-    <row r="52" spans="2:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="C52" s="45">
@@ -9812,11 +9764,10 @@
       </c>
       <c r="J52" s="48"/>
       <c r="K52" s="49">
-        <f t="shared" si="14"/>
         <v>26</v>
       </c>
       <c r="L52" s="50" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>PF</v>
       </c>
       <c r="M52" s="46">
@@ -9836,22 +9787,22 @@
       </c>
       <c r="R52" s="51"/>
       <c r="S52" s="52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>-2.2999999999999972</v>
       </c>
       <c r="T52" s="53"/>
       <c r="U52" s="54">
         <f>AVERAGE(S41:S52)</f>
-        <v>-0.4083333333333326</v>
+        <v>0.22500000000000084</v>
       </c>
       <c r="Y52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
-      <c r="Z52" s="73">
+      <c r="Z52" s="76">
         <v>31</v>
       </c>
-      <c r="AA52" s="73" t="s">
+      <c r="AA52" s="76" t="s">
         <v>13</v>
       </c>
       <c r="AB52" s="13">
@@ -9871,11 +9822,11 @@
       </c>
       <c r="AG52" s="14"/>
       <c r="AH52" s="20">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="AI52" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="AI52" s="21" t="str">
-        <f t="shared" si="9"/>
         <v>PG</v>
       </c>
       <c r="AJ52" s="13">
@@ -9895,73 +9846,72 @@
       </c>
       <c r="AO52" s="6"/>
       <c r="AP52" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-0.60000000000000853</v>
       </c>
     </row>
-    <row r="53" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B53">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="C53" s="24">
+        <v>24</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="25">
+        <v>7.5</v>
+      </c>
+      <c r="F53" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G53" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="H53" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="I53" s="26">
+        <v>8.5</v>
+      </c>
+      <c r="J53" s="27"/>
+      <c r="K53" s="28">
+        <v>25</v>
+      </c>
+      <c r="L53" s="29" t="str">
+        <f t="shared" si="12"/>
+        <v>C</v>
+      </c>
+      <c r="M53" s="25">
+        <v>5.5</v>
+      </c>
+      <c r="N53" s="25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O53" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="P53" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="Q53" s="26">
+        <v>11.1</v>
+      </c>
+      <c r="R53" s="6"/>
+      <c r="S53" s="22">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="Y53">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="C53" s="24">
-        <v>24</v>
-      </c>
-      <c r="D53" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="25">
-        <v>7.5</v>
-      </c>
-      <c r="F53" s="25">
-        <v>1.2</v>
-      </c>
-      <c r="G53" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="H53" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="I53" s="26">
-        <v>8.5</v>
-      </c>
-      <c r="J53" s="27"/>
-      <c r="K53" s="28">
-        <f t="shared" si="14"/>
-        <v>25</v>
-      </c>
-      <c r="L53" s="29" t="str">
-        <f t="shared" si="15"/>
-        <v>C</v>
-      </c>
-      <c r="M53" s="25">
-        <v>5.5</v>
-      </c>
-      <c r="N53" s="25">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O53" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="P53" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="Q53" s="26">
-        <v>11.1</v>
-      </c>
-      <c r="R53" s="6"/>
-      <c r="S53" s="22">
-        <f t="shared" si="12"/>
-        <v>0.5</v>
-      </c>
-      <c r="Y53">
-        <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="Z53" s="73">
+      <c r="Z53" s="76">
         <v>31</v>
       </c>
-      <c r="AA53" s="73" t="s">
+      <c r="AA53" s="76" t="s">
         <v>14</v>
       </c>
       <c r="AB53" s="13">
@@ -9981,11 +9931,11 @@
       </c>
       <c r="AG53" s="14"/>
       <c r="AH53" s="20">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="AI53" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="AI53" s="21" t="str">
-        <f t="shared" si="9"/>
         <v>SG</v>
       </c>
       <c r="AJ53" s="13">
@@ -10005,73 +9955,72 @@
       </c>
       <c r="AO53" s="6"/>
       <c r="AP53" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-3.1000000000000014</v>
       </c>
     </row>
-    <row r="54" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B54">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="C54" s="76">
+        <v>29</v>
+      </c>
+      <c r="D54" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="13">
+        <v>7.3</v>
+      </c>
+      <c r="F54" s="13">
+        <v>3.2</v>
+      </c>
+      <c r="G54" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="H54" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="I54" s="13">
+        <v>15.2</v>
+      </c>
+      <c r="J54" s="14"/>
+      <c r="K54" s="20">
+        <v>30</v>
+      </c>
+      <c r="L54" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>C</v>
+      </c>
+      <c r="M54" s="13">
+        <v>6.8</v>
+      </c>
+      <c r="N54" s="13">
+        <v>5</v>
+      </c>
+      <c r="O54" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="P54" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="Q54" s="15">
+        <v>14</v>
+      </c>
+      <c r="R54" s="6"/>
+      <c r="S54" s="22">
+        <f t="shared" si="10"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="Y54">
         <f t="shared" si="6"/>
         <v>51</v>
       </c>
-      <c r="C54" s="73">
-        <v>29</v>
-      </c>
-      <c r="D54" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="13">
-        <v>7.3</v>
-      </c>
-      <c r="F54" s="13">
-        <v>3.2</v>
-      </c>
-      <c r="G54" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="H54" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="I54" s="13">
-        <v>15.2</v>
-      </c>
-      <c r="J54" s="14"/>
-      <c r="K54" s="20">
-        <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="L54" s="21" t="str">
-        <f t="shared" si="15"/>
-        <v>C</v>
-      </c>
-      <c r="M54" s="13">
-        <v>6.8</v>
-      </c>
-      <c r="N54" s="13">
-        <v>5</v>
-      </c>
-      <c r="O54" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="P54" s="13">
-        <v>1.3</v>
-      </c>
-      <c r="Q54" s="15">
-        <v>14</v>
-      </c>
-      <c r="R54" s="6"/>
-      <c r="S54" s="22">
-        <f t="shared" si="12"/>
-        <v>-9.9999999999997868E-2</v>
-      </c>
-      <c r="Y54">
-        <f t="shared" si="7"/>
-        <v>51</v>
-      </c>
-      <c r="Z54" s="73">
+      <c r="Z54" s="76">
         <v>31</v>
       </c>
-      <c r="AA54" s="73" t="s">
+      <c r="AA54" s="76" t="s">
         <v>16</v>
       </c>
       <c r="AB54" s="13">
@@ -10091,11 +10040,11 @@
       </c>
       <c r="AG54" s="14"/>
       <c r="AH54" s="20">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="AI54" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="AI54" s="21" t="str">
-        <f t="shared" si="9"/>
         <v>PF</v>
       </c>
       <c r="AJ54" s="13">
@@ -10115,73 +10064,72 @@
       </c>
       <c r="AO54" s="6"/>
       <c r="AP54" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-7.7999999999999972</v>
       </c>
     </row>
-    <row r="55" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B55">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="C55" s="76">
+        <v>32</v>
+      </c>
+      <c r="D55" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="13">
+        <v>6.7</v>
+      </c>
+      <c r="F55" s="13">
+        <v>4.2</v>
+      </c>
+      <c r="G55" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="H55" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="I55" s="13">
+        <v>13.6</v>
+      </c>
+      <c r="J55" s="14"/>
+      <c r="K55" s="20">
+        <v>33</v>
+      </c>
+      <c r="L55" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>C</v>
+      </c>
+      <c r="M55" s="13">
+        <v>6.8</v>
+      </c>
+      <c r="N55" s="13">
+        <v>4</v>
+      </c>
+      <c r="O55" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="P55" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="Q55" s="15">
+        <v>11.9</v>
+      </c>
+      <c r="R55" s="6"/>
+      <c r="S55" s="22">
+        <f t="shared" si="10"/>
+        <v>-2.3000000000000007</v>
+      </c>
+      <c r="Y55">
         <f t="shared" si="6"/>
         <v>52</v>
       </c>
-      <c r="C55" s="73">
+      <c r="Z55" s="76">
         <v>32</v>
       </c>
-      <c r="D55" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" s="13">
-        <v>6.7</v>
-      </c>
-      <c r="F55" s="13">
-        <v>4.2</v>
-      </c>
-      <c r="G55" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="H55" s="13">
-        <v>1.3</v>
-      </c>
-      <c r="I55" s="13">
-        <v>13.6</v>
-      </c>
-      <c r="J55" s="14"/>
-      <c r="K55" s="20">
-        <f t="shared" si="14"/>
-        <v>33</v>
-      </c>
-      <c r="L55" s="21" t="str">
-        <f t="shared" si="15"/>
-        <v>C</v>
-      </c>
-      <c r="M55" s="13">
-        <v>6.8</v>
-      </c>
-      <c r="N55" s="13">
-        <v>4</v>
-      </c>
-      <c r="O55" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="P55" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="Q55" s="15">
-        <v>11.9</v>
-      </c>
-      <c r="R55" s="6"/>
-      <c r="S55" s="22">
-        <f t="shared" si="12"/>
-        <v>-2.3000000000000007</v>
-      </c>
-      <c r="Y55">
-        <f t="shared" si="7"/>
-        <v>52</v>
-      </c>
-      <c r="Z55" s="73">
-        <v>32</v>
-      </c>
-      <c r="AA55" s="73" t="s">
+      <c r="AA55" s="76" t="s">
         <v>14</v>
       </c>
       <c r="AB55" s="13">
@@ -10201,11 +10149,11 @@
       </c>
       <c r="AG55" s="14"/>
       <c r="AH55" s="20">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="AI55" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>33</v>
-      </c>
-      <c r="AI55" s="21" t="str">
-        <f t="shared" si="9"/>
         <v>SG</v>
       </c>
       <c r="AJ55" s="13">
@@ -10225,73 +10173,72 @@
       </c>
       <c r="AO55" s="6"/>
       <c r="AP55" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.6000000000000014</v>
       </c>
     </row>
-    <row r="56" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B56">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="C56" s="76">
+        <v>33</v>
+      </c>
+      <c r="D56" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="13">
+        <v>6.8</v>
+      </c>
+      <c r="F56" s="13">
+        <v>4</v>
+      </c>
+      <c r="G56" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="H56" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="I56" s="13">
+        <v>11.9</v>
+      </c>
+      <c r="J56" s="14"/>
+      <c r="K56" s="20">
+        <v>34</v>
+      </c>
+      <c r="L56" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>C</v>
+      </c>
+      <c r="M56" s="13">
+        <v>5.7</v>
+      </c>
+      <c r="N56" s="13">
+        <v>3.4</v>
+      </c>
+      <c r="O56" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="P56" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="Q56" s="15">
+        <v>14.2</v>
+      </c>
+      <c r="R56" s="6"/>
+      <c r="S56" s="22">
+        <f t="shared" si="10"/>
+        <v>0.69999999999999929</v>
+      </c>
+      <c r="Y56">
         <f t="shared" si="6"/>
         <v>53</v>
       </c>
-      <c r="C56" s="73">
-        <v>33</v>
-      </c>
-      <c r="D56" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="13">
-        <v>6.8</v>
-      </c>
-      <c r="F56" s="13">
-        <v>4</v>
-      </c>
-      <c r="G56" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="H56" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="I56" s="13">
-        <v>11.9</v>
-      </c>
-      <c r="J56" s="14"/>
-      <c r="K56" s="20">
-        <f t="shared" si="14"/>
-        <v>34</v>
-      </c>
-      <c r="L56" s="21" t="str">
-        <f t="shared" si="15"/>
-        <v>C</v>
-      </c>
-      <c r="M56" s="13">
-        <v>5.7</v>
-      </c>
-      <c r="N56" s="13">
-        <v>3.4</v>
-      </c>
-      <c r="O56" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="P56" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="Q56" s="15">
-        <v>14.2</v>
-      </c>
-      <c r="R56" s="6"/>
-      <c r="S56" s="22">
-        <f t="shared" si="12"/>
-        <v>0.69999999999999929</v>
-      </c>
-      <c r="Y56">
-        <f t="shared" si="7"/>
-        <v>53</v>
-      </c>
-      <c r="Z56" s="73">
+      <c r="Z56" s="76">
         <v>32</v>
       </c>
-      <c r="AA56" s="73" t="s">
+      <c r="AA56" s="76" t="s">
         <v>14</v>
       </c>
       <c r="AB56" s="13">
@@ -10311,11 +10258,11 @@
       </c>
       <c r="AG56" s="14"/>
       <c r="AH56" s="20">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="AI56" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>33</v>
-      </c>
-      <c r="AI56" s="21" t="str">
-        <f t="shared" si="9"/>
         <v>SG</v>
       </c>
       <c r="AJ56" s="13">
@@ -10335,73 +10282,72 @@
       </c>
       <c r="AO56" s="6"/>
       <c r="AP56" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3.7000000000000028</v>
       </c>
     </row>
-    <row r="57" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B57">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="C57" s="76">
+        <v>24</v>
+      </c>
+      <c r="D57" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="13">
+        <v>6.7</v>
+      </c>
+      <c r="F57" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="G57" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="H57" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="I57" s="13">
+        <v>14.3</v>
+      </c>
+      <c r="J57" s="14"/>
+      <c r="K57" s="20">
+        <v>25</v>
+      </c>
+      <c r="L57" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>C</v>
+      </c>
+      <c r="M57" s="13">
+        <v>11</v>
+      </c>
+      <c r="N57" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="O57" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="P57" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Q57" s="15">
+        <v>14.1</v>
+      </c>
+      <c r="R57" s="6"/>
+      <c r="S57" s="22">
+        <f t="shared" si="10"/>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="Y57">
         <f t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="C57" s="73">
-        <v>24</v>
-      </c>
-      <c r="D57" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="13">
-        <v>6.7</v>
-      </c>
-      <c r="F57" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="G57" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="H57" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="I57" s="13">
-        <v>14.3</v>
-      </c>
-      <c r="J57" s="14"/>
-      <c r="K57" s="20">
-        <f t="shared" si="14"/>
-        <v>25</v>
-      </c>
-      <c r="L57" s="21" t="str">
-        <f t="shared" si="15"/>
-        <v>C</v>
-      </c>
-      <c r="M57" s="13">
-        <v>11</v>
-      </c>
-      <c r="N57" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="O57" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="P57" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="Q57" s="15">
-        <v>14.1</v>
-      </c>
-      <c r="R57" s="6"/>
-      <c r="S57" s="22">
-        <f t="shared" si="12"/>
-        <v>4.8000000000000007</v>
-      </c>
-      <c r="Y57">
-        <f t="shared" si="7"/>
-        <v>54</v>
-      </c>
-      <c r="Z57" s="73">
+      <c r="Z57" s="76">
         <v>32</v>
       </c>
-      <c r="AA57" s="73" t="s">
+      <c r="AA57" s="76" t="s">
         <v>18</v>
       </c>
       <c r="AB57" s="13">
@@ -10421,11 +10367,11 @@
       </c>
       <c r="AG57" s="14"/>
       <c r="AH57" s="20">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="AI57" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>33</v>
-      </c>
-      <c r="AI57" s="21" t="str">
-        <f t="shared" si="9"/>
         <v>C</v>
       </c>
       <c r="AJ57" s="13">
@@ -10445,73 +10391,72 @@
       </c>
       <c r="AO57" s="6"/>
       <c r="AP57" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-2.3000000000000007</v>
       </c>
     </row>
-    <row r="58" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B58">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="C58" s="76">
+        <v>27</v>
+      </c>
+      <c r="D58" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="13">
+        <v>7.4</v>
+      </c>
+      <c r="F58" s="13">
+        <v>1</v>
+      </c>
+      <c r="G58" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="H58" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="I58" s="13">
+        <v>8.1</v>
+      </c>
+      <c r="J58" s="14"/>
+      <c r="K58" s="20">
+        <v>28</v>
+      </c>
+      <c r="L58" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>C</v>
+      </c>
+      <c r="M58" s="13">
+        <v>11.7</v>
+      </c>
+      <c r="N58" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="O58" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="P58" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="Q58" s="15">
+        <v>12.2</v>
+      </c>
+      <c r="R58" s="6"/>
+      <c r="S58" s="22">
+        <f t="shared" si="10"/>
+        <v>8.6999999999999957</v>
+      </c>
+      <c r="Y58">
         <f t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="C58" s="73">
-        <v>27</v>
-      </c>
-      <c r="D58" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="13">
-        <v>7.4</v>
-      </c>
-      <c r="F58" s="13">
-        <v>1</v>
-      </c>
-      <c r="G58" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="H58" s="13">
-        <v>0.7</v>
-      </c>
-      <c r="I58" s="13">
-        <v>8.1</v>
-      </c>
-      <c r="J58" s="14"/>
-      <c r="K58" s="20">
-        <f t="shared" si="14"/>
-        <v>28</v>
-      </c>
-      <c r="L58" s="21" t="str">
-        <f t="shared" si="15"/>
-        <v>C</v>
-      </c>
-      <c r="M58" s="13">
-        <v>11.7</v>
-      </c>
-      <c r="N58" s="13">
-        <v>1.2</v>
-      </c>
-      <c r="O58" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="P58" s="13">
-        <v>0.7</v>
-      </c>
-      <c r="Q58" s="15">
-        <v>12.2</v>
-      </c>
-      <c r="R58" s="6"/>
-      <c r="S58" s="22">
-        <f t="shared" si="12"/>
-        <v>8.6999999999999957</v>
-      </c>
-      <c r="Y58">
-        <f t="shared" si="7"/>
-        <v>55</v>
-      </c>
-      <c r="Z58" s="73">
+      <c r="Z58" s="76">
         <v>33</v>
       </c>
-      <c r="AA58" s="73" t="s">
+      <c r="AA58" s="76" t="s">
         <v>13</v>
       </c>
       <c r="AB58" s="13">
@@ -10531,11 +10476,11 @@
       </c>
       <c r="AG58" s="14"/>
       <c r="AH58" s="20">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="AI58" s="21" t="str">
         <f t="shared" si="8"/>
-        <v>34</v>
-      </c>
-      <c r="AI58" s="21" t="str">
-        <f t="shared" si="9"/>
         <v>PG</v>
       </c>
       <c r="AJ58" s="13">
@@ -10555,73 +10500,72 @@
       </c>
       <c r="AO58" s="6"/>
       <c r="AP58" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.40000000000000213</v>
       </c>
     </row>
-    <row r="59" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B59">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="C59" s="76">
+        <v>33</v>
+      </c>
+      <c r="D59" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="13">
+        <v>6.4</v>
+      </c>
+      <c r="F59" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="G59" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="H59" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="I59" s="13">
+        <v>10.8</v>
+      </c>
+      <c r="J59" s="14"/>
+      <c r="K59" s="20">
+        <v>34</v>
+      </c>
+      <c r="L59" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>C</v>
+      </c>
+      <c r="M59" s="13">
+        <v>4.3</v>
+      </c>
+      <c r="N59" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="O59" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="P59" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Q59" s="15">
+        <v>6.1</v>
+      </c>
+      <c r="R59" s="6"/>
+      <c r="S59" s="22">
+        <f t="shared" si="10"/>
+        <v>-7.7000000000000011</v>
+      </c>
+      <c r="Y59">
         <f t="shared" si="6"/>
         <v>56</v>
       </c>
-      <c r="C59" s="73">
+      <c r="Z59" s="76">
         <v>33</v>
       </c>
-      <c r="D59" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" s="13">
-        <v>6.4</v>
-      </c>
-      <c r="F59" s="13">
-        <v>1.2</v>
-      </c>
-      <c r="G59" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="H59" s="13">
-        <v>0.6</v>
-      </c>
-      <c r="I59" s="13">
-        <v>10.8</v>
-      </c>
-      <c r="J59" s="14"/>
-      <c r="K59" s="20">
-        <f t="shared" si="14"/>
-        <v>34</v>
-      </c>
-      <c r="L59" s="21" t="str">
-        <f t="shared" si="15"/>
-        <v>C</v>
-      </c>
-      <c r="M59" s="13">
-        <v>4.3</v>
-      </c>
-      <c r="N59" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="O59" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="P59" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="Q59" s="15">
-        <v>6.1</v>
-      </c>
-      <c r="R59" s="6"/>
-      <c r="S59" s="22">
-        <f t="shared" si="12"/>
-        <v>-7.7000000000000011</v>
-      </c>
-      <c r="Y59">
-        <f t="shared" si="7"/>
-        <v>56</v>
-      </c>
-      <c r="Z59" s="73">
-        <v>33</v>
-      </c>
-      <c r="AA59" s="73" t="s">
+      <c r="AA59" s="76" t="s">
         <v>16</v>
       </c>
       <c r="AB59" s="13">
@@ -10663,73 +10607,72 @@
       </c>
       <c r="AO59" s="6"/>
       <c r="AP59" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-8.9999999999999929</v>
       </c>
     </row>
-    <row r="60" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B60">
+        <f t="shared" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="C60" s="76">
+        <v>28</v>
+      </c>
+      <c r="D60" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="13">
+        <v>7.4</v>
+      </c>
+      <c r="F60" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G60" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="H60" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="I60" s="13">
+        <v>5.3</v>
+      </c>
+      <c r="J60" s="14"/>
+      <c r="K60" s="20">
+        <v>29</v>
+      </c>
+      <c r="L60" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>C</v>
+      </c>
+      <c r="M60" s="13">
+        <v>8.6</v>
+      </c>
+      <c r="N60" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="O60" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="P60" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="Q60" s="15">
+        <v>5.8</v>
+      </c>
+      <c r="R60" s="6"/>
+      <c r="S60" s="22">
+        <f t="shared" si="10"/>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="Y60">
         <f t="shared" si="6"/>
         <v>57</v>
       </c>
-      <c r="C60" s="73">
-        <v>28</v>
-      </c>
-      <c r="D60" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" s="13">
-        <v>7.4</v>
-      </c>
-      <c r="F60" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G60" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="H60" s="13">
-        <v>0.7</v>
-      </c>
-      <c r="I60" s="13">
-        <v>5.3</v>
-      </c>
-      <c r="J60" s="14"/>
-      <c r="K60" s="20">
-        <f t="shared" si="14"/>
-        <v>29</v>
-      </c>
-      <c r="L60" s="21" t="str">
-        <f t="shared" si="15"/>
-        <v>C</v>
-      </c>
-      <c r="M60" s="13">
-        <v>8.6</v>
-      </c>
-      <c r="N60" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="O60" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="P60" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="Q60" s="15">
-        <v>5.8</v>
-      </c>
-      <c r="R60" s="6"/>
-      <c r="S60" s="22">
-        <f t="shared" si="12"/>
-        <v>1.6999999999999993</v>
-      </c>
-      <c r="Y60">
-        <f t="shared" si="7"/>
-        <v>57</v>
-      </c>
-      <c r="Z60" s="73">
+      <c r="Z60" s="76">
         <v>33</v>
       </c>
-      <c r="AA60" s="73" t="s">
+      <c r="AA60" s="76" t="s">
         <v>18</v>
       </c>
       <c r="AB60" s="13">
@@ -10773,73 +10716,72 @@
       </c>
       <c r="AO60" s="6"/>
       <c r="AP60" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.69999999999999929</v>
       </c>
     </row>
-    <row r="61" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B61">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="C61" s="76">
+        <v>29</v>
+      </c>
+      <c r="D61" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="13">
+        <v>8.6</v>
+      </c>
+      <c r="F61" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="G61" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="H61" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="I61" s="13">
+        <v>5.8</v>
+      </c>
+      <c r="J61" s="14"/>
+      <c r="K61" s="20">
+        <v>30</v>
+      </c>
+      <c r="L61" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>C</v>
+      </c>
+      <c r="M61" s="13">
+        <v>3.8</v>
+      </c>
+      <c r="N61" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="O61" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="P61" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="Q61" s="15">
+        <v>1.8</v>
+      </c>
+      <c r="R61" s="6"/>
+      <c r="S61" s="22">
+        <f t="shared" si="10"/>
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="Y61">
         <f t="shared" si="6"/>
         <v>58</v>
       </c>
-      <c r="C61" s="73">
-        <v>29</v>
-      </c>
-      <c r="D61" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="13">
-        <v>8.6</v>
-      </c>
-      <c r="F61" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="G61" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="H61" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="I61" s="13">
-        <v>5.8</v>
-      </c>
-      <c r="J61" s="14"/>
-      <c r="K61" s="20">
-        <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="L61" s="21" t="str">
-        <f t="shared" si="15"/>
-        <v>C</v>
-      </c>
-      <c r="M61" s="13">
-        <v>3.8</v>
-      </c>
-      <c r="N61" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="O61" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="P61" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="Q61" s="15">
-        <v>1.8</v>
-      </c>
-      <c r="R61" s="6"/>
-      <c r="S61" s="22">
-        <f t="shared" si="12"/>
-        <v>-9.3000000000000007</v>
-      </c>
-      <c r="Y61">
-        <f t="shared" si="7"/>
-        <v>58</v>
-      </c>
-      <c r="Z61" s="73">
+      <c r="Z61" s="76">
         <v>33</v>
       </c>
-      <c r="AA61" s="73" t="s">
+      <c r="AA61" s="76" t="s">
         <v>18</v>
       </c>
       <c r="AB61" s="13">
@@ -10883,76 +10825,75 @@
       </c>
       <c r="AO61" s="6"/>
       <c r="AP61" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-7.7000000000000011</v>
       </c>
     </row>
-    <row r="62" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B62">
+        <f t="shared" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="C62" s="76">
+        <v>26</v>
+      </c>
+      <c r="D62" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="F62" s="13">
+        <v>1.9</v>
+      </c>
+      <c r="G62" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="H62" s="13">
+        <v>2.1</v>
+      </c>
+      <c r="I62" s="13">
+        <v>20.6</v>
+      </c>
+      <c r="J62" s="14"/>
+      <c r="K62" s="20">
+        <v>27</v>
+      </c>
+      <c r="L62" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>C</v>
+      </c>
+      <c r="M62" s="13">
+        <v>12.4</v>
+      </c>
+      <c r="N62" s="13">
+        <v>1.4</v>
+      </c>
+      <c r="O62" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P62" s="13">
+        <v>2.4</v>
+      </c>
+      <c r="Q62" s="15">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="R62" s="6"/>
+      <c r="S62" s="22">
+        <f t="shared" si="10"/>
+        <v>-6.1999999999999957</v>
+      </c>
+      <c r="U62" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y62">
         <f t="shared" si="6"/>
         <v>59</v>
       </c>
-      <c r="C62" s="73">
-        <v>26</v>
-      </c>
-      <c r="D62" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="13">
-        <v>14.5</v>
-      </c>
-      <c r="F62" s="13">
-        <v>1.9</v>
-      </c>
-      <c r="G62" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="H62" s="13">
-        <v>2.1</v>
-      </c>
-      <c r="I62" s="13">
-        <v>20.6</v>
-      </c>
-      <c r="J62" s="14"/>
-      <c r="K62" s="20">
-        <f t="shared" si="14"/>
-        <v>27</v>
-      </c>
-      <c r="L62" s="21" t="str">
-        <f t="shared" si="15"/>
-        <v>C</v>
-      </c>
-      <c r="M62" s="13">
-        <v>12.4</v>
-      </c>
-      <c r="N62" s="13">
-        <v>1.4</v>
-      </c>
-      <c r="O62" s="13">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P62" s="13">
-        <v>2.4</v>
-      </c>
-      <c r="Q62" s="15">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="R62" s="6"/>
-      <c r="S62" s="22">
-        <f t="shared" si="12"/>
-        <v>-6.1999999999999957</v>
-      </c>
-      <c r="U62" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y62">
-        <f t="shared" si="7"/>
-        <v>59</v>
-      </c>
-      <c r="Z62" s="73">
+      <c r="Z62" s="76">
         <v>34</v>
       </c>
-      <c r="AA62" s="73" t="s">
+      <c r="AA62" s="76" t="s">
         <v>13</v>
       </c>
       <c r="AB62" s="13">
@@ -10996,16 +10937,16 @@
       </c>
       <c r="AO62" s="6"/>
       <c r="AP62" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-0.20000000000000284</v>
       </c>
       <c r="AR62" s="41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="2:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="C63" s="45">
@@ -11031,11 +10972,10 @@
       </c>
       <c r="J63" s="48"/>
       <c r="K63" s="49">
-        <f t="shared" si="14"/>
         <v>28</v>
       </c>
       <c r="L63" s="50" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>C</v>
       </c>
       <c r="M63" s="46">
@@ -11055,7 +10995,7 @@
       </c>
       <c r="R63" s="51"/>
       <c r="S63" s="52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="T63" s="53"/>
@@ -11064,7 +11004,7 @@
         <v>-0.79090909090909101</v>
       </c>
       <c r="Y63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="Z63" s="45">
@@ -11114,7 +11054,7 @@
       </c>
       <c r="AO63" s="51"/>
       <c r="AP63" s="52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-3.5</v>
       </c>
       <c r="AQ63" s="53"/>
@@ -11123,7 +11063,7 @@
         <v>-1.5363636363636366</v>
       </c>
     </row>
-    <row r="64" spans="2:44" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:44" x14ac:dyDescent="0.3">
       <c r="C64" s="30" t="s">
         <v>5</v>
       </c>
@@ -11150,7 +11090,7 @@
         <v>5</v>
       </c>
       <c r="L64" s="31" t="str">
-        <f t="shared" ref="L64" si="16">D64</f>
+        <f t="shared" ref="L64" si="13">D64</f>
         <v>POS</v>
       </c>
       <c r="M64" s="31" t="s">
@@ -11198,7 +11138,7 @@
         <v>5</v>
       </c>
       <c r="AI64" s="31" t="str">
-        <f t="shared" ref="AI64" si="17">AA64</f>
+        <f t="shared" ref="AI64" si="14">AA64</f>
         <v>POS</v>
       </c>
       <c r="AJ64" s="31" t="s">
@@ -11221,7 +11161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>26</v>
       </c>
@@ -11232,48 +11172,48 @@
         <v>5.7816666666666645</v>
       </c>
       <c r="F65" s="17">
-        <f t="shared" ref="F65:Q65" si="18">AVERAGE(F4:F63)</f>
+        <f t="shared" ref="F65:Q65" si="15">AVERAGE(F4:F63)</f>
         <v>3.4116666666666662</v>
       </c>
       <c r="G65" s="17">
-        <f t="shared" si="18"/>
-        <v>1.2600000000000005</v>
+        <f t="shared" si="15"/>
+        <v>1.1333333333333333</v>
       </c>
       <c r="H65" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0.58166666666666667</v>
       </c>
       <c r="I65" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>15.58333333333333</v>
       </c>
       <c r="J65" s="14"/>
       <c r="K65" s="17"/>
       <c r="L65" s="17"/>
       <c r="M65" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>5.7416666666666654</v>
       </c>
       <c r="N65" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>3.4650000000000012</v>
       </c>
       <c r="O65" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1.1099999999999999</v>
       </c>
       <c r="P65" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0.55166666666666653</v>
       </c>
       <c r="Q65" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>15.41</v>
       </c>
       <c r="R65" s="11"/>
       <c r="S65" s="1">
-        <f t="shared" ref="S65" si="19">(SUM(M65:Q65)-SUM(E65:I65))</f>
-        <v>-0.33999999999999631</v>
+        <f t="shared" ref="S65" si="16">(SUM(M65:Q65)-SUM(E65:I65))</f>
+        <v>-0.2133333333333276</v>
       </c>
       <c r="Y65" t="s">
         <v>26</v>
@@ -11285,42 +11225,42 @@
         <v>5.7816666666666663</v>
       </c>
       <c r="AC65" s="17">
-        <f t="shared" ref="AC65:AF65" si="20">AVERAGE(AC4:AC63)</f>
+        <f t="shared" ref="AC65:AF65" si="17">AVERAGE(AC4:AC63)</f>
         <v>3.4116666666666662</v>
       </c>
       <c r="AD65" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>1.2600000000000002</v>
       </c>
       <c r="AE65" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0.58166666666666667</v>
       </c>
       <c r="AF65" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>15.583333333333334</v>
       </c>
       <c r="AG65" s="14"/>
       <c r="AH65" s="17"/>
       <c r="AI65" s="17"/>
       <c r="AJ65" s="17">
-        <f t="shared" ref="AJ65:AN65" si="21">AVERAGE(AJ4:AJ63)</f>
+        <f t="shared" ref="AJ65:AN65" si="18">AVERAGE(AJ4:AJ63)</f>
         <v>5.7416666666666654</v>
       </c>
       <c r="AK65" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>3.4650000000000012</v>
       </c>
       <c r="AL65" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>1.1099999999999999</v>
       </c>
       <c r="AM65" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0.55166666666666664</v>
       </c>
       <c r="AN65" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>15.409999999999998</v>
       </c>
       <c r="AO65" s="11"/>
@@ -11329,7 +11269,7 @@
         <v>-0.34000000000000341</v>
       </c>
     </row>
-    <row r="66" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:42" x14ac:dyDescent="0.3">
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
@@ -11348,7 +11288,7 @@
       <c r="R66" s="11"/>
       <c r="S66" s="12"/>
     </row>
-    <row r="67" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:42" x14ac:dyDescent="0.3">
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
@@ -11367,142 +11307,142 @@
       <c r="R67" s="11"/>
       <c r="S67" s="12"/>
     </row>
-    <row r="70" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="B70" s="88" t="s">
+    <row r="70" spans="2:42" x14ac:dyDescent="0.3">
+      <c r="B70" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C70" s="88"/>
-      <c r="D70" s="88"/>
-      <c r="E70" s="88"/>
-      <c r="F70" s="88"/>
-      <c r="G70" s="88"/>
-      <c r="H70" s="88"/>
-      <c r="I70" s="88"/>
-      <c r="J70" s="88"/>
-      <c r="K70" s="88"/>
-      <c r="L70" s="88"/>
-      <c r="M70" s="88"/>
-      <c r="N70" s="88"/>
-      <c r="O70" s="88"/>
-      <c r="P70" s="88"/>
-      <c r="Q70" s="88"/>
-      <c r="R70" s="88"/>
-      <c r="S70" s="88"/>
-      <c r="T70" s="88"/>
-      <c r="U70" s="88"/>
-      <c r="V70" s="88"/>
-    </row>
-    <row r="71" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="B71" s="88"/>
-      <c r="C71" s="88"/>
-      <c r="D71" s="88"/>
-      <c r="E71" s="88"/>
-      <c r="F71" s="88"/>
-      <c r="G71" s="88"/>
-      <c r="H71" s="88"/>
-      <c r="I71" s="88"/>
-      <c r="J71" s="88"/>
-      <c r="K71" s="88"/>
-      <c r="L71" s="88"/>
-      <c r="M71" s="88"/>
-      <c r="N71" s="88"/>
-      <c r="O71" s="88"/>
-      <c r="P71" s="88"/>
-      <c r="Q71" s="88"/>
-      <c r="R71" s="88"/>
-      <c r="S71" s="88"/>
-      <c r="T71" s="88"/>
-      <c r="U71" s="88"/>
-      <c r="V71" s="88"/>
-    </row>
-    <row r="72" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="B72" s="88"/>
-      <c r="C72" s="88"/>
-      <c r="D72" s="88"/>
-      <c r="E72" s="88"/>
-      <c r="F72" s="88"/>
-      <c r="G72" s="88"/>
-      <c r="H72" s="88"/>
-      <c r="I72" s="88"/>
-      <c r="J72" s="88"/>
-      <c r="K72" s="88"/>
-      <c r="L72" s="88"/>
-      <c r="M72" s="88"/>
-      <c r="N72" s="88"/>
-      <c r="O72" s="88"/>
-      <c r="P72" s="88"/>
-      <c r="Q72" s="88"/>
-      <c r="R72" s="88"/>
-      <c r="S72" s="88"/>
-      <c r="T72" s="88"/>
-      <c r="U72" s="88"/>
-      <c r="V72" s="88"/>
-    </row>
-    <row r="73" spans="2:42" x14ac:dyDescent="0.35">
-      <c r="B73" s="88"/>
-      <c r="C73" s="88"/>
-      <c r="D73" s="88"/>
-      <c r="E73" s="88"/>
-      <c r="F73" s="88"/>
-      <c r="G73" s="88"/>
-      <c r="H73" s="88"/>
-      <c r="I73" s="88"/>
-      <c r="J73" s="88"/>
-      <c r="K73" s="88"/>
-      <c r="L73" s="88"/>
-      <c r="M73" s="88"/>
-      <c r="N73" s="88"/>
-      <c r="O73" s="88"/>
-      <c r="P73" s="88"/>
-      <c r="Q73" s="88"/>
-      <c r="R73" s="88"/>
-      <c r="S73" s="88"/>
-      <c r="T73" s="88"/>
-      <c r="U73" s="88"/>
-      <c r="V73" s="88"/>
-    </row>
-    <row r="74" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="C70" s="81"/>
+      <c r="D70" s="81"/>
+      <c r="E70" s="81"/>
+      <c r="F70" s="81"/>
+      <c r="G70" s="81"/>
+      <c r="H70" s="81"/>
+      <c r="I70" s="81"/>
+      <c r="J70" s="81"/>
+      <c r="K70" s="81"/>
+      <c r="L70" s="81"/>
+      <c r="M70" s="81"/>
+      <c r="N70" s="81"/>
+      <c r="O70" s="81"/>
+      <c r="P70" s="81"/>
+      <c r="Q70" s="81"/>
+      <c r="R70" s="81"/>
+      <c r="S70" s="81"/>
+      <c r="T70" s="81"/>
+      <c r="U70" s="81"/>
+      <c r="V70" s="81"/>
+    </row>
+    <row r="71" spans="2:42" x14ac:dyDescent="0.3">
+      <c r="B71" s="81"/>
+      <c r="C71" s="81"/>
+      <c r="D71" s="81"/>
+      <c r="E71" s="81"/>
+      <c r="F71" s="81"/>
+      <c r="G71" s="81"/>
+      <c r="H71" s="81"/>
+      <c r="I71" s="81"/>
+      <c r="J71" s="81"/>
+      <c r="K71" s="81"/>
+      <c r="L71" s="81"/>
+      <c r="M71" s="81"/>
+      <c r="N71" s="81"/>
+      <c r="O71" s="81"/>
+      <c r="P71" s="81"/>
+      <c r="Q71" s="81"/>
+      <c r="R71" s="81"/>
+      <c r="S71" s="81"/>
+      <c r="T71" s="81"/>
+      <c r="U71" s="81"/>
+      <c r="V71" s="81"/>
+    </row>
+    <row r="72" spans="2:42" x14ac:dyDescent="0.3">
+      <c r="B72" s="81"/>
+      <c r="C72" s="81"/>
+      <c r="D72" s="81"/>
+      <c r="E72" s="81"/>
+      <c r="F72" s="81"/>
+      <c r="G72" s="81"/>
+      <c r="H72" s="81"/>
+      <c r="I72" s="81"/>
+      <c r="J72" s="81"/>
+      <c r="K72" s="81"/>
+      <c r="L72" s="81"/>
+      <c r="M72" s="81"/>
+      <c r="N72" s="81"/>
+      <c r="O72" s="81"/>
+      <c r="P72" s="81"/>
+      <c r="Q72" s="81"/>
+      <c r="R72" s="81"/>
+      <c r="S72" s="81"/>
+      <c r="T72" s="81"/>
+      <c r="U72" s="81"/>
+      <c r="V72" s="81"/>
+    </row>
+    <row r="73" spans="2:42" x14ac:dyDescent="0.3">
+      <c r="B73" s="81"/>
+      <c r="C73" s="81"/>
+      <c r="D73" s="81"/>
+      <c r="E73" s="81"/>
+      <c r="F73" s="81"/>
+      <c r="G73" s="81"/>
+      <c r="H73" s="81"/>
+      <c r="I73" s="81"/>
+      <c r="J73" s="81"/>
+      <c r="K73" s="81"/>
+      <c r="L73" s="81"/>
+      <c r="M73" s="81"/>
+      <c r="N73" s="81"/>
+      <c r="O73" s="81"/>
+      <c r="P73" s="81"/>
+      <c r="Q73" s="81"/>
+      <c r="R73" s="81"/>
+      <c r="S73" s="81"/>
+      <c r="T73" s="81"/>
+      <c r="U73" s="81"/>
+      <c r="V73" s="81"/>
+    </row>
+    <row r="74" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B74" s="63"/>
-      <c r="C74" s="81" t="s">
+      <c r="C74" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="D74" s="81"/>
-      <c r="E74" s="81" t="s">
+      <c r="D74" s="84"/>
+      <c r="E74" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="F74" s="81"/>
-      <c r="G74" s="81" t="s">
+      <c r="F74" s="84"/>
+      <c r="G74" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="H74" s="81"/>
-      <c r="I74" s="81" t="s">
+      <c r="H74" s="84"/>
+      <c r="I74" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="J74" s="81"/>
-      <c r="K74" s="81" t="s">
+      <c r="J74" s="84"/>
+      <c r="K74" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="L74" s="81"/>
+      <c r="L74" s="84"/>
       <c r="M74" s="64"/>
-      <c r="N74" s="81" t="s">
+      <c r="N74" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="O74" s="81"/>
-      <c r="P74" s="81" t="s">
+      <c r="O74" s="84"/>
+      <c r="P74" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="Q74" s="81"/>
-      <c r="R74" s="81" t="s">
+      <c r="Q74" s="84"/>
+      <c r="R74" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="S74" s="81"/>
+      <c r="S74" s="84"/>
       <c r="T74" s="65"/>
-      <c r="U74" s="81" t="s">
+      <c r="U74" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="V74" s="81"/>
-    </row>
-    <row r="75" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="V74" s="84"/>
+    </row>
+    <row r="75" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B75" s="62" t="s">
         <v>32</v>
       </c>
@@ -11565,7 +11505,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B76" s="62" t="s">
         <v>7</v>
       </c>
@@ -11643,7 +11583,7 @@
       </c>
       <c r="V76" s="70"/>
     </row>
-    <row r="77" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B77" s="62" t="s">
         <v>8</v>
       </c>
@@ -11721,7 +11661,7 @@
       </c>
       <c r="V77" s="70"/>
     </row>
-    <row r="78" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B78" s="62" t="s">
         <v>9</v>
       </c>
@@ -11751,7 +11691,7 @@
       </c>
       <c r="I78" s="69">
         <f>AVERAGE(G41:G52)</f>
-        <v>1.4833333333333334</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="J78" s="17">
         <f>AVERAGE(O41:O52)</f>
@@ -11799,7 +11739,7 @@
       </c>
       <c r="V78" s="70"/>
     </row>
-    <row r="79" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B79" s="62" t="s">
         <v>10</v>
       </c>
@@ -11877,7 +11817,7 @@
       </c>
       <c r="V79" s="70"/>
     </row>
-    <row r="80" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B80" s="62" t="s">
         <v>11</v>
       </c>
@@ -11955,7 +11895,7 @@
       </c>
       <c r="V80" s="70"/>
     </row>
-    <row r="81" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B81" s="67" t="s">
         <v>31</v>
       </c>
@@ -11964,66 +11904,66 @@
         <v>30.6</v>
       </c>
       <c r="D81" s="56">
-        <f t="shared" ref="D81:S81" si="22">SUM(D76:D80)</f>
+        <f t="shared" ref="D81:S81" si="19">SUM(D76:D80)</f>
         <v>30.200000000000003</v>
       </c>
       <c r="E81" s="56">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>18.644444444444446</v>
       </c>
       <c r="F81" s="56">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>20.244444444444444</v>
       </c>
       <c r="G81" s="56">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>30.652941176470588</v>
       </c>
       <c r="H81" s="56">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>29.676470588235293</v>
       </c>
       <c r="I81" s="56">
-        <f t="shared" si="22"/>
-        <v>25.691666666666663</v>
+        <f t="shared" si="19"/>
+        <v>25.05833333333333</v>
       </c>
       <c r="J81" s="56">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>25.283333333333339</v>
       </c>
       <c r="K81" s="56">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>23.918181818181818</v>
       </c>
       <c r="L81" s="56">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>23.127272727272725</v>
       </c>
       <c r="M81" s="66" t="s">
         <v>31</v>
       </c>
       <c r="N81" s="56">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>22.121428571428574</v>
       </c>
       <c r="O81" s="56">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>23.792857142857141</v>
       </c>
       <c r="P81" s="56">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>30.479166666666668</v>
       </c>
       <c r="Q81" s="56">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>30.0625</v>
       </c>
       <c r="R81" s="56">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>25.268181818181819</v>
       </c>
       <c r="S81" s="56">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>23.731818181818184</v>
       </c>
       <c r="T81" s="43"/>
@@ -12036,388 +11976,193 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="C83" s="74"/>
-      <c r="D83">
-        <f t="shared" ref="D83:S83" si="23">1/D76</f>
-        <v>0.23758099352051837</v>
-      </c>
-      <c r="E83" s="74">
-        <f t="shared" si="23"/>
-        <v>0.30612244897959184</v>
-      </c>
-      <c r="F83">
-        <f t="shared" si="23"/>
-        <v>0.27950310559006208</v>
-      </c>
-      <c r="G83" s="74">
-        <f t="shared" si="23"/>
-        <v>0.16441005802707931</v>
-      </c>
-      <c r="H83">
-        <f t="shared" si="23"/>
-        <v>0.16815034619188923</v>
-      </c>
-      <c r="I83" s="74">
-        <f t="shared" si="23"/>
-        <v>0.1566579634464752</v>
-      </c>
-      <c r="J83">
-        <f t="shared" si="23"/>
-        <v>0.1576872536136662</v>
-      </c>
-      <c r="K83" s="74">
-        <f t="shared" si="23"/>
-        <v>0.11995637949836424</v>
-      </c>
-      <c r="L83">
-        <f t="shared" si="23"/>
-        <v>0.12387387387387386</v>
-      </c>
-      <c r="N83" s="74">
-        <f t="shared" si="23"/>
-        <v>0.19498607242339835</v>
-      </c>
-      <c r="O83">
-        <f t="shared" si="23"/>
-        <v>0.17114914425427877</v>
-      </c>
-      <c r="P83" s="74">
-        <f t="shared" si="23"/>
-        <v>0.15325670498084293</v>
-      </c>
-      <c r="Q83">
-        <f t="shared" si="23"/>
-        <v>0.15554115359688922</v>
-      </c>
-      <c r="R83" s="74">
-        <f t="shared" si="23"/>
-        <v>0.18565400843881855</v>
-      </c>
-      <c r="S83">
-        <f t="shared" si="23"/>
-        <v>0.20295202952029526</v>
-      </c>
-    </row>
-    <row r="84" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="C84" s="74">
-        <f t="shared" ref="C84:L86" si="24">1/C77</f>
-        <v>0.14416775884665792</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="24"/>
-        <v>0.14986376021798364</v>
-      </c>
-      <c r="E84" s="74">
-        <f t="shared" si="24"/>
-        <v>0.51136363636363635</v>
-      </c>
-      <c r="F84">
-        <f t="shared" si="24"/>
-        <v>0.39823008849557523</v>
-      </c>
-      <c r="G84" s="74">
-        <f t="shared" si="24"/>
-        <v>0.27508090614886732</v>
-      </c>
-      <c r="H84">
-        <f t="shared" si="24"/>
-        <v>0.27868852459016397</v>
-      </c>
-      <c r="I84" s="74">
-        <f t="shared" si="24"/>
-        <v>0.41811846689895471</v>
-      </c>
-      <c r="J84">
-        <f t="shared" si="24"/>
-        <v>0.40677966101694912</v>
-      </c>
-      <c r="K84" s="74">
-        <f t="shared" si="24"/>
-        <v>0.54187192118226601</v>
-      </c>
-      <c r="L84">
-        <f t="shared" si="24"/>
-        <v>0.5140186915887851</v>
-      </c>
-      <c r="N84" s="74">
-        <f t="shared" ref="N84:S84" si="25">1/N77</f>
-        <v>0.3783783783783784</v>
-      </c>
-      <c r="O84">
-        <f t="shared" si="25"/>
-        <v>0.35897435897435898</v>
-      </c>
-      <c r="P84" s="74">
-        <f t="shared" si="25"/>
-        <v>0.26030368763557488</v>
-      </c>
-      <c r="Q84">
-        <f t="shared" si="25"/>
-        <v>0.25586353944562901</v>
-      </c>
-      <c r="R84" s="74">
-        <f t="shared" si="25"/>
-        <v>0.29139072847682113</v>
-      </c>
-      <c r="S84">
-        <f t="shared" si="25"/>
-        <v>0.29294274300932088</v>
-      </c>
-    </row>
-    <row r="85" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="C85" s="74">
-        <f t="shared" si="24"/>
-        <v>0.67901234567901247</v>
-      </c>
-      <c r="D85">
-        <f t="shared" si="24"/>
-        <v>0.70063694267515919</v>
-      </c>
-      <c r="E85" s="74">
-        <f t="shared" si="24"/>
-        <v>1.125</v>
-      </c>
-      <c r="F85">
-        <f t="shared" si="24"/>
-        <v>1.046511627906977</v>
-      </c>
-      <c r="G85" s="74">
-        <f t="shared" si="24"/>
-        <v>0.66147859922178986</v>
-      </c>
-      <c r="H85">
-        <f t="shared" si="24"/>
-        <v>0.68273092369477917</v>
-      </c>
-      <c r="I85" s="74">
-        <f t="shared" si="24"/>
-        <v>0.6741573033707865</v>
-      </c>
-      <c r="J85">
-        <f t="shared" si="24"/>
-        <v>1.153846153846154</v>
-      </c>
-      <c r="K85" s="74">
-        <f t="shared" si="24"/>
-        <v>1.3924050632911391</v>
-      </c>
-      <c r="L85">
-        <f t="shared" si="24"/>
-        <v>1.5714285714285712</v>
-      </c>
-      <c r="N85" s="74">
-        <f t="shared" ref="N85:S85" si="26">1/N78</f>
-        <v>1.0606060606060603</v>
-      </c>
-      <c r="O85">
-        <f t="shared" si="26"/>
-        <v>0.99290780141843948</v>
-      </c>
-      <c r="P85" s="74">
-        <f t="shared" si="26"/>
-        <v>0.75471698113207553</v>
-      </c>
-      <c r="Q85">
-        <f t="shared" si="26"/>
-        <v>0.77170418006430874</v>
-      </c>
-      <c r="R85" s="74">
-        <f t="shared" si="26"/>
-        <v>0.71895424836601307</v>
-      </c>
-      <c r="S85">
-        <f t="shared" si="26"/>
-        <v>1.0280373831775702</v>
-      </c>
-    </row>
-    <row r="86" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="C86" s="74">
-        <f t="shared" si="24"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="D86">
-        <f t="shared" si="24"/>
-        <v>3.1428571428571428</v>
-      </c>
-      <c r="E86" s="74">
-        <f t="shared" si="24"/>
-        <v>2.6470588235294112</v>
-      </c>
-      <c r="F86">
-        <f t="shared" si="24"/>
-        <v>2.9999999999999991</v>
-      </c>
-      <c r="G86" s="74">
-        <f t="shared" si="24"/>
-        <v>2.0238095238095237</v>
-      </c>
-      <c r="H86">
-        <f t="shared" si="24"/>
-        <v>1.9540229885057465</v>
-      </c>
-      <c r="I86" s="74">
-        <f t="shared" si="24"/>
-        <v>1.5789473684210527</v>
-      </c>
-      <c r="J86">
-        <f t="shared" si="24"/>
-        <v>1.6438356164383561</v>
-      </c>
-      <c r="K86" s="74">
-        <f t="shared" si="24"/>
-        <v>0.91666666666666652</v>
-      </c>
-      <c r="L86">
-        <f t="shared" si="24"/>
-        <v>1.0377358490566038</v>
-      </c>
-      <c r="N86" s="74">
-        <f t="shared" ref="N86:S86" si="27">1/N79</f>
-        <v>1.8666666666666663</v>
-      </c>
-      <c r="O86">
-        <f t="shared" si="27"/>
-        <v>1.8666666666666667</v>
-      </c>
-      <c r="P86" s="74">
-        <f t="shared" si="27"/>
-        <v>1.4906832298136645</v>
-      </c>
-      <c r="Q86">
-        <f t="shared" si="27"/>
-        <v>1.5686274509803919</v>
-      </c>
-      <c r="R86" s="74">
-        <f t="shared" si="27"/>
-        <v>1.9469026548672566</v>
-      </c>
-      <c r="S86">
-        <f t="shared" si="27"/>
-        <v>2.1359223300970873</v>
-      </c>
-    </row>
-    <row r="87" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="C87" s="74">
-        <f>1/C80</f>
-        <v>5.6410256410256411E-2</v>
-      </c>
-      <c r="D87">
-        <f t="shared" ref="D87:L87" si="28">1/D80</f>
-        <v>5.6906363166063109E-2</v>
-      </c>
-      <c r="E87" s="74">
-        <f t="shared" si="28"/>
-        <v>8.2266910420475306E-2</v>
-      </c>
-      <c r="F87">
-        <f t="shared" si="28"/>
-        <v>7.7720207253886009E-2</v>
-      </c>
-      <c r="G87" s="74">
-        <f t="shared" si="28"/>
-        <v>5.2827843380981974E-2</v>
-      </c>
-      <c r="H87">
-        <f t="shared" si="28"/>
-        <v>5.5051813471502592E-2</v>
-      </c>
-      <c r="I87" s="74">
-        <f t="shared" si="28"/>
-        <v>6.7567567567567585E-2</v>
-      </c>
-      <c r="J87">
-        <f t="shared" si="28"/>
-        <v>6.6629650194336476E-2</v>
-      </c>
-      <c r="K87" s="74">
-        <f t="shared" si="28"/>
-        <v>8.3841463414634151E-2</v>
-      </c>
-      <c r="L87">
-        <f t="shared" si="28"/>
-        <v>8.6887835703001584E-2</v>
-      </c>
-      <c r="N87" s="74">
-        <f t="shared" ref="N87:S87" si="29">1/N80</f>
-        <v>7.7691453940066588E-2</v>
-      </c>
-      <c r="O87">
-        <f t="shared" si="29"/>
-        <v>7.3413738856843214E-2</v>
-      </c>
-      <c r="P87" s="74">
-        <f t="shared" si="29"/>
-        <v>5.5197792088316454E-2</v>
-      </c>
-      <c r="Q87">
-        <f t="shared" si="29"/>
-        <v>5.6206088992974232E-2</v>
-      </c>
-      <c r="R87" s="74">
-        <f t="shared" si="29"/>
-        <v>6.8750000000000006E-2</v>
-      </c>
-      <c r="S87">
-        <f t="shared" si="29"/>
-        <v>7.1684587813620068E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B89" s="87" t="s">
+    <row r="83" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="C83" s="78"/>
+      <c r="D83" s="78"/>
+      <c r="E83" s="78"/>
+      <c r="F83" s="78"/>
+      <c r="G83" s="78"/>
+      <c r="H83" s="78"/>
+      <c r="I83" s="78"/>
+      <c r="J83" s="78"/>
+      <c r="K83" s="78"/>
+      <c r="L83" s="78"/>
+      <c r="M83" s="78"/>
+      <c r="N83" s="78"/>
+      <c r="O83" s="78"/>
+      <c r="P83" s="78"/>
+      <c r="Q83" s="78"/>
+      <c r="R83" s="78"/>
+      <c r="S83" s="78"/>
+    </row>
+    <row r="84" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="C84" s="78"/>
+      <c r="D84" s="78"/>
+      <c r="E84" s="78"/>
+      <c r="F84" s="78"/>
+      <c r="G84" s="78"/>
+      <c r="H84" s="78"/>
+      <c r="I84" s="78"/>
+      <c r="J84" s="78"/>
+      <c r="K84" s="78"/>
+      <c r="L84" s="78"/>
+      <c r="M84" s="78"/>
+      <c r="N84" s="78"/>
+      <c r="O84" s="78"/>
+      <c r="P84" s="78"/>
+      <c r="Q84" s="78"/>
+      <c r="R84" s="78"/>
+      <c r="S84" s="78"/>
+    </row>
+    <row r="85" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="C85" s="78"/>
+      <c r="D85" s="78"/>
+      <c r="E85" s="78"/>
+      <c r="F85" s="78"/>
+      <c r="G85" s="78"/>
+      <c r="H85" s="78"/>
+      <c r="I85" s="78"/>
+      <c r="J85" s="78"/>
+      <c r="K85" s="78"/>
+      <c r="L85" s="78"/>
+      <c r="M85" s="78"/>
+      <c r="N85" s="78"/>
+      <c r="O85" s="78"/>
+      <c r="P85" s="78"/>
+      <c r="Q85" s="78"/>
+      <c r="R85" s="78"/>
+      <c r="S85" s="78"/>
+    </row>
+    <row r="86" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="C86" s="78"/>
+      <c r="D86" s="78"/>
+      <c r="E86" s="78"/>
+      <c r="F86" s="78"/>
+      <c r="G86" s="78"/>
+      <c r="H86" s="78"/>
+      <c r="I86" s="78"/>
+      <c r="J86" s="78"/>
+      <c r="K86" s="78"/>
+      <c r="L86" s="78"/>
+      <c r="M86" s="78"/>
+      <c r="N86" s="78"/>
+      <c r="O86" s="78"/>
+      <c r="P86" s="78"/>
+      <c r="Q86" s="78"/>
+      <c r="R86" s="78"/>
+      <c r="S86" s="78"/>
+    </row>
+    <row r="87" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="C87" s="78"/>
+      <c r="D87" s="78"/>
+      <c r="E87" s="78"/>
+      <c r="F87" s="78"/>
+      <c r="G87" s="78"/>
+      <c r="H87" s="78"/>
+      <c r="I87" s="78"/>
+      <c r="J87" s="78"/>
+      <c r="K87" s="78"/>
+      <c r="L87" s="78"/>
+      <c r="M87" s="78"/>
+      <c r="N87" s="78"/>
+      <c r="O87" s="78"/>
+      <c r="P87" s="78"/>
+      <c r="Q87" s="78"/>
+      <c r="R87" s="78"/>
+      <c r="S87" s="78"/>
+    </row>
+    <row r="88" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="C89" s="87"/>
-      <c r="D89" s="87"/>
-      <c r="E89" s="87"/>
-      <c r="F89" s="87"/>
-      <c r="G89" s="87"/>
-      <c r="H89" s="87"/>
-      <c r="I89" s="87"/>
-      <c r="J89" s="87"/>
-      <c r="K89" s="87"/>
-      <c r="S89" s="75"/>
-    </row>
-    <row r="90" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B90" s="87"/>
-      <c r="C90" s="87"/>
-      <c r="D90" s="87"/>
-      <c r="E90" s="87"/>
-      <c r="F90" s="87"/>
-      <c r="G90" s="87"/>
-      <c r="H90" s="87"/>
-      <c r="I90" s="87"/>
-      <c r="J90" s="87"/>
-      <c r="K90" s="87"/>
-      <c r="S90" s="75"/>
-    </row>
-    <row r="91" spans="2:22" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C89" s="80"/>
+      <c r="D89" s="80"/>
+      <c r="E89" s="80"/>
+      <c r="F89" s="80"/>
+      <c r="G89" s="80"/>
+      <c r="H89" s="80"/>
+      <c r="I89" s="80"/>
+      <c r="J89" s="80"/>
+      <c r="K89" s="80"/>
+      <c r="S89" s="73"/>
+      <c r="V89" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="W89" s="80"/>
+      <c r="X89" s="80"/>
+      <c r="Y89" s="80"/>
+      <c r="Z89" s="80"/>
+      <c r="AA89" s="80"/>
+      <c r="AB89" s="80"/>
+      <c r="AC89" s="80"/>
+      <c r="AD89" s="80"/>
+      <c r="AE89" s="80"/>
+    </row>
+    <row r="90" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="80"/>
+      <c r="C90" s="80"/>
+      <c r="D90" s="80"/>
+      <c r="E90" s="80"/>
+      <c r="F90" s="80"/>
+      <c r="G90" s="80"/>
+      <c r="H90" s="80"/>
+      <c r="I90" s="80"/>
+      <c r="J90" s="80"/>
+      <c r="K90" s="80"/>
+      <c r="S90" s="73"/>
+      <c r="V90" s="80"/>
+      <c r="W90" s="80"/>
+      <c r="X90" s="80"/>
+      <c r="Y90" s="80"/>
+      <c r="Z90" s="80"/>
+      <c r="AA90" s="80"/>
+      <c r="AB90" s="80"/>
+      <c r="AC90" s="80"/>
+      <c r="AD90" s="80"/>
+      <c r="AE90" s="80"/>
+    </row>
+    <row r="91" spans="2:31" ht="15.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B91" s="43"/>
-      <c r="C91" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="D91" s="86"/>
-      <c r="E91" s="86"/>
-      <c r="F91" s="86"/>
-      <c r="G91" s="86"/>
+      <c r="C91" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="D91" s="79"/>
+      <c r="E91" s="79"/>
+      <c r="F91" s="79"/>
+      <c r="G91" s="79"/>
       <c r="H91" s="43"/>
-      <c r="I91" s="86" t="s">
+      <c r="I91" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="J91" s="79"/>
+      <c r="K91" s="79"/>
+      <c r="L91" s="73"/>
+      <c r="M91" s="73"/>
+      <c r="O91" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="P91" s="88"/>
+      <c r="Q91" s="88"/>
+      <c r="R91" s="88"/>
+      <c r="S91" s="88"/>
+      <c r="V91" s="43"/>
+      <c r="W91" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="J91" s="86"/>
-      <c r="K91" s="86"/>
-      <c r="L91" s="75"/>
-      <c r="M91" s="75"/>
-      <c r="O91" s="85" t="s">
+      <c r="X91" s="79"/>
+      <c r="Y91" s="79"/>
+      <c r="Z91" s="79"/>
+      <c r="AA91" s="79"/>
+      <c r="AB91" s="43"/>
+      <c r="AC91" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="P91" s="85"/>
-      <c r="Q91" s="85"/>
-      <c r="R91" s="85"/>
-      <c r="S91" s="85"/>
-    </row>
-    <row r="92" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B92" s="76" t="s">
+      <c r="AD91" s="79"/>
+      <c r="AE91" s="79"/>
+    </row>
+    <row r="92" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B92" s="74" t="s">
         <v>32</v>
       </c>
       <c r="C92" s="30" t="s">
@@ -12445,8 +12190,8 @@
       <c r="K92" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="L92" s="75"/>
-      <c r="M92" s="75"/>
+      <c r="L92" s="73"/>
+      <c r="M92" s="73"/>
       <c r="O92" s="31" t="s">
         <v>7</v>
       </c>
@@ -12462,8 +12207,36 @@
       <c r="S92" s="31" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="93" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="V92" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="W92" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="X92" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y92" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z92" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA92" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB92" s="3"/>
+      <c r="AC92" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD92" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE92" s="30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B93" s="62" t="s">
         <v>7</v>
       </c>
@@ -12482,7 +12255,7 @@
       <c r="G93" s="16">
         <v>1.4</v>
       </c>
-      <c r="H93" s="78"/>
+      <c r="H93" s="77"/>
       <c r="I93" s="16">
         <v>0.9</v>
       </c>
@@ -12492,8 +12265,8 @@
       <c r="K93" s="16">
         <v>0.9</v>
       </c>
-      <c r="L93" s="75"/>
-      <c r="M93" s="75"/>
+      <c r="L93" s="73"/>
+      <c r="M93" s="73"/>
       <c r="O93" s="13">
         <v>5.8</v>
       </c>
@@ -12501,7 +12274,7 @@
         <v>3.4</v>
       </c>
       <c r="Q93" s="13">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R93" s="13">
         <v>0.6</v>
@@ -12509,8 +12282,36 @@
       <c r="S93" s="13">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="94" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="V93" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="W93" s="16">
+        <v>1</v>
+      </c>
+      <c r="X93" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y93" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z93" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA93" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB93" s="77"/>
+      <c r="AC93" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AD93" s="16">
+        <v>1</v>
+      </c>
+      <c r="AE93" s="16">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="94" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B94" s="62" t="s">
         <v>8</v>
       </c>
@@ -12529,7 +12330,7 @@
       <c r="G94" s="16">
         <v>0.5</v>
       </c>
-      <c r="H94" s="78"/>
+      <c r="H94" s="77"/>
       <c r="I94" s="16">
         <v>0.8</v>
       </c>
@@ -12539,46 +12340,102 @@
       <c r="K94" s="16">
         <v>1</v>
       </c>
-      <c r="L94" s="75"/>
-      <c r="M94" s="75"/>
-      <c r="O94" s="75"/>
-      <c r="Q94" s="75"/>
-    </row>
-    <row r="95" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="L94" s="73"/>
+      <c r="M94" s="73"/>
+      <c r="O94" s="73"/>
+      <c r="Q94" s="73"/>
+      <c r="V94" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="W94" s="16">
+        <v>1</v>
+      </c>
+      <c r="X94" s="16">
+        <v>1.3</v>
+      </c>
+      <c r="Y94" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z94" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA94" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AB94" s="77"/>
+      <c r="AC94" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AD94" s="16">
+        <v>1</v>
+      </c>
+      <c r="AE94" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B95" s="62" t="s">
         <v>9</v>
       </c>
       <c r="C95" s="16">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="D95" s="16">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E95" s="16">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="F95" s="16">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="G95" s="16">
         <v>0.6</v>
       </c>
-      <c r="H95" s="78"/>
+      <c r="H95" s="77"/>
       <c r="I95" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="J95" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="K95" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="L95" s="73"/>
+      <c r="M95" s="73"/>
+      <c r="O95" s="73"/>
+      <c r="Q95" s="73"/>
+      <c r="V95" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="W95" s="16">
+        <v>1</v>
+      </c>
+      <c r="X95" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y95" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z95" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA95" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="AB95" s="77"/>
+      <c r="AC95" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AD95" s="16">
+        <v>1</v>
+      </c>
+      <c r="AE95" s="16">
         <v>0.7</v>
       </c>
-      <c r="J95" s="16">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K95" s="16">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L95" s="75"/>
-      <c r="M95" s="75"/>
-      <c r="O95" s="75"/>
-      <c r="Q95" s="75"/>
-    </row>
-    <row r="96" spans="2:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B96" s="62" t="s">
         <v>10</v>
       </c>
@@ -12597,7 +12454,7 @@
       <c r="G96" s="16">
         <v>1.9</v>
       </c>
-      <c r="H96" s="78"/>
+      <c r="H96" s="77"/>
       <c r="I96" s="16">
         <v>0.9</v>
       </c>
@@ -12607,8 +12464,36 @@
       <c r="K96" s="16">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="97" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="V96" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="W96" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X96" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="Y96" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z96" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA96" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="AB96" s="77"/>
+      <c r="AC96" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD96" s="16">
+        <v>1</v>
+      </c>
+      <c r="AE96" s="16">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="97" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B97" s="62" t="s">
         <v>11</v>
       </c>
@@ -12627,7 +12512,7 @@
       <c r="G97" s="16">
         <v>0.8</v>
       </c>
-      <c r="H97" s="78"/>
+      <c r="H97" s="77"/>
       <c r="I97" s="16">
         <v>0.8</v>
       </c>
@@ -12637,54 +12522,81 @@
       <c r="K97" s="16">
         <v>0.9</v>
       </c>
-      <c r="AA97" s="75"/>
-    </row>
-    <row r="98" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="AA98" s="75"/>
-    </row>
-    <row r="99" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="C99" s="75"/>
-      <c r="D99" s="77"/>
-      <c r="AA99" s="75"/>
-    </row>
-    <row r="100" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="C100" s="75"/>
-      <c r="AA100" s="75"/>
-    </row>
-    <row r="101" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="C101" s="75"/>
-    </row>
-    <row r="102" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="C102" s="75"/>
-    </row>
-    <row r="103" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="C103" s="75"/>
-    </row>
-    <row r="104" spans="2:27" x14ac:dyDescent="0.35">
-      <c r="C104" s="75"/>
+      <c r="V97" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="W97" s="16">
+        <v>1</v>
+      </c>
+      <c r="X97" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y97" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z97" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA97" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB97" s="77"/>
+      <c r="AC97" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AD97" s="16">
+        <v>1</v>
+      </c>
+      <c r="AE97" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="AA98" s="73"/>
+    </row>
+    <row r="99" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="C99" s="73"/>
+      <c r="D99" s="75"/>
+      <c r="AA99" s="73"/>
+    </row>
+    <row r="100" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="C100" s="73"/>
+      <c r="AA100" s="73"/>
+    </row>
+    <row r="101" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="C101" s="73"/>
+    </row>
+    <row r="102" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="C102" s="73"/>
+    </row>
+    <row r="103" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="C103" s="73"/>
+    </row>
+    <row r="104" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="C104" s="73"/>
       <c r="E104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F104" s="71" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="105" spans="2:27" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="105" spans="2:31" x14ac:dyDescent="0.3">
       <c r="E105">
         <v>1</v>
       </c>
       <c r="F105" s="72">
-        <f t="shared" ref="F105:F136" si="30">SUM(E4:I4)</f>
+        <f t="shared" ref="F105:F136" si="20">SUM(E4:I4)</f>
         <v>32.300000000000004</v>
       </c>
       <c r="G105" s="72">
-        <f t="shared" ref="G105:G136" si="31">SUM(M4:Q4)</f>
+        <f t="shared" ref="G105:G136" si="21">SUM(M4:Q4)</f>
         <v>35.1</v>
       </c>
       <c r="H105" s="72">
@@ -12692,1268 +12604,1272 @@
         <v>2.7999999999999972</v>
       </c>
     </row>
-    <row r="106" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:31" x14ac:dyDescent="0.3">
       <c r="E106">
         <f>1+E105</f>
         <v>2</v>
       </c>
       <c r="F106" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>34.400000000000006</v>
       </c>
       <c r="G106" s="72">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>33.799999999999997</v>
       </c>
       <c r="H106" s="72">
-        <f t="shared" ref="H106:H164" si="32">G106-F106</f>
+        <f t="shared" ref="H106:H164" si="22">G106-F106</f>
         <v>-0.60000000000000853</v>
       </c>
     </row>
-    <row r="107" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:31" x14ac:dyDescent="0.3">
       <c r="E107">
-        <f t="shared" ref="E107:E164" si="33">1+E106</f>
+        <f t="shared" ref="E107:E164" si="23">1+E106</f>
         <v>3</v>
       </c>
       <c r="F107" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>30.7</v>
       </c>
       <c r="G107" s="72">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>31.1</v>
       </c>
       <c r="H107" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>0.40000000000000213</v>
       </c>
     </row>
-    <row r="108" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:31" x14ac:dyDescent="0.3">
       <c r="E108">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="F108" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>31.1</v>
       </c>
       <c r="G108" s="72">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>30.9</v>
       </c>
       <c r="H108" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>-0.20000000000000284</v>
       </c>
     </row>
-    <row r="109" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:31" x14ac:dyDescent="0.3">
       <c r="E109">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="F109" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>24.8</v>
       </c>
       <c r="G109" s="72">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>23.9</v>
       </c>
       <c r="H109" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>-0.90000000000000213</v>
       </c>
     </row>
-    <row r="110" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:31" x14ac:dyDescent="0.3">
       <c r="E110">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="F110" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>17.899999999999999</v>
       </c>
       <c r="G110" s="72">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>16.600000000000001</v>
       </c>
       <c r="H110" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>-1.2999999999999972</v>
       </c>
     </row>
-    <row r="111" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:31" x14ac:dyDescent="0.3">
       <c r="E111">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="F111" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>25.8</v>
       </c>
       <c r="G111" s="72">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>28.700000000000003</v>
       </c>
       <c r="H111" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>2.9000000000000021</v>
       </c>
     </row>
-    <row r="112" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:31" x14ac:dyDescent="0.3">
       <c r="E112">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="F112" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>28.700000000000003</v>
       </c>
       <c r="G112" s="72">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>26</v>
       </c>
       <c r="H112" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>-2.7000000000000028</v>
       </c>
     </row>
-    <row r="113" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E113">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>9</v>
       </c>
       <c r="F113" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>37.5</v>
       </c>
       <c r="G113" s="72">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>30.5</v>
       </c>
       <c r="H113" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>-7</v>
       </c>
     </row>
-    <row r="114" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E114">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="F114" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>35.700000000000003</v>
       </c>
       <c r="G114" s="72">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>34.699999999999996</v>
       </c>
       <c r="H114" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>-1.0000000000000071</v>
       </c>
     </row>
-    <row r="115" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E115">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>11</v>
       </c>
       <c r="F115" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>37.700000000000003</v>
       </c>
       <c r="G115" s="72">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>40.9</v>
       </c>
       <c r="H115" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>3.1999999999999957</v>
       </c>
     </row>
-    <row r="116" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E116">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>12</v>
       </c>
       <c r="F116" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>21</v>
       </c>
       <c r="G116" s="72">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>22.4</v>
       </c>
       <c r="H116" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>1.3999999999999986</v>
       </c>
     </row>
-    <row r="117" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E117">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>13</v>
       </c>
       <c r="F117" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>15.8</v>
       </c>
       <c r="G117" s="72">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>17.5</v>
       </c>
       <c r="H117" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>1.6999999999999993</v>
       </c>
     </row>
-    <row r="118" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E118">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="F118" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>17.5</v>
       </c>
       <c r="G118" s="72">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>14.399999999999999</v>
       </c>
       <c r="H118" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>-3.1000000000000014</v>
       </c>
     </row>
-    <row r="119" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E119">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
       <c r="F119" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>14.399999999999999</v>
       </c>
       <c r="G119" s="72">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>17</v>
       </c>
       <c r="H119" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>2.6000000000000014</v>
       </c>
     </row>
-    <row r="120" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E120">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>16</v>
       </c>
       <c r="F120" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>24.2</v>
       </c>
       <c r="G120" s="72">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>29.299999999999997</v>
       </c>
       <c r="H120" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>5.0999999999999979</v>
       </c>
     </row>
-    <row r="121" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E121">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>17</v>
       </c>
       <c r="F121" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>19.5</v>
       </c>
       <c r="G121" s="72">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>23.200000000000003</v>
       </c>
       <c r="H121" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>3.7000000000000028</v>
       </c>
     </row>
-    <row r="122" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E122">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>18</v>
       </c>
       <c r="F122" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>23.8</v>
       </c>
       <c r="G122" s="72">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>20.3</v>
       </c>
       <c r="H122" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>-3.5</v>
       </c>
     </row>
-    <row r="123" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E123">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>19</v>
       </c>
       <c r="F123" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>11.6</v>
       </c>
       <c r="G123" s="72">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>17.600000000000001</v>
       </c>
       <c r="H123" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>6.0000000000000018</v>
       </c>
     </row>
-    <row r="124" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E124">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="F124" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="G124" s="72">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>20.5</v>
       </c>
       <c r="H124" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="125" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E125">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>21</v>
       </c>
       <c r="F125" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>48.2</v>
       </c>
       <c r="G125" s="72">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>43.400000000000006</v>
       </c>
       <c r="H125" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>-4.7999999999999972</v>
       </c>
     </row>
-    <row r="126" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E126">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>22</v>
       </c>
       <c r="F126" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>43.599999999999994</v>
       </c>
       <c r="G126" s="72">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>40.900000000000006</v>
       </c>
       <c r="H126" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>-2.6999999999999886</v>
       </c>
     </row>
-    <row r="127" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E127">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>23</v>
       </c>
       <c r="F127" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>18.400000000000002</v>
       </c>
       <c r="G127" s="72">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>19</v>
       </c>
       <c r="H127" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>0.59999999999999787</v>
       </c>
     </row>
-    <row r="128" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E128">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>24</v>
       </c>
       <c r="F128" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>17</v>
       </c>
       <c r="G128" s="72">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>26.7</v>
       </c>
       <c r="H128" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="129" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E129">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>25</v>
       </c>
       <c r="F129" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>26.7</v>
       </c>
       <c r="G129" s="72">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>20.6</v>
       </c>
       <c r="H129" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>-6.0999999999999979</v>
       </c>
     </row>
-    <row r="130" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E130">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>26</v>
       </c>
       <c r="F130" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>21.6</v>
       </c>
       <c r="G130" s="72">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>18</v>
       </c>
       <c r="H130" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>-3.6000000000000014</v>
       </c>
     </row>
-    <row r="131" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E131">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>27</v>
       </c>
       <c r="F131" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
       <c r="G131" s="72">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>23</v>
       </c>
       <c r="H131" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="132" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E132">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>28</v>
       </c>
       <c r="F132" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>35.599999999999994</v>
       </c>
       <c r="G132" s="72">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>33.4</v>
       </c>
       <c r="H132" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>-2.1999999999999957</v>
       </c>
     </row>
-    <row r="133" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E133">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>29</v>
       </c>
       <c r="F133" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>42.9</v>
       </c>
       <c r="G133" s="72">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>32.9</v>
       </c>
       <c r="H133" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>-10</v>
       </c>
     </row>
-    <row r="134" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E134">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>30</v>
       </c>
       <c r="F134" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>29.4</v>
       </c>
       <c r="G134" s="72">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>31.1</v>
       </c>
       <c r="H134" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>1.7000000000000028</v>
       </c>
     </row>
-    <row r="135" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E135">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="F135" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>36.200000000000003</v>
       </c>
       <c r="G135" s="72">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>39.400000000000006</v>
       </c>
       <c r="H135" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>3.2000000000000028</v>
       </c>
     </row>
-    <row r="136" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E136">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>32</v>
       </c>
       <c r="F136" s="72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="20"/>
         <v>39.400000000000006</v>
       </c>
       <c r="G136" s="72">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>41.5</v>
       </c>
       <c r="H136" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>2.0999999999999943</v>
       </c>
     </row>
-    <row r="137" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E137">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>33</v>
       </c>
       <c r="F137" s="72">
-        <f t="shared" ref="F137:F164" si="34">SUM(E36:I36)</f>
+        <f t="shared" ref="F137:F168" si="24">SUM(E36:I36)</f>
         <v>25</v>
       </c>
       <c r="G137" s="72">
-        <f t="shared" ref="G137:G164" si="35">SUM(M36:Q36)</f>
+        <f t="shared" ref="G137:G168" si="25">SUM(M36:Q36)</f>
         <v>27</v>
       </c>
       <c r="H137" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E138">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>34</v>
       </c>
       <c r="F138" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>37.9</v>
       </c>
       <c r="G138" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>34.799999999999997</v>
       </c>
       <c r="H138" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>-3.1000000000000014</v>
       </c>
     </row>
-    <row r="139" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E139">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>35</v>
       </c>
       <c r="F139" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>29.8</v>
       </c>
       <c r="G139" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>35</v>
       </c>
       <c r="H139" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>5.1999999999999993</v>
       </c>
     </row>
-    <row r="140" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E140">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>36</v>
       </c>
       <c r="F140" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>23</v>
       </c>
       <c r="G140" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>22.3</v>
       </c>
       <c r="H140" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>-0.69999999999999929</v>
       </c>
     </row>
-    <row r="141" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E141">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>37</v>
       </c>
       <c r="F141" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>21.6</v>
       </c>
       <c r="G141" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>15.5</v>
       </c>
       <c r="H141" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>-6.1000000000000014</v>
       </c>
     </row>
-    <row r="142" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E142">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>38</v>
       </c>
       <c r="F142" s="72">
-        <f t="shared" si="34"/>
-        <v>55.199999999999996</v>
+        <f t="shared" si="24"/>
+        <v>47.599999999999994</v>
       </c>
       <c r="G142" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>46.2</v>
       </c>
       <c r="H142" s="72">
-        <f t="shared" si="32"/>
-        <v>-8.9999999999999929</v>
-      </c>
-    </row>
-    <row r="143" spans="5:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="22"/>
+        <v>-1.3999999999999915</v>
+      </c>
+    </row>
+    <row r="143" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E143">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>39</v>
       </c>
       <c r="F143" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>21.9</v>
       </c>
       <c r="G143" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>18.2</v>
       </c>
       <c r="H143" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>-3.6999999999999993</v>
       </c>
     </row>
-    <row r="144" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E144">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>40</v>
       </c>
       <c r="F144" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>18.2</v>
       </c>
       <c r="G144" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>32.1</v>
       </c>
       <c r="H144" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>13.900000000000002</v>
       </c>
     </row>
-    <row r="145" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E145">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>41</v>
       </c>
       <c r="F145" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>27.700000000000003</v>
       </c>
       <c r="G145" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>34.5</v>
       </c>
       <c r="H145" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>6.7999999999999972</v>
       </c>
     </row>
-    <row r="146" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E146">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>42</v>
       </c>
       <c r="F146" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>34.5</v>
       </c>
       <c r="G146" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>33.4</v>
       </c>
       <c r="H146" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>-1.1000000000000014</v>
       </c>
     </row>
-    <row r="147" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E147">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>43</v>
       </c>
       <c r="F147" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>13.2</v>
       </c>
       <c r="G147" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>18.699999999999996</v>
       </c>
       <c r="H147" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>5.4999999999999964</v>
       </c>
     </row>
-    <row r="148" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C148" s="72"/>
       <c r="E148">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>44</v>
       </c>
       <c r="F148" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>29.5</v>
       </c>
       <c r="G148" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>26.599999999999998</v>
       </c>
       <c r="H148" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>-2.9000000000000021</v>
       </c>
     </row>
-    <row r="149" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C149" s="72"/>
       <c r="E149">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>45</v>
       </c>
       <c r="F149" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>26.599999999999998</v>
       </c>
       <c r="G149" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>18.8</v>
       </c>
       <c r="H149" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>-7.7999999999999972</v>
       </c>
     </row>
-    <row r="150" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C150" s="72"/>
       <c r="E150">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>46</v>
       </c>
       <c r="F150" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>27.9</v>
       </c>
       <c r="G150" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>20.6</v>
       </c>
       <c r="H150" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>-7.2999999999999972</v>
       </c>
     </row>
-    <row r="151" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C151" s="72"/>
       <c r="E151">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>47</v>
       </c>
       <c r="F151" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>23.5</v>
       </c>
       <c r="G151" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>18.8</v>
       </c>
       <c r="H151" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>-4.6999999999999993</v>
       </c>
     </row>
-    <row r="152" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C152" s="72"/>
       <c r="E152">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>48</v>
       </c>
       <c r="F152" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>11.2</v>
       </c>
       <c r="G152" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>18.899999999999999</v>
       </c>
       <c r="H152" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>7.6999999999999993</v>
       </c>
     </row>
-    <row r="153" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="153" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C153" s="72"/>
       <c r="E153">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>49</v>
       </c>
       <c r="F153" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>18.899999999999999</v>
       </c>
       <c r="G153" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>16.600000000000001</v>
       </c>
       <c r="H153" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>-2.2999999999999972</v>
       </c>
     </row>
-    <row r="154" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C154" s="72"/>
       <c r="E154">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>50</v>
       </c>
       <c r="F154" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>18.5</v>
       </c>
       <c r="G154" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>19</v>
       </c>
       <c r="H154" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="155" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="155" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C155" s="72"/>
       <c r="E155">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>51</v>
       </c>
       <c r="F155" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>28</v>
       </c>
       <c r="G155" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>27.900000000000002</v>
       </c>
       <c r="H155" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>-9.9999999999997868E-2</v>
       </c>
     </row>
-    <row r="156" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="156" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C156" s="72"/>
       <c r="E156">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>52</v>
       </c>
       <c r="F156" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>26.700000000000003</v>
       </c>
       <c r="G156" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>24.400000000000002</v>
       </c>
       <c r="H156" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>-2.3000000000000007</v>
       </c>
     </row>
-    <row r="157" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="157" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C157" s="72"/>
       <c r="E157">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>53</v>
       </c>
       <c r="F157" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>24.400000000000002</v>
       </c>
       <c r="G157" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>25.1</v>
       </c>
       <c r="H157" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>0.69999999999999929</v>
       </c>
     </row>
-    <row r="158" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="158" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C158" s="72"/>
       <c r="E158">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>54</v>
       </c>
       <c r="F158" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>22.8</v>
       </c>
       <c r="G158" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>27.6</v>
       </c>
       <c r="H158" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>4.8000000000000007</v>
       </c>
     </row>
-    <row r="159" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="159" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C159" s="72"/>
       <c r="E159">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>55</v>
       </c>
       <c r="F159" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>17.600000000000001</v>
       </c>
       <c r="G159" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>26.299999999999997</v>
       </c>
       <c r="H159" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>8.6999999999999957</v>
       </c>
     </row>
-    <row r="160" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="160" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C160" s="72"/>
       <c r="E160">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>56</v>
       </c>
       <c r="F160" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>19.8</v>
       </c>
       <c r="G160" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>12.1</v>
       </c>
       <c r="H160" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>-7.7000000000000011</v>
       </c>
     </row>
-    <row r="161" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C161" s="72"/>
       <c r="E161">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>57</v>
       </c>
       <c r="F161" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>14.3</v>
       </c>
       <c r="G161" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>16</v>
       </c>
       <c r="H161" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>1.6999999999999993</v>
       </c>
     </row>
-    <row r="162" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="162" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C162" s="72"/>
       <c r="E162">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>58</v>
       </c>
       <c r="F162" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>16</v>
       </c>
       <c r="G162" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>6.7</v>
       </c>
       <c r="H162" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>-9.3000000000000007</v>
       </c>
     </row>
-    <row r="163" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="163" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C163" s="72"/>
       <c r="E163">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>59</v>
       </c>
       <c r="F163" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>40.6</v>
       </c>
       <c r="G163" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>34.400000000000006</v>
       </c>
       <c r="H163" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>-6.1999999999999957</v>
       </c>
     </row>
-    <row r="164" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="164" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C164" s="72"/>
       <c r="E164">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>60</v>
       </c>
       <c r="F164" s="72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>34.400000000000006</v>
       </c>
       <c r="G164" s="72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>34.900000000000006</v>
       </c>
       <c r="H164" s="72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="165" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="165" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C165" s="72"/>
     </row>
-    <row r="166" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="166" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C166" s="72"/>
     </row>
-    <row r="167" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="167" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C167" s="72"/>
     </row>
-    <row r="168" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="168" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C168" s="72"/>
     </row>
-    <row r="169" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="169" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C169" s="72"/>
     </row>
-    <row r="170" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="170" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C170" s="72"/>
     </row>
-    <row r="171" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="171" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C171" s="72"/>
     </row>
-    <row r="172" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="172" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C172" s="72"/>
     </row>
-    <row r="173" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="173" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C173" s="72"/>
     </row>
-    <row r="174" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="174" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C174" s="72"/>
     </row>
-    <row r="175" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="175" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C175" s="72"/>
     </row>
-    <row r="176" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="176" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C176" s="72"/>
     </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C177" s="72"/>
     </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C178" s="72"/>
     </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C179" s="72"/>
     </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C180" s="72"/>
     </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C181" s="72"/>
     </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C182" s="72"/>
     </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C183" s="72"/>
     </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C184" s="72"/>
     </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C185" s="72"/>
     </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C186" s="72"/>
     </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C187" s="72"/>
     </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C188" s="72"/>
     </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C189" s="72"/>
     </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C190" s="72"/>
     </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C191" s="72"/>
     </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C192" s="72"/>
     </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C193" s="72"/>
     </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C194" s="72"/>
     </row>
-    <row r="195" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C195" s="72"/>
     </row>
-    <row r="196" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C196" s="72"/>
     </row>
-    <row r="197" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C197" s="72"/>
     </row>
-    <row r="198" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C198" s="72"/>
     </row>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C199" s="72"/>
     </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C200" s="72"/>
     </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C201" s="72"/>
     </row>
-    <row r="202" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C202" s="72"/>
     </row>
-    <row r="203" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C203" s="72"/>
     </row>
-    <row r="204" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C204" s="72"/>
     </row>
-    <row r="205" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C205" s="72"/>
     </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C206" s="72"/>
     </row>
-    <row r="207" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C207" s="72"/>
     </row>
-    <row r="208" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C208" s="72"/>
     </row>
-    <row r="209" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C209" s="72"/>
     </row>
-    <row r="210" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C210" s="72"/>
     </row>
-    <row r="211" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C211" s="72"/>
     </row>
-    <row r="212" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C212" s="72"/>
     </row>
-    <row r="213" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C213" s="72"/>
     </row>
-    <row r="214" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C214" s="72"/>
     </row>
-    <row r="215" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C215" s="72"/>
     </row>
-    <row r="216" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C216" s="72"/>
     </row>
-    <row r="217" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C217" s="72"/>
     </row>
-    <row r="218" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C218" s="72"/>
     </row>
-    <row r="219" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C219" s="72"/>
     </row>
-    <row r="220" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C220" s="72"/>
     </row>
-    <row r="221" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C221" s="72"/>
     </row>
-    <row r="222" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C222" s="72"/>
     </row>
-    <row r="223" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C223" s="72"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Z4:AN63">
     <sortCondition ref="Z4:Z63"/>
   </sortState>
-  <mergeCells count="18">
+  <mergeCells count="21">
+    <mergeCell ref="Z2:AF2"/>
     <mergeCell ref="O91:S91"/>
+    <mergeCell ref="V89:AE90"/>
+    <mergeCell ref="W91:AA91"/>
+    <mergeCell ref="AC91:AE91"/>
     <mergeCell ref="C91:G91"/>
     <mergeCell ref="I91:K91"/>
     <mergeCell ref="B89:K90"/>
@@ -13970,7 +13886,6 @@
     <mergeCell ref="U74:V74"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="Z2:AF2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
